--- a/Übungen/04_Netzplan_Wiederholung.xlsx
+++ b/Übungen/04_Netzplan_Wiederholung.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="37">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -278,7 +278,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -335,6 +335,27 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -367,7 +388,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -444,7 +465,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -456,11 +481,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -526,10 +567,6 @@
     </xf>
     <xf numFmtId="166" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -732,78 +769,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>28800</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>142920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>171000</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>7200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="0" name="Form 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12742920" y="1496880"/>
-          <a:ext cx="142200" cy="189360"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst>
-            <a:gd name="textAreaLeft" fmla="*/ 0 w 142200"/>
-            <a:gd name="textAreaRight" fmla="*/ 142560 w 142200"/>
-            <a:gd name="textAreaTop" fmla="*/ 0 h 189360"/>
-            <a:gd name="textAreaBottom" fmla="*/ 189720 h 189360"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:rect l="textAreaLeft" t="textAreaTop" r="textAreaRight" b="textAreaBottom"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="10800" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="10800"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="10800" y="21600"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="10800"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="10800" y="0"/>
-              </a:lnTo>
-              <a:close/>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="729fcf"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="3465a4"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
       <xdr:col>67</xdr:col>
       <xdr:colOff>85680</xdr:colOff>
       <xdr:row>9</xdr:row>
@@ -817,7 +782,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="Form 2"/>
+        <xdr:cNvPr id="0" name="Form 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -894,7 +859,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPr id="1" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -937,7 +902,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvPr id="2" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -979,7 +944,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name=""/>
+        <xdr:cNvPr id="3" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1021,7 +986,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name=""/>
+        <xdr:cNvPr id="4" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1063,7 +1028,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name=""/>
+        <xdr:cNvPr id="5" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1105,7 +1070,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name=""/>
+        <xdr:cNvPr id="6" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1147,7 +1112,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name=""/>
+        <xdr:cNvPr id="7" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1189,7 +1154,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name=""/>
+        <xdr:cNvPr id="8" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1227,7 +1192,7 @@
   <dimension ref="A1:BS44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA23" activeCellId="0" sqref="AA23"/>
+      <selection pane="topLeft" activeCell="P18" activeCellId="0" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2232,27 +2197,54 @@
         <v>0</v>
       </c>
       <c r="B12" s="15"/>
-      <c r="C12" s="19"/>
+      <c r="C12" s="19" t="n">
+        <f aca="false">A12+A14</f>
+        <v>2</v>
+      </c>
       <c r="D12" s="0"/>
       <c r="E12" s="0"/>
-      <c r="F12" s="0"/>
-      <c r="G12" s="0"/>
-      <c r="H12" s="0"/>
+      <c r="F12" s="20" t="n">
+        <f aca="false">C12</f>
+        <v>2</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="19" t="n">
+        <f aca="false">F12+F14</f>
+        <v>8</v>
+      </c>
       <c r="I12" s="0"/>
       <c r="J12" s="0"/>
-      <c r="K12" s="0"/>
-      <c r="L12" s="0"/>
-      <c r="M12" s="0"/>
+      <c r="K12" s="20" t="n">
+        <f aca="false">H12</f>
+        <v>8</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="19" t="n">
+        <f aca="false">K12+K14</f>
+        <v>15</v>
+      </c>
       <c r="N12" s="0"/>
       <c r="O12" s="0"/>
-      <c r="P12" s="0"/>
-      <c r="Q12" s="0"/>
-      <c r="R12" s="0"/>
+      <c r="P12" s="20" t="n">
+        <f aca="false">M12</f>
+        <v>15</v>
+      </c>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="19" t="n">
+        <f aca="false">P12+P14</f>
+        <v>21</v>
+      </c>
       <c r="S12" s="0"/>
       <c r="T12" s="0"/>
-      <c r="U12" s="0"/>
-      <c r="V12" s="0"/>
-      <c r="W12" s="0"/>
+      <c r="U12" s="20" t="n">
+        <f aca="false">R12</f>
+        <v>21</v>
+      </c>
+      <c r="V12" s="4"/>
+      <c r="W12" s="19" t="n">
+        <f aca="false">U12+U14</f>
+        <v>27</v>
+      </c>
       <c r="X12" s="0"/>
       <c r="Y12" s="0"/>
       <c r="Z12" s="0"/>
@@ -2262,31 +2254,39 @@
       <c r="AD12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="0"/>
       <c r="E13" s="0"/>
-      <c r="F13" s="0"/>
-      <c r="G13" s="0"/>
-      <c r="H13" s="0"/>
+      <c r="F13" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
       <c r="I13" s="0"/>
       <c r="J13" s="0"/>
-      <c r="K13" s="0"/>
-      <c r="L13" s="0"/>
-      <c r="M13" s="0"/>
+      <c r="K13" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
       <c r="N13" s="0"/>
       <c r="O13" s="0"/>
-      <c r="P13" s="0"/>
-      <c r="Q13" s="0"/>
-      <c r="R13" s="0"/>
+      <c r="P13" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
       <c r="S13" s="0"/>
       <c r="T13" s="0"/>
-      <c r="U13" s="0"/>
-      <c r="V13" s="0"/>
-      <c r="W13" s="0"/>
+      <c r="U13" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
       <c r="X13" s="0"/>
       <c r="Y13" s="0"/>
       <c r="Z13" s="0"/>
@@ -2296,34 +2296,61 @@
       <c r="AD13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="21" t="n">
-        <f aca="false">VLOOKUP(A13,A2:H10,8)</f>
+      <c r="A14" s="22" t="n">
+        <f aca="false">VLOOKUP(A13,$A$2:$H$10,8)</f>
         <v>2</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="0"/>
-      <c r="E14" s="0"/>
-      <c r="F14" s="0"/>
-      <c r="G14" s="0"/>
-      <c r="H14" s="0"/>
-      <c r="I14" s="0"/>
-      <c r="J14" s="0"/>
-      <c r="K14" s="0"/>
-      <c r="L14" s="0"/>
-      <c r="M14" s="0"/>
-      <c r="N14" s="0"/>
-      <c r="O14" s="0"/>
-      <c r="P14" s="0"/>
-      <c r="Q14" s="0"/>
-      <c r="R14" s="0"/>
-      <c r="S14" s="0"/>
-      <c r="T14" s="0"/>
-      <c r="U14" s="0"/>
-      <c r="V14" s="0"/>
-      <c r="W14" s="0"/>
-      <c r="X14" s="0"/>
-      <c r="Y14" s="0"/>
+      <c r="B14" s="23" t="n">
+        <f aca="false">C15-C12</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="22" t="n">
+        <f aca="false">VLOOKUP(F13,$A$2:$H$10,8)</f>
+        <v>6</v>
+      </c>
+      <c r="G14" s="23" t="n">
+        <f aca="false">H15-H12</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="23"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="22" t="n">
+        <f aca="false">VLOOKUP(K13,$A$2:$H$10,8)</f>
+        <v>7</v>
+      </c>
+      <c r="L14" s="23" t="n">
+        <f aca="false">M15-M12</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="23"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="22" t="n">
+        <f aca="false">VLOOKUP(P13,$A$2:$H$10,8)</f>
+        <v>6</v>
+      </c>
+      <c r="Q14" s="23" t="n">
+        <f aca="false">R15-R12</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="23"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="22" t="n">
+        <f aca="false">VLOOKUP(U13,$A$2:$H$10,8)</f>
+        <v>6</v>
+      </c>
+      <c r="V14" s="23" t="n">
+        <f aca="false">W15-W12</f>
+        <v>0</v>
+      </c>
+      <c r="W14" s="23"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="27"/>
       <c r="Z14" s="0"/>
       <c r="AA14" s="0"/>
       <c r="AB14" s="0"/>
@@ -2331,43 +2358,88 @@
       <c r="AD14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="23"/>
+      <c r="A15" s="28" t="n">
+        <f aca="false">C15-A14</f>
+        <v>0</v>
+      </c>
       <c r="B15" s="15"/>
-      <c r="C15" s="23"/>
+      <c r="C15" s="28" t="n">
+        <f aca="false">MIN(F15,F21)</f>
+        <v>2</v>
+      </c>
       <c r="D15" s="0"/>
-      <c r="E15" s="0"/>
-      <c r="F15" s="0"/>
-      <c r="G15" s="0"/>
-      <c r="H15" s="0"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="28" t="n">
+        <f aca="false">H15-F14</f>
+        <v>2</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="28" t="n">
+        <f aca="false">K15</f>
+        <v>8</v>
+      </c>
       <c r="I15" s="0"/>
       <c r="J15" s="0"/>
-      <c r="K15" s="0"/>
-      <c r="L15" s="0"/>
-      <c r="M15" s="0"/>
+      <c r="K15" s="28" t="n">
+        <f aca="false">M15-K14</f>
+        <v>8</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="28" t="n">
+        <f aca="false">P15</f>
+        <v>15</v>
+      </c>
       <c r="N15" s="0"/>
       <c r="O15" s="0"/>
-      <c r="P15" s="0"/>
-      <c r="Q15" s="0"/>
-      <c r="R15" s="0"/>
+      <c r="P15" s="28" t="n">
+        <f aca="false">R15-P14</f>
+        <v>15</v>
+      </c>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="28" t="n">
+        <f aca="false">U15</f>
+        <v>21</v>
+      </c>
       <c r="S15" s="0"/>
       <c r="T15" s="0"/>
-      <c r="U15" s="0"/>
-      <c r="V15" s="0"/>
-      <c r="W15" s="0"/>
+      <c r="U15" s="28" t="n">
+        <f aca="false">W15-U14</f>
+        <v>21</v>
+      </c>
+      <c r="V15" s="4"/>
+      <c r="W15" s="28" t="n">
+        <f aca="false">Z18</f>
+        <v>27</v>
+      </c>
       <c r="X15" s="0"/>
-      <c r="Y15" s="0"/>
-      <c r="Z15" s="0"/>
-      <c r="AA15" s="0"/>
-      <c r="AB15" s="0"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="20" t="n">
+        <f aca="false">MAX(W12,M18)</f>
+        <v>27</v>
+      </c>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="19" t="n">
+        <f aca="false">Z15+Z17</f>
+        <v>36</v>
+      </c>
       <c r="AC15" s="0"/>
       <c r="AD15" s="0"/>
+      <c r="AE15" s="20" t="n">
+        <f aca="false">AB15</f>
+        <v>36</v>
+      </c>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="19" t="n">
+        <f aca="false">AE15+AE17</f>
+        <v>41</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="0"/>
-      <c r="E16" s="0"/>
+      <c r="E16" s="27"/>
       <c r="F16" s="0"/>
       <c r="G16" s="0"/>
       <c r="H16" s="0"/>
@@ -2387,19 +2459,26 @@
       <c r="V16" s="0"/>
       <c r="W16" s="0"/>
       <c r="X16" s="0"/>
-      <c r="Y16" s="0"/>
-      <c r="Z16" s="0"/>
-      <c r="AA16" s="0"/>
-      <c r="AB16" s="0"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="21"/>
       <c r="AC16" s="0"/>
       <c r="AD16" s="0"/>
+      <c r="AE16" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF16" s="21"/>
+      <c r="AG16" s="21"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="0"/>
-      <c r="E17" s="0"/>
+      <c r="E17" s="27"/>
       <c r="F17" s="0"/>
       <c r="G17" s="0"/>
       <c r="H17" s="0"/>
@@ -2420,26 +2499,53 @@
       <c r="W17" s="0"/>
       <c r="X17" s="0"/>
       <c r="Y17" s="0"/>
-      <c r="Z17" s="0"/>
-      <c r="AA17" s="0"/>
-      <c r="AB17" s="0"/>
-      <c r="AC17" s="0"/>
-      <c r="AD17" s="0"/>
+      <c r="Z17" s="22" t="n">
+        <f aca="false">VLOOKUP(Z16,$A$2:$H$10,8)</f>
+        <v>9</v>
+      </c>
+      <c r="AA17" s="23" t="n">
+        <f aca="false">AB18-AB15</f>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="23"/>
+      <c r="AC17" s="25"/>
+      <c r="AD17" s="25"/>
+      <c r="AE17" s="22" t="n">
+        <f aca="false">VLOOKUP(AE16,$A$2:$H$10,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AF17" s="23" t="n">
+        <f aca="false">AG18-AG15</f>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="23"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="0"/>
-      <c r="E18" s="0"/>
-      <c r="F18" s="0"/>
-      <c r="G18" s="0"/>
-      <c r="H18" s="0"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="20" t="n">
+        <f aca="false">C12</f>
+        <v>2</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="19" t="n">
+        <f aca="false">F18+F20</f>
+        <v>6</v>
+      </c>
       <c r="I18" s="0"/>
       <c r="J18" s="0"/>
-      <c r="K18" s="0"/>
-      <c r="L18" s="0"/>
-      <c r="M18" s="0"/>
+      <c r="K18" s="20" t="n">
+        <f aca="false">H18</f>
+        <v>6</v>
+      </c>
+      <c r="L18" s="4"/>
+      <c r="M18" s="19" t="n">
+        <f aca="false">K18+K20</f>
+        <v>15</v>
+      </c>
       <c r="N18" s="0"/>
       <c r="O18" s="0"/>
       <c r="P18" s="0"/>
@@ -2451,24 +2557,43 @@
       <c r="V18" s="0"/>
       <c r="W18" s="0"/>
       <c r="X18" s="0"/>
-      <c r="Y18" s="0"/>
-      <c r="Z18" s="0"/>
-      <c r="AA18" s="0"/>
-      <c r="AB18" s="0"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="28" t="n">
+        <f aca="false">AB18-Z17</f>
+        <v>27</v>
+      </c>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="28" t="n">
+        <f aca="false">AE18</f>
+        <v>36</v>
+      </c>
       <c r="AC18" s="0"/>
       <c r="AD18" s="0"/>
+      <c r="AE18" s="28" t="n">
+        <f aca="false">AG18-AE17</f>
+        <v>36</v>
+      </c>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="28" t="n">
+        <f aca="false">AG15</f>
+        <v>41</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D19" s="0"/>
-      <c r="E19" s="0"/>
-      <c r="F19" s="0"/>
-      <c r="G19" s="0"/>
-      <c r="H19" s="0"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
       <c r="I19" s="0"/>
       <c r="J19" s="0"/>
-      <c r="K19" s="0"/>
-      <c r="L19" s="0"/>
-      <c r="M19" s="0"/>
+      <c r="K19" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
       <c r="N19" s="0"/>
       <c r="O19" s="0"/>
       <c r="P19" s="0"/>
@@ -2480,35 +2605,50 @@
       <c r="V19" s="0"/>
       <c r="W19" s="0"/>
       <c r="X19" s="0"/>
-      <c r="Y19" s="0"/>
+      <c r="Y19" s="27"/>
       <c r="Z19" s="0"/>
       <c r="AA19" s="0"/>
       <c r="AB19" s="0"/>
       <c r="AC19" s="0"/>
       <c r="AD19" s="0"/>
+      <c r="AE19" s="0"/>
+      <c r="AF19" s="0"/>
+      <c r="AG19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D20" s="0"/>
-      <c r="E20" s="0"/>
-      <c r="F20" s="0"/>
-      <c r="G20" s="0"/>
-      <c r="H20" s="0"/>
-      <c r="I20" s="0"/>
-      <c r="J20" s="0"/>
-      <c r="K20" s="0"/>
-      <c r="L20" s="0"/>
-      <c r="M20" s="0"/>
-      <c r="N20" s="0"/>
-      <c r="O20" s="0"/>
-      <c r="P20" s="0"/>
-      <c r="Q20" s="0"/>
-      <c r="R20" s="0"/>
-      <c r="S20" s="0"/>
-      <c r="T20" s="0"/>
-      <c r="U20" s="0"/>
-      <c r="V20" s="0"/>
-      <c r="W20" s="0"/>
-      <c r="X20" s="0"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="22" t="n">
+        <f aca="false">VLOOKUP(F19,$A$2:$H$10,8)</f>
+        <v>4</v>
+      </c>
+      <c r="G20" s="23" t="n">
+        <f aca="false">H21-H18</f>
+        <v>12</v>
+      </c>
+      <c r="H20" s="23"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="22" t="n">
+        <f aca="false">VLOOKUP(K19,$A$2:$H$10,8)</f>
+        <v>9</v>
+      </c>
+      <c r="L20" s="23" t="n">
+        <f aca="false">M21-M18</f>
+        <v>12</v>
+      </c>
+      <c r="M20" s="23"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="25"/>
       <c r="Y20" s="0"/>
       <c r="Z20" s="0"/>
       <c r="AA20" s="0"/>
@@ -2519,14 +2659,26 @@
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="0"/>
       <c r="E21" s="0"/>
-      <c r="F21" s="0"/>
-      <c r="G21" s="0"/>
-      <c r="H21" s="0"/>
+      <c r="F21" s="28" t="n">
+        <f aca="false">H21-F20</f>
+        <v>14</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="28" t="n">
+        <f aca="false">K21</f>
+        <v>18</v>
+      </c>
       <c r="I21" s="0"/>
       <c r="J21" s="0"/>
-      <c r="K21" s="0"/>
-      <c r="L21" s="0"/>
-      <c r="M21" s="0"/>
+      <c r="K21" s="28" t="n">
+        <f aca="false">M21-K20</f>
+        <v>18</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="28" t="n">
+        <f aca="false">Z18</f>
+        <v>27</v>
+      </c>
       <c r="N21" s="0"/>
       <c r="O21" s="0"/>
       <c r="P21" s="0"/>
@@ -2620,135 +2772,143 @@
       <c r="C32" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="24" t="s">
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="25" t="s">
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="24" t="s">
+      <c r="J34" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="25" t="s">
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="R34" s="24" t="s">
+      <c r="R34" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="S34" s="24"/>
-      <c r="T34" s="24"/>
-      <c r="U34" s="24"/>
-      <c r="V34" s="24"/>
-      <c r="W34" s="24"/>
-      <c r="X34" s="24"/>
-      <c r="Y34" s="24"/>
-      <c r="Z34" s="24"/>
-      <c r="AA34" s="24"/>
-      <c r="AB34" s="24"/>
+      <c r="S34" s="29"/>
+      <c r="T34" s="29"/>
+      <c r="U34" s="29"/>
+      <c r="V34" s="29"/>
+      <c r="W34" s="29"/>
+      <c r="X34" s="29"/>
+      <c r="Y34" s="29"/>
+      <c r="Z34" s="29"/>
+      <c r="AA34" s="29"/>
+      <c r="AB34" s="29"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="28" t="s">
         <v>24</v>
       </c>
       <c r="B35" s="15"/>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="31" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="26"/>
-      <c r="C37" s="26"/>
+      <c r="A37" s="31"/>
+      <c r="C37" s="31"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="26"/>
-      <c r="C38" s="26"/>
+      <c r="A38" s="31"/>
+      <c r="C38" s="31"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="26"/>
-      <c r="C39" s="26"/>
+      <c r="A39" s="31"/>
+      <c r="C39" s="31"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="26"/>
-      <c r="C40" s="26"/>
+      <c r="A40" s="31"/>
+      <c r="C40" s="31"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="26"/>
-      <c r="C41" s="26"/>
+      <c r="A41" s="31"/>
+      <c r="C41" s="31"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="26"/>
-      <c r="C42" s="26"/>
+      <c r="A42" s="31"/>
+      <c r="C42" s="31"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="26"/>
-      <c r="C43" s="26"/>
+      <c r="A43" s="31"/>
+      <c r="C43" s="31"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="26"/>
-      <c r="C44" s="26"/>
+      <c r="A44" s="31"/>
+      <c r="C44" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="20">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A13:C13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="Z16:AB16"/>
+    <mergeCell ref="AE16:AG16"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="K19:M19"/>
     <mergeCell ref="D32:H32"/>
     <mergeCell ref="A33:C33"/>
     <mergeCell ref="D33:H33"/>
@@ -2764,7 +2924,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
+  <conditionalFormatting sqref="AA16 AF16">
     <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
@@ -2806,536 +2966,536 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="27" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="32" width="3.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="28" t="s">
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="33" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35" t="s">
+      <c r="D2" s="39"/>
+      <c r="E2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="31" t="n">
+      <c r="G2" s="40"/>
+      <c r="H2" s="36" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="35" t="s">
+      <c r="C3" s="40"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="31" t="n">
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="36" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="35" t="s">
+      <c r="C4" s="40"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="31" t="n">
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="36" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="35" t="s">
+      <c r="D5" s="42"/>
+      <c r="E5" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="31" t="n">
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="36" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="31" t="n">
+      <c r="C6" s="40"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="36" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="18" t="n">
+      <c r="A9" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="39" t="n">
+      <c r="B9" s="43"/>
+      <c r="C9" s="44" t="n">
         <f aca="false">A9+A11</f>
         <v>6</v>
       </c>
-      <c r="F9" s="18" t="n">
+      <c r="F9" s="20" t="n">
         <f aca="false">C9</f>
         <v>6</v>
       </c>
-      <c r="G9" s="38"/>
-      <c r="H9" s="39" t="n">
+      <c r="G9" s="43"/>
+      <c r="H9" s="44" t="n">
         <f aca="false">F9+F11</f>
         <v>13</v>
       </c>
-      <c r="K9" s="18" t="n">
+      <c r="K9" s="20" t="n">
         <f aca="false">MAX(H9,H15)</f>
         <v>13</v>
       </c>
-      <c r="L9" s="38"/>
-      <c r="M9" s="39" t="n">
+      <c r="L9" s="43"/>
+      <c r="M9" s="44" t="n">
         <f aca="false">K9+K11</f>
         <v>18</v>
       </c>
-      <c r="P9" s="18" t="n">
+      <c r="P9" s="20" t="n">
         <f aca="false">M9</f>
         <v>18</v>
       </c>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="39" t="n">
+      <c r="Q9" s="43"/>
+      <c r="R9" s="44" t="n">
         <f aca="false">P9+P11</f>
         <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="F10" s="20" t="s">
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="F10" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="K10" s="20" t="s">
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="K10" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="P10" s="20" t="s">
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="P10" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="40" t="n">
+      <c r="A11" s="23" t="n">
         <f aca="false" t="array" ref="A11:A11">VLOOKUP(A10,$A$2:$H$10,8)</f>
         <v>6</v>
       </c>
-      <c r="B11" s="41" t="n">
+      <c r="B11" s="45" t="n">
         <f aca="false">C12-C9</f>
         <v>0</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="F11" s="40" t="n">
+      <c r="C11" s="23"/>
+      <c r="F11" s="23" t="n">
         <f aca="false" t="array" ref="F11:F11">VLOOKUP(F10,$A$2:$H$10,8)</f>
         <v>7</v>
       </c>
-      <c r="G11" s="41" t="n">
+      <c r="G11" s="45" t="n">
         <f aca="false">H12-H9</f>
         <v>0</v>
       </c>
-      <c r="H11" s="40"/>
-      <c r="K11" s="40" t="n">
+      <c r="H11" s="23"/>
+      <c r="K11" s="23" t="n">
         <f aca="false" t="array" ref="K11:K11">VLOOKUP(K10,$A$2:$H$10,8)</f>
         <v>5</v>
       </c>
-      <c r="L11" s="41" t="n">
+      <c r="L11" s="45" t="n">
         <f aca="false">M12-M9</f>
         <v>0</v>
       </c>
-      <c r="M11" s="40"/>
-      <c r="P11" s="40" t="n">
+      <c r="M11" s="23"/>
+      <c r="P11" s="23" t="n">
         <f aca="false" t="array" ref="P11:P11">VLOOKUP(P10,$A$2:$H$10,8)</f>
         <v>9</v>
       </c>
-      <c r="Q11" s="41" t="n">
+      <c r="Q11" s="45" t="n">
         <f aca="false">R12-R9</f>
         <v>0</v>
       </c>
-      <c r="R11" s="40"/>
+      <c r="R11" s="23"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="23" t="n">
+      <c r="A12" s="28" t="n">
         <v>0</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="42" t="n">
+      <c r="B12" s="43"/>
+      <c r="C12" s="46" t="n">
         <f aca="false">MIN(F12,F18)</f>
         <v>6</v>
       </c>
-      <c r="F12" s="23" t="n">
+      <c r="F12" s="28" t="n">
         <f aca="false">H12-F11</f>
         <v>6</v>
       </c>
-      <c r="G12" s="38"/>
-      <c r="H12" s="42" t="n">
+      <c r="G12" s="43"/>
+      <c r="H12" s="46" t="n">
         <f aca="false">K12</f>
         <v>13</v>
       </c>
-      <c r="K12" s="23" t="n">
+      <c r="K12" s="28" t="n">
         <f aca="false">M12-K11</f>
         <v>13</v>
       </c>
-      <c r="L12" s="38"/>
-      <c r="M12" s="42" t="n">
+      <c r="L12" s="43"/>
+      <c r="M12" s="46" t="n">
         <f aca="false">P12</f>
         <v>18</v>
       </c>
-      <c r="P12" s="23" t="n">
+      <c r="P12" s="28" t="n">
         <f aca="false">R12-P11</f>
         <v>18</v>
       </c>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="42" t="n">
+      <c r="Q12" s="43"/>
+      <c r="R12" s="46" t="n">
         <f aca="false">R9</f>
         <v>27</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F15" s="18" t="n">
+      <c r="F15" s="20" t="n">
         <f aca="false">C9</f>
         <v>6</v>
       </c>
-      <c r="G15" s="38"/>
-      <c r="H15" s="39" t="n">
+      <c r="G15" s="43"/>
+      <c r="H15" s="44" t="n">
         <f aca="false">F15+F17</f>
         <v>10</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F17" s="40" t="n">
+      <c r="F17" s="23" t="n">
         <f aca="false" t="array" ref="F17:F17">VLOOKUP(F16,$A$2:$H$10,8)</f>
         <v>4</v>
       </c>
-      <c r="G17" s="41" t="n">
+      <c r="G17" s="45" t="n">
         <f aca="false">H18-H15</f>
         <v>3</v>
       </c>
-      <c r="H17" s="40"/>
+      <c r="H17" s="23"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F18" s="23" t="n">
+      <c r="F18" s="28" t="n">
         <f aca="false">H18-F17</f>
         <v>9</v>
       </c>
-      <c r="G18" s="38"/>
-      <c r="H18" s="42" t="n">
+      <c r="G18" s="43"/>
+      <c r="H18" s="46" t="n">
         <f aca="false">K12</f>
         <v>13</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="43"/>
-      <c r="B50" s="44"/>
-      <c r="C50" s="44"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="44"/>
-      <c r="F50" s="44"/>
-      <c r="G50" s="44"/>
-      <c r="H50" s="44"/>
-      <c r="I50" s="44"/>
-      <c r="J50" s="44"/>
-      <c r="K50" s="44"/>
-      <c r="L50" s="44"/>
+      <c r="A50" s="47"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="48"/>
+      <c r="J50" s="48"/>
+      <c r="K50" s="48"/>
+      <c r="L50" s="48"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="43"/>
-      <c r="B51" s="45" t="s">
+      <c r="A51" s="47"/>
+      <c r="B51" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C51" s="45"/>
-      <c r="D51" s="45" t="s">
+      <c r="C51" s="49"/>
+      <c r="D51" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="45"/>
-      <c r="F51" s="45"/>
-      <c r="G51" s="45"/>
-      <c r="H51" s="45"/>
-      <c r="I51" s="45"/>
-      <c r="J51" s="45"/>
-      <c r="K51" s="45"/>
-      <c r="L51" s="44"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="49"/>
+      <c r="I51" s="49"/>
+      <c r="J51" s="49"/>
+      <c r="K51" s="49"/>
+      <c r="L51" s="48"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="43"/>
-      <c r="B52" s="46" t="s">
+      <c r="A52" s="47"/>
+      <c r="B52" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C52" s="46"/>
-      <c r="D52" s="46"/>
-      <c r="E52" s="45"/>
-      <c r="F52" s="47" t="s">
+      <c r="C52" s="50"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="G52" s="47"/>
-      <c r="H52" s="47"/>
-      <c r="I52" s="47"/>
-      <c r="J52" s="47"/>
-      <c r="K52" s="45"/>
-      <c r="L52" s="44"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="51"/>
+      <c r="J52" s="51"/>
+      <c r="K52" s="49"/>
+      <c r="L52" s="48"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="43"/>
-      <c r="B53" s="48" t="s">
+      <c r="A53" s="47"/>
+      <c r="B53" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="C53" s="49" t="s">
+      <c r="C53" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="D53" s="48" t="s">
+      <c r="D53" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E53" s="45"/>
-      <c r="F53" s="45"/>
-      <c r="G53" s="45"/>
-      <c r="H53" s="45"/>
-      <c r="I53" s="45"/>
-      <c r="J53" s="45"/>
-      <c r="K53" s="45"/>
-      <c r="L53" s="44"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="49"/>
+      <c r="H53" s="49"/>
+      <c r="I53" s="49"/>
+      <c r="J53" s="49"/>
+      <c r="K53" s="49"/>
+      <c r="L53" s="48"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="43"/>
-      <c r="B54" s="45" t="s">
+      <c r="A54" s="47"/>
+      <c r="B54" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C54" s="45"/>
-      <c r="D54" s="45" t="s">
+      <c r="C54" s="49"/>
+      <c r="D54" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="E54" s="45"/>
-      <c r="F54" s="45"/>
-      <c r="G54" s="45"/>
-      <c r="H54" s="45"/>
-      <c r="I54" s="45"/>
-      <c r="J54" s="45"/>
-      <c r="K54" s="45"/>
-      <c r="L54" s="44"/>
+      <c r="E54" s="49"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="49"/>
+      <c r="H54" s="49"/>
+      <c r="I54" s="49"/>
+      <c r="J54" s="49"/>
+      <c r="K54" s="49"/>
+      <c r="L54" s="48"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="43"/>
-      <c r="B55" s="45"/>
-      <c r="C55" s="45"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="45"/>
-      <c r="F55" s="45"/>
-      <c r="G55" s="45"/>
-      <c r="H55" s="45"/>
-      <c r="I55" s="45"/>
-      <c r="J55" s="45"/>
-      <c r="K55" s="45"/>
-      <c r="L55" s="44"/>
+      <c r="A55" s="47"/>
+      <c r="B55" s="49"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="49"/>
+      <c r="I55" s="49"/>
+      <c r="J55" s="49"/>
+      <c r="K55" s="49"/>
+      <c r="L55" s="48"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="43"/>
-      <c r="B56" s="50" t="s">
+      <c r="A56" s="47"/>
+      <c r="B56" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="51" t="s">
+      <c r="C56" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="D56" s="51"/>
-      <c r="E56" s="51"/>
-      <c r="F56" s="51"/>
-      <c r="G56" s="51"/>
-      <c r="H56" s="51"/>
-      <c r="I56" s="51"/>
-      <c r="J56" s="51"/>
-      <c r="K56" s="51"/>
-      <c r="L56" s="44"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="55"/>
+      <c r="I56" s="55"/>
+      <c r="J56" s="55"/>
+      <c r="K56" s="55"/>
+      <c r="L56" s="48"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="43"/>
-      <c r="B57" s="50" t="s">
+      <c r="A57" s="47"/>
+      <c r="B57" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="51" t="s">
+      <c r="C57" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="D57" s="51"/>
-      <c r="E57" s="51"/>
-      <c r="F57" s="51"/>
-      <c r="G57" s="51"/>
-      <c r="H57" s="51"/>
-      <c r="I57" s="51"/>
-      <c r="J57" s="51"/>
-      <c r="K57" s="51"/>
-      <c r="L57" s="44"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="55"/>
+      <c r="I57" s="55"/>
+      <c r="J57" s="55"/>
+      <c r="K57" s="55"/>
+      <c r="L57" s="48"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="43"/>
-      <c r="B58" s="50" t="s">
+      <c r="A58" s="47"/>
+      <c r="B58" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="51" t="s">
+      <c r="C58" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="D58" s="51"/>
-      <c r="E58" s="51"/>
-      <c r="F58" s="51"/>
-      <c r="G58" s="51"/>
-      <c r="H58" s="51"/>
-      <c r="I58" s="51"/>
-      <c r="J58" s="51"/>
-      <c r="K58" s="51"/>
-      <c r="L58" s="44"/>
+      <c r="D58" s="55"/>
+      <c r="E58" s="55"/>
+      <c r="F58" s="55"/>
+      <c r="G58" s="55"/>
+      <c r="H58" s="55"/>
+      <c r="I58" s="55"/>
+      <c r="J58" s="55"/>
+      <c r="K58" s="55"/>
+      <c r="L58" s="48"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="43"/>
-      <c r="B59" s="50" t="s">
+      <c r="A59" s="47"/>
+      <c r="B59" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C59" s="51" t="s">
+      <c r="C59" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="D59" s="51"/>
-      <c r="E59" s="51"/>
-      <c r="F59" s="51"/>
-      <c r="G59" s="51"/>
-      <c r="H59" s="51"/>
-      <c r="I59" s="51"/>
-      <c r="J59" s="51"/>
-      <c r="K59" s="51"/>
-      <c r="L59" s="44"/>
+      <c r="D59" s="55"/>
+      <c r="E59" s="55"/>
+      <c r="F59" s="55"/>
+      <c r="G59" s="55"/>
+      <c r="H59" s="55"/>
+      <c r="I59" s="55"/>
+      <c r="J59" s="55"/>
+      <c r="K59" s="55"/>
+      <c r="L59" s="48"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="43"/>
-      <c r="B60" s="48" t="s">
+      <c r="A60" s="47"/>
+      <c r="B60" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="C60" s="51" t="s">
+      <c r="C60" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="D60" s="51"/>
-      <c r="E60" s="51"/>
-      <c r="F60" s="51"/>
-      <c r="G60" s="51"/>
-      <c r="H60" s="51"/>
-      <c r="I60" s="51"/>
-      <c r="J60" s="51"/>
-      <c r="K60" s="51"/>
-      <c r="L60" s="44"/>
+      <c r="D60" s="55"/>
+      <c r="E60" s="55"/>
+      <c r="F60" s="55"/>
+      <c r="G60" s="55"/>
+      <c r="H60" s="55"/>
+      <c r="I60" s="55"/>
+      <c r="J60" s="55"/>
+      <c r="K60" s="55"/>
+      <c r="L60" s="48"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="43"/>
-      <c r="B61" s="49" t="s">
+      <c r="A61" s="47"/>
+      <c r="B61" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C61" s="51" t="s">
+      <c r="C61" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="D61" s="51"/>
-      <c r="E61" s="51"/>
-      <c r="F61" s="51"/>
-      <c r="G61" s="51"/>
-      <c r="H61" s="51"/>
-      <c r="I61" s="51"/>
-      <c r="J61" s="51"/>
-      <c r="K61" s="51"/>
-      <c r="L61" s="44"/>
+      <c r="D61" s="55"/>
+      <c r="E61" s="55"/>
+      <c r="F61" s="55"/>
+      <c r="G61" s="55"/>
+      <c r="H61" s="55"/>
+      <c r="I61" s="55"/>
+      <c r="J61" s="55"/>
+      <c r="K61" s="55"/>
+      <c r="L61" s="48"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="43"/>
-      <c r="B62" s="52" t="s">
+      <c r="A62" s="47"/>
+      <c r="B62" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C62" s="44" t="s">
+      <c r="C62" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="D62" s="44"/>
-      <c r="E62" s="44"/>
-      <c r="F62" s="44"/>
-      <c r="G62" s="44"/>
-      <c r="H62" s="44"/>
-      <c r="I62" s="44"/>
-      <c r="J62" s="44"/>
-      <c r="K62" s="44"/>
-      <c r="L62" s="44"/>
+      <c r="D62" s="48"/>
+      <c r="E62" s="48"/>
+      <c r="F62" s="48"/>
+      <c r="G62" s="48"/>
+      <c r="H62" s="48"/>
+      <c r="I62" s="48"/>
+      <c r="J62" s="48"/>
+      <c r="K62" s="48"/>
+      <c r="L62" s="48"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="43"/>
-      <c r="B63" s="44"/>
-      <c r="C63" s="44"/>
-      <c r="D63" s="44"/>
-      <c r="E63" s="44"/>
-      <c r="F63" s="44"/>
-      <c r="G63" s="44"/>
-      <c r="H63" s="44"/>
-      <c r="I63" s="44"/>
-      <c r="J63" s="44"/>
-      <c r="K63" s="44"/>
-      <c r="L63" s="44"/>
+      <c r="A63" s="47"/>
+      <c r="B63" s="48"/>
+      <c r="C63" s="48"/>
+      <c r="D63" s="48"/>
+      <c r="E63" s="48"/>
+      <c r="F63" s="48"/>
+      <c r="G63" s="48"/>
+      <c r="H63" s="48"/>
+      <c r="I63" s="48"/>
+      <c r="J63" s="48"/>
+      <c r="K63" s="48"/>
+      <c r="L63" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="15">

--- a/Übungen/04_Netzplan_Wiederholung.xlsx
+++ b/Übungen/04_Netzplan_Wiederholung.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="37">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -278,7 +278,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="8">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -335,27 +335,6 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -388,7 +367,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="52">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -465,11 +444,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -481,27 +456,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1192,7 +1151,7 @@
   <dimension ref="A1:BS44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P18" activeCellId="0" sqref="P18"/>
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2197,54 +2156,27 @@
         <v>0</v>
       </c>
       <c r="B12" s="15"/>
-      <c r="C12" s="19" t="n">
-        <f aca="false">A12+A14</f>
-        <v>2</v>
-      </c>
+      <c r="C12" s="19"/>
       <c r="D12" s="0"/>
       <c r="E12" s="0"/>
-      <c r="F12" s="20" t="n">
-        <f aca="false">C12</f>
-        <v>2</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="19" t="n">
-        <f aca="false">F12+F14</f>
-        <v>8</v>
-      </c>
+      <c r="F12" s="0"/>
+      <c r="G12" s="0"/>
+      <c r="H12" s="0"/>
       <c r="I12" s="0"/>
       <c r="J12" s="0"/>
-      <c r="K12" s="20" t="n">
-        <f aca="false">H12</f>
-        <v>8</v>
-      </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="19" t="n">
-        <f aca="false">K12+K14</f>
-        <v>15</v>
-      </c>
+      <c r="K12" s="0"/>
+      <c r="L12" s="0"/>
+      <c r="M12" s="0"/>
       <c r="N12" s="0"/>
       <c r="O12" s="0"/>
-      <c r="P12" s="20" t="n">
-        <f aca="false">M12</f>
-        <v>15</v>
-      </c>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="19" t="n">
-        <f aca="false">P12+P14</f>
-        <v>21</v>
-      </c>
+      <c r="P12" s="0"/>
+      <c r="Q12" s="0"/>
+      <c r="R12" s="0"/>
       <c r="S12" s="0"/>
       <c r="T12" s="0"/>
-      <c r="U12" s="20" t="n">
-        <f aca="false">R12</f>
-        <v>21</v>
-      </c>
-      <c r="V12" s="4"/>
-      <c r="W12" s="19" t="n">
-        <f aca="false">U12+U14</f>
-        <v>27</v>
-      </c>
+      <c r="U12" s="0"/>
+      <c r="V12" s="0"/>
+      <c r="W12" s="0"/>
       <c r="X12" s="0"/>
       <c r="Y12" s="0"/>
       <c r="Z12" s="0"/>
@@ -2252,41 +2184,37 @@
       <c r="AB12" s="0"/>
       <c r="AC12" s="0"/>
       <c r="AD12" s="0"/>
+      <c r="AE12" s="0"/>
+      <c r="AF12" s="0"/>
+      <c r="AG12" s="0"/>
+      <c r="AH12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="0"/>
       <c r="E13" s="0"/>
-      <c r="F13" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
+      <c r="F13" s="0"/>
+      <c r="G13" s="0"/>
+      <c r="H13" s="0"/>
       <c r="I13" s="0"/>
       <c r="J13" s="0"/>
-      <c r="K13" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
+      <c r="K13" s="0"/>
+      <c r="L13" s="0"/>
+      <c r="M13" s="0"/>
       <c r="N13" s="0"/>
       <c r="O13" s="0"/>
-      <c r="P13" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
+      <c r="P13" s="0"/>
+      <c r="Q13" s="0"/>
+      <c r="R13" s="0"/>
       <c r="S13" s="0"/>
       <c r="T13" s="0"/>
-      <c r="U13" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
+      <c r="U13" s="0"/>
+      <c r="V13" s="0"/>
+      <c r="W13" s="0"/>
       <c r="X13" s="0"/>
       <c r="Y13" s="0"/>
       <c r="Z13" s="0"/>
@@ -2294,152 +2222,92 @@
       <c r="AB13" s="0"/>
       <c r="AC13" s="0"/>
       <c r="AD13" s="0"/>
+      <c r="AE13" s="0"/>
+      <c r="AF13" s="0"/>
+      <c r="AG13" s="0"/>
+      <c r="AH13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="22" t="n">
+      <c r="A14" s="21" t="n">
         <f aca="false">VLOOKUP(A13,$A$2:$H$10,8)</f>
         <v>2</v>
       </c>
-      <c r="B14" s="23" t="n">
-        <f aca="false">C15-C12</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="22" t="n">
-        <f aca="false">VLOOKUP(F13,$A$2:$H$10,8)</f>
-        <v>6</v>
-      </c>
-      <c r="G14" s="23" t="n">
-        <f aca="false">H15-H12</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="23"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="22" t="n">
-        <f aca="false">VLOOKUP(K13,$A$2:$H$10,8)</f>
-        <v>7</v>
-      </c>
-      <c r="L14" s="23" t="n">
-        <f aca="false">M15-M12</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="23"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="22" t="n">
-        <f aca="false">VLOOKUP(P13,$A$2:$H$10,8)</f>
-        <v>6</v>
-      </c>
-      <c r="Q14" s="23" t="n">
-        <f aca="false">R15-R12</f>
-        <v>0</v>
-      </c>
-      <c r="R14" s="23"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="22" t="n">
-        <f aca="false">VLOOKUP(U13,$A$2:$H$10,8)</f>
-        <v>6</v>
-      </c>
-      <c r="V14" s="23" t="n">
-        <f aca="false">W15-W12</f>
-        <v>0</v>
-      </c>
-      <c r="W14" s="23"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="27"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0"/>
+      <c r="G14" s="0"/>
+      <c r="H14" s="0"/>
+      <c r="I14" s="0"/>
+      <c r="J14" s="0"/>
+      <c r="K14" s="0"/>
+      <c r="L14" s="0"/>
+      <c r="M14" s="0"/>
+      <c r="N14" s="0"/>
+      <c r="O14" s="0"/>
+      <c r="P14" s="0"/>
+      <c r="Q14" s="0"/>
+      <c r="R14" s="0"/>
+      <c r="S14" s="0"/>
+      <c r="T14" s="0"/>
+      <c r="U14" s="0"/>
+      <c r="V14" s="0"/>
+      <c r="W14" s="0"/>
+      <c r="X14" s="0"/>
+      <c r="Y14" s="0"/>
       <c r="Z14" s="0"/>
       <c r="AA14" s="0"/>
       <c r="AB14" s="0"/>
       <c r="AC14" s="0"/>
       <c r="AD14" s="0"/>
+      <c r="AE14" s="0"/>
+      <c r="AF14" s="0"/>
+      <c r="AG14" s="0"/>
+      <c r="AH14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="28" t="n">
-        <f aca="false">C15-A14</f>
-        <v>0</v>
-      </c>
+      <c r="A15" s="23"/>
       <c r="B15" s="15"/>
-      <c r="C15" s="28" t="n">
-        <f aca="false">MIN(F15,F21)</f>
-        <v>2</v>
-      </c>
+      <c r="C15" s="23"/>
       <c r="D15" s="0"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="28" t="n">
-        <f aca="false">H15-F14</f>
-        <v>2</v>
-      </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="28" t="n">
-        <f aca="false">K15</f>
-        <v>8</v>
-      </c>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0"/>
+      <c r="G15" s="0"/>
+      <c r="H15" s="0"/>
       <c r="I15" s="0"/>
       <c r="J15" s="0"/>
-      <c r="K15" s="28" t="n">
-        <f aca="false">M15-K14</f>
-        <v>8</v>
-      </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="28" t="n">
-        <f aca="false">P15</f>
-        <v>15</v>
-      </c>
+      <c r="K15" s="0"/>
+      <c r="L15" s="0"/>
+      <c r="M15" s="0"/>
       <c r="N15" s="0"/>
       <c r="O15" s="0"/>
-      <c r="P15" s="28" t="n">
-        <f aca="false">R15-P14</f>
-        <v>15</v>
-      </c>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="28" t="n">
-        <f aca="false">U15</f>
-        <v>21</v>
-      </c>
+      <c r="P15" s="0"/>
+      <c r="Q15" s="0"/>
+      <c r="R15" s="0"/>
       <c r="S15" s="0"/>
       <c r="T15" s="0"/>
-      <c r="U15" s="28" t="n">
-        <f aca="false">W15-U14</f>
-        <v>21</v>
-      </c>
-      <c r="V15" s="4"/>
-      <c r="W15" s="28" t="n">
-        <f aca="false">Z18</f>
-        <v>27</v>
-      </c>
+      <c r="U15" s="0"/>
+      <c r="V15" s="0"/>
+      <c r="W15" s="0"/>
       <c r="X15" s="0"/>
-      <c r="Y15" s="27"/>
-      <c r="Z15" s="20" t="n">
-        <f aca="false">MAX(W12,M18)</f>
-        <v>27</v>
-      </c>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="19" t="n">
-        <f aca="false">Z15+Z17</f>
-        <v>36</v>
-      </c>
+      <c r="Y15" s="0"/>
+      <c r="Z15" s="0"/>
+      <c r="AA15" s="0"/>
+      <c r="AB15" s="0"/>
       <c r="AC15" s="0"/>
       <c r="AD15" s="0"/>
-      <c r="AE15" s="20" t="n">
-        <f aca="false">AB15</f>
-        <v>36</v>
-      </c>
-      <c r="AF15" s="4"/>
-      <c r="AG15" s="19" t="n">
-        <f aca="false">AE15+AE17</f>
-        <v>41</v>
-      </c>
+      <c r="AE15" s="0"/>
+      <c r="AF15" s="0"/>
+      <c r="AG15" s="0"/>
+      <c r="AH15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="0"/>
-      <c r="E16" s="27"/>
+      <c r="E16" s="0"/>
       <c r="F16" s="0"/>
       <c r="G16" s="0"/>
       <c r="H16" s="0"/>
@@ -2459,26 +2327,23 @@
       <c r="V16" s="0"/>
       <c r="W16" s="0"/>
       <c r="X16" s="0"/>
-      <c r="Y16" s="25"/>
-      <c r="Z16" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA16" s="21"/>
-      <c r="AB16" s="21"/>
+      <c r="Y16" s="0"/>
+      <c r="Z16" s="0"/>
+      <c r="AA16" s="0"/>
+      <c r="AB16" s="0"/>
       <c r="AC16" s="0"/>
       <c r="AD16" s="0"/>
-      <c r="AE16" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF16" s="21"/>
-      <c r="AG16" s="21"/>
+      <c r="AE16" s="0"/>
+      <c r="AF16" s="0"/>
+      <c r="AG16" s="0"/>
+      <c r="AH16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="0"/>
-      <c r="E17" s="27"/>
+      <c r="E17" s="0"/>
       <c r="F17" s="0"/>
       <c r="G17" s="0"/>
       <c r="H17" s="0"/>
@@ -2499,53 +2364,30 @@
       <c r="W17" s="0"/>
       <c r="X17" s="0"/>
       <c r="Y17" s="0"/>
-      <c r="Z17" s="22" t="n">
-        <f aca="false">VLOOKUP(Z16,$A$2:$H$10,8)</f>
-        <v>9</v>
-      </c>
-      <c r="AA17" s="23" t="n">
-        <f aca="false">AB18-AB15</f>
-        <v>0</v>
-      </c>
-      <c r="AB17" s="23"/>
-      <c r="AC17" s="25"/>
-      <c r="AD17" s="25"/>
-      <c r="AE17" s="22" t="n">
-        <f aca="false">VLOOKUP(AE16,$A$2:$H$10,8)</f>
-        <v>5</v>
-      </c>
-      <c r="AF17" s="23" t="n">
-        <f aca="false">AG18-AG15</f>
-        <v>0</v>
-      </c>
-      <c r="AG17" s="23"/>
+      <c r="Z17" s="0"/>
+      <c r="AA17" s="0"/>
+      <c r="AB17" s="0"/>
+      <c r="AC17" s="0"/>
+      <c r="AD17" s="0"/>
+      <c r="AE17" s="0"/>
+      <c r="AF17" s="0"/>
+      <c r="AG17" s="0"/>
+      <c r="AH17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="0"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="20" t="n">
-        <f aca="false">C12</f>
-        <v>2</v>
-      </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="19" t="n">
-        <f aca="false">F18+F20</f>
-        <v>6</v>
-      </c>
+      <c r="E18" s="0"/>
+      <c r="F18" s="0"/>
+      <c r="G18" s="0"/>
+      <c r="H18" s="0"/>
       <c r="I18" s="0"/>
       <c r="J18" s="0"/>
-      <c r="K18" s="20" t="n">
-        <f aca="false">H18</f>
-        <v>6</v>
-      </c>
-      <c r="L18" s="4"/>
-      <c r="M18" s="19" t="n">
-        <f aca="false">K18+K20</f>
-        <v>15</v>
-      </c>
+      <c r="K18" s="0"/>
+      <c r="L18" s="0"/>
+      <c r="M18" s="0"/>
       <c r="N18" s="0"/>
       <c r="O18" s="0"/>
       <c r="P18" s="0"/>
@@ -2557,43 +2399,28 @@
       <c r="V18" s="0"/>
       <c r="W18" s="0"/>
       <c r="X18" s="0"/>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="28" t="n">
-        <f aca="false">AB18-Z17</f>
-        <v>27</v>
-      </c>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="28" t="n">
-        <f aca="false">AE18</f>
-        <v>36</v>
-      </c>
+      <c r="Y18" s="0"/>
+      <c r="Z18" s="0"/>
+      <c r="AA18" s="0"/>
+      <c r="AB18" s="0"/>
       <c r="AC18" s="0"/>
       <c r="AD18" s="0"/>
-      <c r="AE18" s="28" t="n">
-        <f aca="false">AG18-AE17</f>
-        <v>36</v>
-      </c>
-      <c r="AF18" s="4"/>
-      <c r="AG18" s="28" t="n">
-        <f aca="false">AG15</f>
-        <v>41</v>
-      </c>
+      <c r="AE18" s="0"/>
+      <c r="AF18" s="0"/>
+      <c r="AG18" s="0"/>
+      <c r="AH18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D19" s="0"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="0"/>
+      <c r="G19" s="0"/>
+      <c r="H19" s="0"/>
       <c r="I19" s="0"/>
       <c r="J19" s="0"/>
-      <c r="K19" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
+      <c r="K19" s="0"/>
+      <c r="L19" s="0"/>
+      <c r="M19" s="0"/>
       <c r="N19" s="0"/>
       <c r="O19" s="0"/>
       <c r="P19" s="0"/>
@@ -2605,7 +2432,7 @@
       <c r="V19" s="0"/>
       <c r="W19" s="0"/>
       <c r="X19" s="0"/>
-      <c r="Y19" s="27"/>
+      <c r="Y19" s="0"/>
       <c r="Z19" s="0"/>
       <c r="AA19" s="0"/>
       <c r="AB19" s="0"/>
@@ -2614,71 +2441,52 @@
       <c r="AE19" s="0"/>
       <c r="AF19" s="0"/>
       <c r="AG19" s="0"/>
+      <c r="AH19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D20" s="0"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="22" t="n">
-        <f aca="false">VLOOKUP(F19,$A$2:$H$10,8)</f>
-        <v>4</v>
-      </c>
-      <c r="G20" s="23" t="n">
-        <f aca="false">H21-H18</f>
-        <v>12</v>
-      </c>
-      <c r="H20" s="23"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="22" t="n">
-        <f aca="false">VLOOKUP(K19,$A$2:$H$10,8)</f>
-        <v>9</v>
-      </c>
-      <c r="L20" s="23" t="n">
-        <f aca="false">M21-M18</f>
-        <v>12</v>
-      </c>
-      <c r="M20" s="23"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="25"/>
-      <c r="V20" s="25"/>
-      <c r="W20" s="25"/>
-      <c r="X20" s="25"/>
+      <c r="E20" s="0"/>
+      <c r="F20" s="0"/>
+      <c r="G20" s="0"/>
+      <c r="H20" s="0"/>
+      <c r="I20" s="0"/>
+      <c r="J20" s="0"/>
+      <c r="K20" s="0"/>
+      <c r="L20" s="0"/>
+      <c r="M20" s="0"/>
+      <c r="N20" s="0"/>
+      <c r="O20" s="0"/>
+      <c r="P20" s="0"/>
+      <c r="Q20" s="0"/>
+      <c r="R20" s="0"/>
+      <c r="S20" s="0"/>
+      <c r="T20" s="0"/>
+      <c r="U20" s="0"/>
+      <c r="V20" s="0"/>
+      <c r="W20" s="0"/>
+      <c r="X20" s="0"/>
       <c r="Y20" s="0"/>
       <c r="Z20" s="0"/>
       <c r="AA20" s="0"/>
       <c r="AB20" s="0"/>
       <c r="AC20" s="0"/>
       <c r="AD20" s="0"/>
+      <c r="AE20" s="0"/>
+      <c r="AF20" s="0"/>
+      <c r="AG20" s="0"/>
+      <c r="AH20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="0"/>
       <c r="E21" s="0"/>
-      <c r="F21" s="28" t="n">
-        <f aca="false">H21-F20</f>
-        <v>14</v>
-      </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="28" t="n">
-        <f aca="false">K21</f>
-        <v>18</v>
-      </c>
+      <c r="F21" s="0"/>
+      <c r="G21" s="0"/>
+      <c r="H21" s="0"/>
       <c r="I21" s="0"/>
       <c r="J21" s="0"/>
-      <c r="K21" s="28" t="n">
-        <f aca="false">M21-K20</f>
-        <v>18</v>
-      </c>
-      <c r="L21" s="4"/>
-      <c r="M21" s="28" t="n">
-        <f aca="false">Z18</f>
-        <v>27</v>
-      </c>
+      <c r="K21" s="0"/>
+      <c r="L21" s="0"/>
+      <c r="M21" s="0"/>
       <c r="N21" s="0"/>
       <c r="O21" s="0"/>
       <c r="P21" s="0"/>
@@ -2696,6 +2504,43 @@
       <c r="AB21" s="0"/>
       <c r="AC21" s="0"/>
       <c r="AD21" s="0"/>
+      <c r="AE21" s="0"/>
+      <c r="AF21" s="0"/>
+      <c r="AG21" s="0"/>
+      <c r="AH21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="0"/>
+      <c r="E22" s="0"/>
+      <c r="F22" s="0"/>
+      <c r="G22" s="0"/>
+      <c r="H22" s="0"/>
+      <c r="I22" s="0"/>
+      <c r="J22" s="0"/>
+      <c r="K22" s="0"/>
+      <c r="L22" s="0"/>
+      <c r="M22" s="0"/>
+      <c r="N22" s="0"/>
+      <c r="O22" s="0"/>
+      <c r="P22" s="0"/>
+      <c r="Q22" s="0"/>
+      <c r="R22" s="0"/>
+      <c r="S22" s="0"/>
+      <c r="T22" s="0"/>
+      <c r="U22" s="0"/>
+      <c r="V22" s="0"/>
+      <c r="W22" s="0"/>
+      <c r="X22" s="0"/>
+      <c r="Y22" s="0"/>
+      <c r="Z22" s="0"/>
+      <c r="AA22" s="0"/>
+      <c r="AB22" s="0"/>
+      <c r="AC22" s="0"/>
+      <c r="AD22" s="0"/>
+      <c r="AE22" s="0"/>
+      <c r="AF22" s="0"/>
+      <c r="AG22" s="0"/>
+      <c r="AH22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="15"/>
@@ -2772,143 +2617,135 @@
       <c r="C32" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="29" t="s">
+      <c r="D32" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="29" t="s">
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="29" t="s">
+      <c r="D34" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="30" t="s">
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="29" t="s">
+      <c r="J34" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="30" t="s">
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="R34" s="29" t="s">
+      <c r="R34" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="S34" s="29"/>
-      <c r="T34" s="29"/>
-      <c r="U34" s="29"/>
-      <c r="V34" s="29"/>
-      <c r="W34" s="29"/>
-      <c r="X34" s="29"/>
-      <c r="Y34" s="29"/>
-      <c r="Z34" s="29"/>
-      <c r="AA34" s="29"/>
-      <c r="AB34" s="29"/>
+      <c r="S34" s="24"/>
+      <c r="T34" s="24"/>
+      <c r="U34" s="24"/>
+      <c r="V34" s="24"/>
+      <c r="W34" s="24"/>
+      <c r="X34" s="24"/>
+      <c r="Y34" s="24"/>
+      <c r="Z34" s="24"/>
+      <c r="AA34" s="24"/>
+      <c r="AB34" s="24"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="23" t="s">
         <v>24</v>
       </c>
       <c r="B35" s="15"/>
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="29" t="s">
+      <c r="D35" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="31" t="s">
+      <c r="C36" s="26" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="31"/>
-      <c r="C37" s="31"/>
+      <c r="A37" s="26"/>
+      <c r="C37" s="26"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="31"/>
-      <c r="C38" s="31"/>
+      <c r="A38" s="26"/>
+      <c r="C38" s="26"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="31"/>
-      <c r="C39" s="31"/>
+      <c r="A39" s="26"/>
+      <c r="C39" s="26"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="31"/>
-      <c r="C40" s="31"/>
+      <c r="A40" s="26"/>
+      <c r="C40" s="26"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="31"/>
-      <c r="C41" s="31"/>
+      <c r="A41" s="26"/>
+      <c r="C41" s="26"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="31"/>
-      <c r="C42" s="31"/>
+      <c r="A42" s="26"/>
+      <c r="C42" s="26"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="31"/>
-      <c r="C43" s="31"/>
+      <c r="A43" s="26"/>
+      <c r="C43" s="26"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="31"/>
-      <c r="C44" s="31"/>
+      <c r="A44" s="26"/>
+      <c r="C44" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="12">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A13:C13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="U13:W13"/>
-    <mergeCell ref="Z16:AB16"/>
-    <mergeCell ref="AE16:AG16"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="K19:M19"/>
     <mergeCell ref="D32:H32"/>
     <mergeCell ref="A33:C33"/>
     <mergeCell ref="D33:H33"/>
@@ -2924,21 +2761,16 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA16 AF16">
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AJ8:BS8 J8:AF9 AJ9:AK9 AX10:BS10 AO9:AR9 J10:AT10 J1:BS7 AW9:BS9">
-    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>IF(OR(WEEKDAY(J$1,1)=7,WEEKDAY(J$1,1)=1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ8:BS8 J8:AF9 AJ9:AK9 AX10:BS10 AO9:AR9 J10:AT10 J2:BS7 AW9:BS9">
-    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2966,536 +2798,536 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="32" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="27" width="3.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="35" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="33" t="s">
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="28" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="40" t="s">
+      <c r="D2" s="34"/>
+      <c r="E2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="36" t="n">
+      <c r="G2" s="35"/>
+      <c r="H2" s="31" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="40" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="36" t="n">
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="31" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="40" t="s">
+      <c r="C4" s="35"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="36" t="n">
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="31" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="40" t="s">
+      <c r="D5" s="37"/>
+      <c r="E5" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="36" t="n">
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="31" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="36" t="n">
+      <c r="C6" s="35"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="31" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="20" t="n">
+      <c r="A9" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="44" t="n">
+      <c r="B9" s="38"/>
+      <c r="C9" s="39" t="n">
         <f aca="false">A9+A11</f>
         <v>6</v>
       </c>
-      <c r="F9" s="20" t="n">
+      <c r="F9" s="18" t="n">
         <f aca="false">C9</f>
         <v>6</v>
       </c>
-      <c r="G9" s="43"/>
-      <c r="H9" s="44" t="n">
+      <c r="G9" s="38"/>
+      <c r="H9" s="39" t="n">
         <f aca="false">F9+F11</f>
         <v>13</v>
       </c>
-      <c r="K9" s="20" t="n">
+      <c r="K9" s="18" t="n">
         <f aca="false">MAX(H9,H15)</f>
         <v>13</v>
       </c>
-      <c r="L9" s="43"/>
-      <c r="M9" s="44" t="n">
+      <c r="L9" s="38"/>
+      <c r="M9" s="39" t="n">
         <f aca="false">K9+K11</f>
         <v>18</v>
       </c>
-      <c r="P9" s="20" t="n">
+      <c r="P9" s="18" t="n">
         <f aca="false">M9</f>
         <v>18</v>
       </c>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="44" t="n">
+      <c r="Q9" s="38"/>
+      <c r="R9" s="39" t="n">
         <f aca="false">P9+P11</f>
         <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="F10" s="21" t="s">
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="F10" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="K10" s="21" t="s">
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="K10" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="P10" s="21" t="s">
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="P10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="23" t="n">
+      <c r="A11" s="22" t="n">
         <f aca="false" t="array" ref="A11:A11">VLOOKUP(A10,$A$2:$H$10,8)</f>
         <v>6</v>
       </c>
-      <c r="B11" s="45" t="n">
+      <c r="B11" s="40" t="n">
         <f aca="false">C12-C9</f>
         <v>0</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="F11" s="23" t="n">
+      <c r="C11" s="22"/>
+      <c r="F11" s="22" t="n">
         <f aca="false" t="array" ref="F11:F11">VLOOKUP(F10,$A$2:$H$10,8)</f>
         <v>7</v>
       </c>
-      <c r="G11" s="45" t="n">
+      <c r="G11" s="40" t="n">
         <f aca="false">H12-H9</f>
         <v>0</v>
       </c>
-      <c r="H11" s="23"/>
-      <c r="K11" s="23" t="n">
+      <c r="H11" s="22"/>
+      <c r="K11" s="22" t="n">
         <f aca="false" t="array" ref="K11:K11">VLOOKUP(K10,$A$2:$H$10,8)</f>
         <v>5</v>
       </c>
-      <c r="L11" s="45" t="n">
+      <c r="L11" s="40" t="n">
         <f aca="false">M12-M9</f>
         <v>0</v>
       </c>
-      <c r="M11" s="23"/>
-      <c r="P11" s="23" t="n">
+      <c r="M11" s="22"/>
+      <c r="P11" s="22" t="n">
         <f aca="false" t="array" ref="P11:P11">VLOOKUP(P10,$A$2:$H$10,8)</f>
         <v>9</v>
       </c>
-      <c r="Q11" s="45" t="n">
+      <c r="Q11" s="40" t="n">
         <f aca="false">R12-R9</f>
         <v>0</v>
       </c>
-      <c r="R11" s="23"/>
+      <c r="R11" s="22"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="28" t="n">
+      <c r="A12" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="46" t="n">
+      <c r="B12" s="38"/>
+      <c r="C12" s="41" t="n">
         <f aca="false">MIN(F12,F18)</f>
         <v>6</v>
       </c>
-      <c r="F12" s="28" t="n">
+      <c r="F12" s="23" t="n">
         <f aca="false">H12-F11</f>
         <v>6</v>
       </c>
-      <c r="G12" s="43"/>
-      <c r="H12" s="46" t="n">
+      <c r="G12" s="38"/>
+      <c r="H12" s="41" t="n">
         <f aca="false">K12</f>
         <v>13</v>
       </c>
-      <c r="K12" s="28" t="n">
+      <c r="K12" s="23" t="n">
         <f aca="false">M12-K11</f>
         <v>13</v>
       </c>
-      <c r="L12" s="43"/>
-      <c r="M12" s="46" t="n">
+      <c r="L12" s="38"/>
+      <c r="M12" s="41" t="n">
         <f aca="false">P12</f>
         <v>18</v>
       </c>
-      <c r="P12" s="28" t="n">
+      <c r="P12" s="23" t="n">
         <f aca="false">R12-P11</f>
         <v>18</v>
       </c>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="46" t="n">
+      <c r="Q12" s="38"/>
+      <c r="R12" s="41" t="n">
         <f aca="false">R9</f>
         <v>27</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F15" s="20" t="n">
+      <c r="F15" s="18" t="n">
         <f aca="false">C9</f>
         <v>6</v>
       </c>
-      <c r="G15" s="43"/>
-      <c r="H15" s="44" t="n">
+      <c r="G15" s="38"/>
+      <c r="H15" s="39" t="n">
         <f aca="false">F15+F17</f>
         <v>10</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F17" s="23" t="n">
+      <c r="F17" s="22" t="n">
         <f aca="false" t="array" ref="F17:F17">VLOOKUP(F16,$A$2:$H$10,8)</f>
         <v>4</v>
       </c>
-      <c r="G17" s="45" t="n">
+      <c r="G17" s="40" t="n">
         <f aca="false">H18-H15</f>
         <v>3</v>
       </c>
-      <c r="H17" s="23"/>
+      <c r="H17" s="22"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F18" s="28" t="n">
+      <c r="F18" s="23" t="n">
         <f aca="false">H18-F17</f>
         <v>9</v>
       </c>
-      <c r="G18" s="43"/>
-      <c r="H18" s="46" t="n">
+      <c r="G18" s="38"/>
+      <c r="H18" s="41" t="n">
         <f aca="false">K12</f>
         <v>13</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="47"/>
-      <c r="B50" s="48"/>
-      <c r="C50" s="48"/>
-      <c r="D50" s="48"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="48"/>
-      <c r="I50" s="48"/>
-      <c r="J50" s="48"/>
-      <c r="K50" s="48"/>
-      <c r="L50" s="48"/>
+      <c r="A50" s="42"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="43"/>
+      <c r="L50" s="43"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="47"/>
-      <c r="B51" s="49" t="s">
+      <c r="A51" s="42"/>
+      <c r="B51" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C51" s="49"/>
-      <c r="D51" s="49" t="s">
+      <c r="C51" s="44"/>
+      <c r="D51" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="49"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="49"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="49"/>
-      <c r="J51" s="49"/>
-      <c r="K51" s="49"/>
-      <c r="L51" s="48"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="44"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="43"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="47"/>
-      <c r="B52" s="50" t="s">
+      <c r="A52" s="42"/>
+      <c r="B52" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C52" s="50"/>
-      <c r="D52" s="50"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="51" t="s">
+      <c r="C52" s="45"/>
+      <c r="D52" s="45"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="G52" s="51"/>
-      <c r="H52" s="51"/>
-      <c r="I52" s="51"/>
-      <c r="J52" s="51"/>
-      <c r="K52" s="49"/>
-      <c r="L52" s="48"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="46"/>
+      <c r="I52" s="46"/>
+      <c r="J52" s="46"/>
+      <c r="K52" s="44"/>
+      <c r="L52" s="43"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="47"/>
-      <c r="B53" s="52" t="s">
+      <c r="A53" s="42"/>
+      <c r="B53" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C53" s="53" t="s">
+      <c r="C53" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D53" s="52" t="s">
+      <c r="D53" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="E53" s="49"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="49"/>
-      <c r="H53" s="49"/>
-      <c r="I53" s="49"/>
-      <c r="J53" s="49"/>
-      <c r="K53" s="49"/>
-      <c r="L53" s="48"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="44"/>
+      <c r="J53" s="44"/>
+      <c r="K53" s="44"/>
+      <c r="L53" s="43"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="47"/>
-      <c r="B54" s="49" t="s">
+      <c r="A54" s="42"/>
+      <c r="B54" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C54" s="49"/>
-      <c r="D54" s="49" t="s">
+      <c r="C54" s="44"/>
+      <c r="D54" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="E54" s="49"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="49"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="49"/>
-      <c r="J54" s="49"/>
-      <c r="K54" s="49"/>
-      <c r="L54" s="48"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="44"/>
+      <c r="G54" s="44"/>
+      <c r="H54" s="44"/>
+      <c r="I54" s="44"/>
+      <c r="J54" s="44"/>
+      <c r="K54" s="44"/>
+      <c r="L54" s="43"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="47"/>
-      <c r="B55" s="49"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="49"/>
-      <c r="E55" s="49"/>
-      <c r="F55" s="49"/>
-      <c r="G55" s="49"/>
-      <c r="H55" s="49"/>
-      <c r="I55" s="49"/>
-      <c r="J55" s="49"/>
-      <c r="K55" s="49"/>
-      <c r="L55" s="48"/>
+      <c r="A55" s="42"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="44"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="44"/>
+      <c r="J55" s="44"/>
+      <c r="K55" s="44"/>
+      <c r="L55" s="43"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="47"/>
-      <c r="B56" s="54" t="s">
+      <c r="A56" s="42"/>
+      <c r="B56" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="55" t="s">
+      <c r="C56" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="D56" s="55"/>
-      <c r="E56" s="55"/>
-      <c r="F56" s="55"/>
-      <c r="G56" s="55"/>
-      <c r="H56" s="55"/>
-      <c r="I56" s="55"/>
-      <c r="J56" s="55"/>
-      <c r="K56" s="55"/>
-      <c r="L56" s="48"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="50"/>
+      <c r="I56" s="50"/>
+      <c r="J56" s="50"/>
+      <c r="K56" s="50"/>
+      <c r="L56" s="43"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="47"/>
-      <c r="B57" s="54" t="s">
+      <c r="A57" s="42"/>
+      <c r="B57" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="55" t="s">
+      <c r="C57" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="D57" s="55"/>
-      <c r="E57" s="55"/>
-      <c r="F57" s="55"/>
-      <c r="G57" s="55"/>
-      <c r="H57" s="55"/>
-      <c r="I57" s="55"/>
-      <c r="J57" s="55"/>
-      <c r="K57" s="55"/>
-      <c r="L57" s="48"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="50"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="50"/>
+      <c r="I57" s="50"/>
+      <c r="J57" s="50"/>
+      <c r="K57" s="50"/>
+      <c r="L57" s="43"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="47"/>
-      <c r="B58" s="54" t="s">
+      <c r="A58" s="42"/>
+      <c r="B58" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="55" t="s">
+      <c r="C58" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="D58" s="55"/>
-      <c r="E58" s="55"/>
-      <c r="F58" s="55"/>
-      <c r="G58" s="55"/>
-      <c r="H58" s="55"/>
-      <c r="I58" s="55"/>
-      <c r="J58" s="55"/>
-      <c r="K58" s="55"/>
-      <c r="L58" s="48"/>
+      <c r="D58" s="50"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="50"/>
+      <c r="G58" s="50"/>
+      <c r="H58" s="50"/>
+      <c r="I58" s="50"/>
+      <c r="J58" s="50"/>
+      <c r="K58" s="50"/>
+      <c r="L58" s="43"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="47"/>
-      <c r="B59" s="54" t="s">
+      <c r="A59" s="42"/>
+      <c r="B59" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="C59" s="55" t="s">
+      <c r="C59" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="D59" s="55"/>
-      <c r="E59" s="55"/>
-      <c r="F59" s="55"/>
-      <c r="G59" s="55"/>
-      <c r="H59" s="55"/>
-      <c r="I59" s="55"/>
-      <c r="J59" s="55"/>
-      <c r="K59" s="55"/>
-      <c r="L59" s="48"/>
+      <c r="D59" s="50"/>
+      <c r="E59" s="50"/>
+      <c r="F59" s="50"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="50"/>
+      <c r="I59" s="50"/>
+      <c r="J59" s="50"/>
+      <c r="K59" s="50"/>
+      <c r="L59" s="43"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="47"/>
-      <c r="B60" s="52" t="s">
+      <c r="A60" s="42"/>
+      <c r="B60" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C60" s="55" t="s">
+      <c r="C60" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="D60" s="55"/>
-      <c r="E60" s="55"/>
-      <c r="F60" s="55"/>
-      <c r="G60" s="55"/>
-      <c r="H60" s="55"/>
-      <c r="I60" s="55"/>
-      <c r="J60" s="55"/>
-      <c r="K60" s="55"/>
-      <c r="L60" s="48"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="50"/>
+      <c r="G60" s="50"/>
+      <c r="H60" s="50"/>
+      <c r="I60" s="50"/>
+      <c r="J60" s="50"/>
+      <c r="K60" s="50"/>
+      <c r="L60" s="43"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="47"/>
-      <c r="B61" s="53" t="s">
+      <c r="A61" s="42"/>
+      <c r="B61" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C61" s="55" t="s">
+      <c r="C61" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="D61" s="55"/>
-      <c r="E61" s="55"/>
-      <c r="F61" s="55"/>
-      <c r="G61" s="55"/>
-      <c r="H61" s="55"/>
-      <c r="I61" s="55"/>
-      <c r="J61" s="55"/>
-      <c r="K61" s="55"/>
-      <c r="L61" s="48"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="50"/>
+      <c r="G61" s="50"/>
+      <c r="H61" s="50"/>
+      <c r="I61" s="50"/>
+      <c r="J61" s="50"/>
+      <c r="K61" s="50"/>
+      <c r="L61" s="43"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="47"/>
-      <c r="B62" s="56" t="s">
+      <c r="A62" s="42"/>
+      <c r="B62" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C62" s="48" t="s">
+      <c r="C62" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="D62" s="48"/>
-      <c r="E62" s="48"/>
-      <c r="F62" s="48"/>
-      <c r="G62" s="48"/>
-      <c r="H62" s="48"/>
-      <c r="I62" s="48"/>
-      <c r="J62" s="48"/>
-      <c r="K62" s="48"/>
-      <c r="L62" s="48"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="43"/>
+      <c r="G62" s="43"/>
+      <c r="H62" s="43"/>
+      <c r="I62" s="43"/>
+      <c r="J62" s="43"/>
+      <c r="K62" s="43"/>
+      <c r="L62" s="43"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="47"/>
-      <c r="B63" s="48"/>
-      <c r="C63" s="48"/>
-      <c r="D63" s="48"/>
-      <c r="E63" s="48"/>
-      <c r="F63" s="48"/>
-      <c r="G63" s="48"/>
-      <c r="H63" s="48"/>
-      <c r="I63" s="48"/>
-      <c r="J63" s="48"/>
-      <c r="K63" s="48"/>
-      <c r="L63" s="48"/>
+      <c r="A63" s="42"/>
+      <c r="B63" s="43"/>
+      <c r="C63" s="43"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="43"/>
+      <c r="F63" s="43"/>
+      <c r="G63" s="43"/>
+      <c r="H63" s="43"/>
+      <c r="I63" s="43"/>
+      <c r="J63" s="43"/>
+      <c r="K63" s="43"/>
+      <c r="L63" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="15">

--- a/Übungen/04_Netzplan_Wiederholung.xlsx
+++ b/Übungen/04_Netzplan_Wiederholung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle2" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="38">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t xml:space="preserve">Endzeit →</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J</t>
   </si>
   <si>
     <t xml:space="preserve">Kritischer Pfad</t>
@@ -222,7 +225,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,7 +259,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFD7"/>
+        <bgColor rgb="FFFAFAFA"/>
       </patternFill>
     </fill>
     <fill>
@@ -273,12 +276,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFAFAFA"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFE8E8E8"/>
-        <bgColor rgb="FFFFFFD7"/>
+        <bgColor rgb="FFFAFAFA"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="13">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -335,6 +344,41 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -367,7 +411,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="62">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -444,7 +488,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -460,7 +508,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -520,20 +580,44 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -696,7 +780,7 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFFAFAFA"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFFD7"/>
       <rgbColor rgb="FF99CCFF"/>
@@ -807,13 +891,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>117000</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>68760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>266760</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>68760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -823,7 +907,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1196640" y="8196840"/>
+          <a:off x="1196640" y="9009720"/>
           <a:ext cx="1769040" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -846,300 +930,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>3240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>720</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>3240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name=""/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="810000" y="1629000"/>
-          <a:ext cx="540000" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25200">
-          <a:solidFill>
-            <a:srgbClr val="3465a4"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>3240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>720</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>3240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name=""/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2159280" y="1629000"/>
-          <a:ext cx="540360" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25200">
-          <a:solidFill>
-            <a:srgbClr val="3465a4"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>3240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>720</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>3240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name=""/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3508560" y="1629000"/>
-          <a:ext cx="540360" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25200">
-          <a:solidFill>
-            <a:srgbClr val="3465a4"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>264600</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>2880</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>720</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>2880</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name=""/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1074240" y="2603880"/>
-          <a:ext cx="275760" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25200">
-          <a:solidFill>
-            <a:srgbClr val="3465a4"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>2520</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>6840</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>2520</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name=""/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2159280" y="2603520"/>
-          <a:ext cx="276480" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25200">
-          <a:solidFill>
-            <a:srgbClr val="3465a4"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1440</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>7920</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>18360</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name=""/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1081080" y="1627200"/>
-          <a:ext cx="6480" cy="992160"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25200">
-          <a:solidFill>
-            <a:srgbClr val="3465a4"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1440</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>7920</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>17640</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name=""/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2430360" y="1626480"/>
-          <a:ext cx="6480" cy="992160"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25200">
-          <a:solidFill>
-            <a:srgbClr val="3465a4"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1150,8 +940,8 @@
   </sheetPr>
   <dimension ref="A1:BS44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AE17" activeCellId="0" sqref="AE17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2156,27 +1946,54 @@
         <v>0</v>
       </c>
       <c r="B12" s="15"/>
-      <c r="C12" s="19"/>
+      <c r="C12" s="19" t="n">
+        <f aca="false">A12+A14</f>
+        <v>2</v>
+      </c>
       <c r="D12" s="0"/>
       <c r="E12" s="0"/>
-      <c r="F12" s="0"/>
-      <c r="G12" s="0"/>
-      <c r="H12" s="0"/>
+      <c r="F12" s="20" t="n">
+        <f aca="false">C12</f>
+        <v>2</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="19" t="n">
+        <f aca="false">F12+F14</f>
+        <v>8</v>
+      </c>
       <c r="I12" s="0"/>
       <c r="J12" s="0"/>
-      <c r="K12" s="0"/>
-      <c r="L12" s="0"/>
-      <c r="M12" s="0"/>
+      <c r="K12" s="20" t="n">
+        <f aca="false">H12</f>
+        <v>8</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="19" t="n">
+        <f aca="false">K12+K14</f>
+        <v>15</v>
+      </c>
       <c r="N12" s="0"/>
       <c r="O12" s="0"/>
-      <c r="P12" s="0"/>
-      <c r="Q12" s="0"/>
-      <c r="R12" s="0"/>
+      <c r="P12" s="20" t="n">
+        <f aca="false">M12</f>
+        <v>15</v>
+      </c>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="19" t="n">
+        <f aca="false">P12+P14</f>
+        <v>21</v>
+      </c>
       <c r="S12" s="0"/>
       <c r="T12" s="0"/>
-      <c r="U12" s="0"/>
-      <c r="V12" s="0"/>
-      <c r="W12" s="0"/>
+      <c r="U12" s="20" t="n">
+        <f aca="false">R12</f>
+        <v>21</v>
+      </c>
+      <c r="V12" s="4"/>
+      <c r="W12" s="19" t="n">
+        <f aca="false">U12+U14</f>
+        <v>27</v>
+      </c>
       <c r="X12" s="0"/>
       <c r="Y12" s="0"/>
       <c r="Z12" s="0"/>
@@ -2184,37 +2001,41 @@
       <c r="AB12" s="0"/>
       <c r="AC12" s="0"/>
       <c r="AD12" s="0"/>
-      <c r="AE12" s="0"/>
-      <c r="AF12" s="0"/>
-      <c r="AG12" s="0"/>
-      <c r="AH12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="0"/>
       <c r="E13" s="0"/>
-      <c r="F13" s="0"/>
-      <c r="G13" s="0"/>
-      <c r="H13" s="0"/>
+      <c r="F13" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
       <c r="I13" s="0"/>
       <c r="J13" s="0"/>
-      <c r="K13" s="0"/>
-      <c r="L13" s="0"/>
-      <c r="M13" s="0"/>
+      <c r="K13" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
       <c r="N13" s="0"/>
       <c r="O13" s="0"/>
-      <c r="P13" s="0"/>
-      <c r="Q13" s="0"/>
-      <c r="R13" s="0"/>
+      <c r="P13" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
       <c r="S13" s="0"/>
       <c r="T13" s="0"/>
-      <c r="U13" s="0"/>
-      <c r="V13" s="0"/>
-      <c r="W13" s="0"/>
+      <c r="U13" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
       <c r="X13" s="0"/>
       <c r="Y13" s="0"/>
       <c r="Z13" s="0"/>
@@ -2222,92 +2043,137 @@
       <c r="AB13" s="0"/>
       <c r="AC13" s="0"/>
       <c r="AD13" s="0"/>
-      <c r="AE13" s="0"/>
-      <c r="AF13" s="0"/>
-      <c r="AG13" s="0"/>
-      <c r="AH13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="21" t="n">
+      <c r="A14" s="22" t="n">
         <f aca="false">VLOOKUP(A13,$A$2:$H$10,8)</f>
         <v>2</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="0"/>
-      <c r="E14" s="0"/>
-      <c r="F14" s="0"/>
-      <c r="G14" s="0"/>
-      <c r="H14" s="0"/>
-      <c r="I14" s="0"/>
-      <c r="J14" s="0"/>
-      <c r="K14" s="0"/>
-      <c r="L14" s="0"/>
-      <c r="M14" s="0"/>
-      <c r="N14" s="0"/>
-      <c r="O14" s="0"/>
-      <c r="P14" s="0"/>
-      <c r="Q14" s="0"/>
-      <c r="R14" s="0"/>
-      <c r="S14" s="0"/>
-      <c r="T14" s="0"/>
-      <c r="U14" s="0"/>
-      <c r="V14" s="0"/>
-      <c r="W14" s="0"/>
-      <c r="X14" s="0"/>
-      <c r="Y14" s="0"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="22" t="n">
+        <f aca="false">VLOOKUP(F13,$A$2:$H$10,8)</f>
+        <v>6</v>
+      </c>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="22" t="n">
+        <f aca="false">VLOOKUP(K13,$A$2:$H$10,8)</f>
+        <v>7</v>
+      </c>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="22" t="n">
+        <f aca="false">VLOOKUP(P13,$A$2:$H$10,8)</f>
+        <v>6</v>
+      </c>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="22" t="n">
+        <f aca="false">VLOOKUP(U13,$A$2:$H$10,8)</f>
+        <v>6</v>
+      </c>
+      <c r="V14" s="23"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="26"/>
       <c r="Z14" s="0"/>
       <c r="AA14" s="0"/>
       <c r="AB14" s="0"/>
       <c r="AC14" s="0"/>
       <c r="AD14" s="0"/>
-      <c r="AE14" s="0"/>
-      <c r="AF14" s="0"/>
-      <c r="AG14" s="0"/>
-      <c r="AH14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="23"/>
+      <c r="A15" s="27" t="n">
+        <f aca="false">C15-A14</f>
+        <v>0</v>
+      </c>
       <c r="B15" s="15"/>
-      <c r="C15" s="23"/>
+      <c r="C15" s="27" t="n">
+        <f aca="false">MIN(F15,F21)</f>
+        <v>2</v>
+      </c>
       <c r="D15" s="0"/>
-      <c r="E15" s="0"/>
-      <c r="F15" s="0"/>
-      <c r="G15" s="0"/>
-      <c r="H15" s="0"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="27" t="n">
+        <f aca="false">H15-F14</f>
+        <v>2</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="27" t="n">
+        <f aca="false">K15</f>
+        <v>8</v>
+      </c>
       <c r="I15" s="0"/>
       <c r="J15" s="0"/>
-      <c r="K15" s="0"/>
-      <c r="L15" s="0"/>
-      <c r="M15" s="0"/>
+      <c r="K15" s="27" t="n">
+        <f aca="false">M15-K14</f>
+        <v>8</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="27" t="n">
+        <f aca="false">P15</f>
+        <v>15</v>
+      </c>
       <c r="N15" s="0"/>
       <c r="O15" s="0"/>
-      <c r="P15" s="0"/>
-      <c r="Q15" s="0"/>
-      <c r="R15" s="0"/>
+      <c r="P15" s="27" t="n">
+        <f aca="false">R15-P14</f>
+        <v>15</v>
+      </c>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="27" t="n">
+        <f aca="false">U15</f>
+        <v>21</v>
+      </c>
       <c r="S15" s="0"/>
       <c r="T15" s="0"/>
-      <c r="U15" s="0"/>
-      <c r="V15" s="0"/>
-      <c r="W15" s="0"/>
+      <c r="U15" s="27" t="n">
+        <f aca="false">W15-U14</f>
+        <v>21</v>
+      </c>
+      <c r="V15" s="4"/>
+      <c r="W15" s="27" t="n">
+        <f aca="false">Z18</f>
+        <v>27</v>
+      </c>
       <c r="X15" s="0"/>
-      <c r="Y15" s="0"/>
-      <c r="Z15" s="0"/>
-      <c r="AA15" s="0"/>
-      <c r="AB15" s="0"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="20" t="n">
+        <f aca="false">MAX(W12,M18)</f>
+        <v>27</v>
+      </c>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="19" t="n">
+        <f aca="false">Z15+Z17</f>
+        <v>31</v>
+      </c>
       <c r="AC15" s="0"/>
       <c r="AD15" s="0"/>
-      <c r="AE15" s="0"/>
-      <c r="AF15" s="0"/>
-      <c r="AG15" s="0"/>
-      <c r="AH15" s="0"/>
+      <c r="AE15" s="20" t="n">
+        <f aca="false">AB15</f>
+        <v>31</v>
+      </c>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="19" t="n">
+        <f aca="false">AE15+AE17</f>
+        <v>36</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="0"/>
-      <c r="E16" s="0"/>
+      <c r="E16" s="26"/>
       <c r="F16" s="0"/>
       <c r="G16" s="0"/>
       <c r="H16" s="0"/>
@@ -2327,23 +2193,26 @@
       <c r="V16" s="0"/>
       <c r="W16" s="0"/>
       <c r="X16" s="0"/>
-      <c r="Y16" s="0"/>
-      <c r="Z16" s="0"/>
-      <c r="AA16" s="0"/>
-      <c r="AB16" s="0"/>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="21"/>
       <c r="AC16" s="0"/>
       <c r="AD16" s="0"/>
-      <c r="AE16" s="0"/>
-      <c r="AF16" s="0"/>
-      <c r="AG16" s="0"/>
-      <c r="AH16" s="0"/>
+      <c r="AE16" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF16" s="21"/>
+      <c r="AG16" s="21"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="0"/>
-      <c r="E17" s="0"/>
+      <c r="E17" s="26"/>
       <c r="F17" s="0"/>
       <c r="G17" s="0"/>
       <c r="H17" s="0"/>
@@ -2364,30 +2233,52 @@
       <c r="W17" s="0"/>
       <c r="X17" s="0"/>
       <c r="Y17" s="0"/>
-      <c r="Z17" s="0"/>
-      <c r="AA17" s="0"/>
-      <c r="AB17" s="0"/>
-      <c r="AC17" s="0"/>
-      <c r="AD17" s="0"/>
-      <c r="AE17" s="0"/>
-      <c r="AF17" s="0"/>
-      <c r="AG17" s="0"/>
-      <c r="AH17" s="0"/>
+      <c r="Z17" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA17" s="23" t="n">
+        <f aca="false">AB18-AB15</f>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="23"/>
+      <c r="AC17" s="24"/>
+      <c r="AD17" s="24"/>
+      <c r="AE17" s="22" t="n">
+        <f aca="false">VLOOKUP(AE16,$A$2:$H$10,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AF17" s="23" t="n">
+        <f aca="false">AG18-AG15</f>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="23"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="0"/>
-      <c r="E18" s="0"/>
-      <c r="F18" s="0"/>
-      <c r="G18" s="0"/>
-      <c r="H18" s="0"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="20" t="n">
+        <f aca="false">C12</f>
+        <v>2</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="19" t="n">
+        <f aca="false">F18+F20</f>
+        <v>6</v>
+      </c>
       <c r="I18" s="0"/>
       <c r="J18" s="0"/>
-      <c r="K18" s="0"/>
-      <c r="L18" s="0"/>
-      <c r="M18" s="0"/>
+      <c r="K18" s="20" t="n">
+        <f aca="false">H18</f>
+        <v>6</v>
+      </c>
+      <c r="L18" s="4"/>
+      <c r="M18" s="19" t="n">
+        <f aca="false">K18+K20</f>
+        <v>15</v>
+      </c>
       <c r="N18" s="0"/>
       <c r="O18" s="0"/>
       <c r="P18" s="0"/>
@@ -2399,28 +2290,43 @@
       <c r="V18" s="0"/>
       <c r="W18" s="0"/>
       <c r="X18" s="0"/>
-      <c r="Y18" s="0"/>
-      <c r="Z18" s="0"/>
-      <c r="AA18" s="0"/>
-      <c r="AB18" s="0"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="27" t="n">
+        <f aca="false">AB18-Z17</f>
+        <v>27</v>
+      </c>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="27" t="n">
+        <f aca="false">AE18</f>
+        <v>31</v>
+      </c>
       <c r="AC18" s="0"/>
       <c r="AD18" s="0"/>
-      <c r="AE18" s="0"/>
-      <c r="AF18" s="0"/>
-      <c r="AG18" s="0"/>
-      <c r="AH18" s="0"/>
+      <c r="AE18" s="27" t="n">
+        <f aca="false">AG18-AE17</f>
+        <v>31</v>
+      </c>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="27" t="n">
+        <f aca="false">AG15</f>
+        <v>36</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D19" s="0"/>
-      <c r="E19" s="0"/>
-      <c r="F19" s="0"/>
-      <c r="G19" s="0"/>
-      <c r="H19" s="0"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
       <c r="I19" s="0"/>
       <c r="J19" s="0"/>
-      <c r="K19" s="0"/>
-      <c r="L19" s="0"/>
-      <c r="M19" s="0"/>
+      <c r="K19" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
       <c r="N19" s="0"/>
       <c r="O19" s="0"/>
       <c r="P19" s="0"/>
@@ -2432,7 +2338,7 @@
       <c r="V19" s="0"/>
       <c r="W19" s="0"/>
       <c r="X19" s="0"/>
-      <c r="Y19" s="0"/>
+      <c r="Y19" s="26"/>
       <c r="Z19" s="0"/>
       <c r="AA19" s="0"/>
       <c r="AB19" s="0"/>
@@ -2441,52 +2347,65 @@
       <c r="AE19" s="0"/>
       <c r="AF19" s="0"/>
       <c r="AG19" s="0"/>
-      <c r="AH19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D20" s="0"/>
-      <c r="E20" s="0"/>
-      <c r="F20" s="0"/>
-      <c r="G20" s="0"/>
-      <c r="H20" s="0"/>
-      <c r="I20" s="0"/>
-      <c r="J20" s="0"/>
-      <c r="K20" s="0"/>
-      <c r="L20" s="0"/>
-      <c r="M20" s="0"/>
-      <c r="N20" s="0"/>
-      <c r="O20" s="0"/>
-      <c r="P20" s="0"/>
-      <c r="Q20" s="0"/>
-      <c r="R20" s="0"/>
-      <c r="S20" s="0"/>
-      <c r="T20" s="0"/>
-      <c r="U20" s="0"/>
-      <c r="V20" s="0"/>
-      <c r="W20" s="0"/>
-      <c r="X20" s="0"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="22" t="n">
+        <f aca="false">VLOOKUP(F19,$A$2:$H$10,8)</f>
+        <v>4</v>
+      </c>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="22" t="n">
+        <f aca="false">VLOOKUP(K19,$A$2:$H$10,8)</f>
+        <v>9</v>
+      </c>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="24"/>
+      <c r="V20" s="24"/>
+      <c r="W20" s="24"/>
+      <c r="X20" s="24"/>
       <c r="Y20" s="0"/>
       <c r="Z20" s="0"/>
       <c r="AA20" s="0"/>
       <c r="AB20" s="0"/>
       <c r="AC20" s="0"/>
       <c r="AD20" s="0"/>
-      <c r="AE20" s="0"/>
-      <c r="AF20" s="0"/>
-      <c r="AG20" s="0"/>
-      <c r="AH20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="0"/>
       <c r="E21" s="0"/>
-      <c r="F21" s="0"/>
-      <c r="G21" s="0"/>
-      <c r="H21" s="0"/>
+      <c r="F21" s="27" t="n">
+        <f aca="false">H21-F20</f>
+        <v>14</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="27" t="n">
+        <f aca="false">K21</f>
+        <v>18</v>
+      </c>
       <c r="I21" s="0"/>
       <c r="J21" s="0"/>
-      <c r="K21" s="0"/>
-      <c r="L21" s="0"/>
-      <c r="M21" s="0"/>
+      <c r="K21" s="27" t="n">
+        <f aca="false">M21-K20</f>
+        <v>18</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="27" t="n">
+        <f aca="false">Z18</f>
+        <v>27</v>
+      </c>
       <c r="N21" s="0"/>
       <c r="O21" s="0"/>
       <c r="P21" s="0"/>
@@ -2504,43 +2423,6 @@
       <c r="AB21" s="0"/>
       <c r="AC21" s="0"/>
       <c r="AD21" s="0"/>
-      <c r="AE21" s="0"/>
-      <c r="AF21" s="0"/>
-      <c r="AG21" s="0"/>
-      <c r="AH21" s="0"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D22" s="0"/>
-      <c r="E22" s="0"/>
-      <c r="F22" s="0"/>
-      <c r="G22" s="0"/>
-      <c r="H22" s="0"/>
-      <c r="I22" s="0"/>
-      <c r="J22" s="0"/>
-      <c r="K22" s="0"/>
-      <c r="L22" s="0"/>
-      <c r="M22" s="0"/>
-      <c r="N22" s="0"/>
-      <c r="O22" s="0"/>
-      <c r="P22" s="0"/>
-      <c r="Q22" s="0"/>
-      <c r="R22" s="0"/>
-      <c r="S22" s="0"/>
-      <c r="T22" s="0"/>
-      <c r="U22" s="0"/>
-      <c r="V22" s="0"/>
-      <c r="W22" s="0"/>
-      <c r="X22" s="0"/>
-      <c r="Y22" s="0"/>
-      <c r="Z22" s="0"/>
-      <c r="AA22" s="0"/>
-      <c r="AB22" s="0"/>
-      <c r="AC22" s="0"/>
-      <c r="AD22" s="0"/>
-      <c r="AE22" s="0"/>
-      <c r="AF22" s="0"/>
-      <c r="AG22" s="0"/>
-      <c r="AH22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="15"/>
@@ -2617,135 +2499,143 @@
       <c r="C32" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="24" t="s">
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="25" t="s">
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="24" t="s">
+      <c r="J34" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="25" t="s">
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="R34" s="24" t="s">
+      <c r="R34" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="S34" s="24"/>
-      <c r="T34" s="24"/>
-      <c r="U34" s="24"/>
-      <c r="V34" s="24"/>
-      <c r="W34" s="24"/>
-      <c r="X34" s="24"/>
-      <c r="Y34" s="24"/>
-      <c r="Z34" s="24"/>
-      <c r="AA34" s="24"/>
-      <c r="AB34" s="24"/>
+      <c r="S34" s="28"/>
+      <c r="T34" s="28"/>
+      <c r="U34" s="28"/>
+      <c r="V34" s="28"/>
+      <c r="W34" s="28"/>
+      <c r="X34" s="28"/>
+      <c r="Y34" s="28"/>
+      <c r="Z34" s="28"/>
+      <c r="AA34" s="28"/>
+      <c r="AB34" s="28"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="27" t="s">
         <v>24</v>
       </c>
       <c r="B35" s="15"/>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="30" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="26"/>
-      <c r="C37" s="26"/>
+      <c r="A37" s="30"/>
+      <c r="C37" s="30"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="26"/>
-      <c r="C38" s="26"/>
+      <c r="A38" s="30"/>
+      <c r="C38" s="30"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="26"/>
-      <c r="C39" s="26"/>
+      <c r="A39" s="30"/>
+      <c r="C39" s="30"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="26"/>
-      <c r="C40" s="26"/>
+      <c r="A40" s="30"/>
+      <c r="C40" s="30"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="26"/>
-      <c r="C41" s="26"/>
+      <c r="A41" s="30"/>
+      <c r="C41" s="30"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="26"/>
-      <c r="C42" s="26"/>
+      <c r="A42" s="30"/>
+      <c r="C42" s="30"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="26"/>
-      <c r="C43" s="26"/>
+      <c r="A43" s="30"/>
+      <c r="C43" s="30"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="26"/>
-      <c r="C44" s="26"/>
+      <c r="A44" s="30"/>
+      <c r="C44" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="20">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A13:C13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="Z16:AB16"/>
+    <mergeCell ref="AE16:AG16"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="K19:M19"/>
     <mergeCell ref="D32:H32"/>
     <mergeCell ref="A33:C33"/>
     <mergeCell ref="D33:H33"/>
@@ -2761,16 +2651,21 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B14 G14 G20 L14 L20 Q14 AA16 AF16 V14">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AJ8:BS8 J8:AF9 AJ9:AK9 AX10:BS10 AO9:AR9 J10:AT10 J1:BS7 AW9:BS9">
-    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>IF(OR(WEEKDAY(J$1,1)=7,WEEKDAY(J$1,1)=1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ8:BS8 J8:AF9 AJ9:AK9 AX10:BS10 AO9:AR9 J10:AT10 J2:BS7 AW9:BS9">
-    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2790,569 +2685,770 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R63"/>
+  <dimension ref="A1:AB68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AE2" activeCellId="0" sqref="AE2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AA18" activeCellId="0" sqref="AA18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="27" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="31" width="3.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="28" t="s">
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="32" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35" t="s">
+      <c r="D2" s="38"/>
+      <c r="E2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="31" t="n">
+      <c r="G2" s="39"/>
+      <c r="H2" s="35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="35" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
+      <c r="B3" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="39"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="39"/>
+      <c r="H4" s="35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="C5" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="41"/>
+      <c r="E5" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="35" t="n">
         <v>4</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="35" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="39"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="39"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="39"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="41"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" s="43"/>
+      <c r="C14" s="44"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="44"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="44"/>
+      <c r="P14" s="0"/>
+      <c r="Q14" s="0"/>
+      <c r="R14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="31" t="n">
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="23" t="n">
+        <f aca="false" t="array" ref="A16:A16">VLOOKUP(A15,$A$2:$H$15,8)</f>
+        <v>3</v>
+      </c>
+      <c r="B16" s="46"/>
+      <c r="C16" s="23"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="23" t="n">
+        <f aca="false" t="array" ref="F16:F16">VLOOKUP(F15,$A$2:$H$15,8)</f>
+        <v>4</v>
+      </c>
+      <c r="G16" s="46"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="0"/>
+      <c r="J16" s="0"/>
+      <c r="K16" s="23" t="n">
+        <f aca="false" t="array" ref="K16:K16">VLOOKUP(K15,$A$2:$H$15,8)</f>
+        <v>4</v>
+      </c>
+      <c r="L16" s="46"/>
+      <c r="M16" s="23"/>
+      <c r="P16" s="0"/>
+      <c r="Q16" s="0"/>
+      <c r="R16" s="0"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="0"/>
+      <c r="V16" s="0"/>
+      <c r="W16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="27"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="49"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="0"/>
+      <c r="J17" s="0"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="49"/>
+      <c r="P17" s="0"/>
+      <c r="Q17" s="0"/>
+      <c r="R17" s="0"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="43"/>
+      <c r="W17" s="44"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E18" s="47"/>
+      <c r="I18" s="0"/>
+      <c r="J18" s="0"/>
+      <c r="U18" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="V18" s="21"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="45"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E19" s="47"/>
+      <c r="I19" s="0"/>
+      <c r="J19" s="0"/>
+      <c r="T19" s="45"/>
+      <c r="U19" s="23" t="n">
+        <f aca="false" t="array" ref="U19:U19">VLOOKUP(U18,$A$2:$H$15,8)</f>
+        <v>4</v>
+      </c>
+      <c r="V19" s="46"/>
+      <c r="W19" s="23"/>
+      <c r="Y19" s="48"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E20" s="47"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="0"/>
+      <c r="J20" s="0"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="44"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="44"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="43"/>
+      <c r="W20" s="49"/>
+      <c r="Y20" s="50"/>
+      <c r="Z20" s="20"/>
+      <c r="AA20" s="43"/>
+      <c r="AB20" s="44"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E21" s="51"/>
+      <c r="F21" s="21" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="31" t="s">
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="48"/>
+      <c r="Z21" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA21" s="21"/>
+      <c r="AB21" s="21"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F22" s="23" t="n">
+        <f aca="false" t="array" ref="F22:F22">VLOOKUP(F21,$A$2:$H$15,8)</f>
+        <v>8</v>
+      </c>
+      <c r="G22" s="46"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="0"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="23" t="n">
+        <f aca="false" t="array" ref="K22:K22">VLOOKUP(K21,$A$2:$H$15,8)</f>
+        <v>4</v>
+      </c>
+      <c r="L22" s="46"/>
+      <c r="M22" s="23"/>
+      <c r="P22" s="23" t="n">
+        <f aca="false" t="array" ref="P22:P22">VLOOKUP(P21,$A$2:$H$15,8)</f>
         <v>7</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="35" t="s">
+      <c r="Q22" s="46"/>
+      <c r="R22" s="23"/>
+      <c r="Y22" s="45"/>
+      <c r="Z22" s="23" t="n">
+        <f aca="false" t="array" ref="Z22:Z22">VLOOKUP(Z21,$A$2:$H$15,8)</f>
+        <v>6</v>
+      </c>
+      <c r="AA22" s="46"/>
+      <c r="AB22" s="23"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F23" s="27"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="49"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="49"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="49"/>
+      <c r="Y23" s="48"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="43"/>
+      <c r="AB23" s="49"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J24" s="47"/>
+      <c r="Y24" s="48"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J25" s="47"/>
+      <c r="Y25" s="48"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J26" s="47"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="44"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="44"/>
+      <c r="Y26" s="48"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J27" s="51"/>
+      <c r="K27" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="45"/>
+      <c r="T27" s="45"/>
+      <c r="U27" s="45"/>
+      <c r="V27" s="45"/>
+      <c r="W27" s="45"/>
+      <c r="X27" s="45"/>
+      <c r="Y27" s="48"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K28" s="23" t="n">
+        <f aca="false" t="array" ref="K28:K28">VLOOKUP(K27,$A$2:$H$15,8)</f>
+        <v>8</v>
+      </c>
+      <c r="L28" s="46"/>
+      <c r="M28" s="23"/>
+      <c r="P28" s="23" t="n">
+        <f aca="false" t="array" ref="P28:P28">VLOOKUP(P27,$A$2:$H$15,8)</f>
+        <v>6</v>
+      </c>
+      <c r="Q28" s="46"/>
+      <c r="R28" s="23"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K29" s="27"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="49"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="49"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="52"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="53"/>
+      <c r="F55" s="53"/>
+      <c r="G55" s="53"/>
+      <c r="H55" s="53"/>
+      <c r="I55" s="53"/>
+      <c r="J55" s="53"/>
+      <c r="K55" s="53"/>
+      <c r="L55" s="53"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="52"/>
+      <c r="B56" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="54"/>
+      <c r="D56" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="54"/>
+      <c r="F56" s="54"/>
+      <c r="G56" s="54"/>
+      <c r="H56" s="54"/>
+      <c r="I56" s="54"/>
+      <c r="J56" s="54"/>
+      <c r="K56" s="54"/>
+      <c r="L56" s="53"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="52"/>
+      <c r="B57" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" s="55"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="G57" s="56"/>
+      <c r="H57" s="56"/>
+      <c r="I57" s="56"/>
+      <c r="J57" s="56"/>
+      <c r="K57" s="54"/>
+      <c r="L57" s="53"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="52"/>
+      <c r="B58" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="31" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="31" t="s">
+      <c r="C58" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="54"/>
+      <c r="F58" s="54"/>
+      <c r="G58" s="54"/>
+      <c r="H58" s="54"/>
+      <c r="I58" s="54"/>
+      <c r="J58" s="54"/>
+      <c r="K58" s="54"/>
+      <c r="L58" s="53"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="52"/>
+      <c r="B59" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" s="54"/>
+      <c r="D59" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" s="54"/>
+      <c r="F59" s="54"/>
+      <c r="G59" s="54"/>
+      <c r="H59" s="54"/>
+      <c r="I59" s="54"/>
+      <c r="J59" s="54"/>
+      <c r="K59" s="54"/>
+      <c r="L59" s="53"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="52"/>
+      <c r="B60" s="54"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="54"/>
+      <c r="E60" s="54"/>
+      <c r="F60" s="54"/>
+      <c r="G60" s="54"/>
+      <c r="H60" s="54"/>
+      <c r="I60" s="54"/>
+      <c r="J60" s="54"/>
+      <c r="K60" s="54"/>
+      <c r="L60" s="53"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="52"/>
+      <c r="B61" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="D61" s="60"/>
+      <c r="E61" s="60"/>
+      <c r="F61" s="60"/>
+      <c r="G61" s="60"/>
+      <c r="H61" s="60"/>
+      <c r="I61" s="60"/>
+      <c r="J61" s="60"/>
+      <c r="K61" s="60"/>
+      <c r="L61" s="53"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="52"/>
+      <c r="B62" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="D62" s="60"/>
+      <c r="E62" s="60"/>
+      <c r="F62" s="60"/>
+      <c r="G62" s="60"/>
+      <c r="H62" s="60"/>
+      <c r="I62" s="60"/>
+      <c r="J62" s="60"/>
+      <c r="K62" s="60"/>
+      <c r="L62" s="53"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="52"/>
+      <c r="B63" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="D63" s="60"/>
+      <c r="E63" s="60"/>
+      <c r="F63" s="60"/>
+      <c r="G63" s="60"/>
+      <c r="H63" s="60"/>
+      <c r="I63" s="60"/>
+      <c r="J63" s="60"/>
+      <c r="K63" s="60"/>
+      <c r="L63" s="53"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="52"/>
+      <c r="B64" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="D64" s="60"/>
+      <c r="E64" s="60"/>
+      <c r="F64" s="60"/>
+      <c r="G64" s="60"/>
+      <c r="H64" s="60"/>
+      <c r="I64" s="60"/>
+      <c r="J64" s="60"/>
+      <c r="K64" s="60"/>
+      <c r="L64" s="53"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="52"/>
+      <c r="B65" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="31" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="31" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="39" t="n">
-        <f aca="false">A9+A11</f>
-        <v>6</v>
-      </c>
-      <c r="F9" s="18" t="n">
-        <f aca="false">C9</f>
-        <v>6</v>
-      </c>
-      <c r="G9" s="38"/>
-      <c r="H9" s="39" t="n">
-        <f aca="false">F9+F11</f>
-        <v>13</v>
-      </c>
-      <c r="K9" s="18" t="n">
-        <f aca="false">MAX(H9,H15)</f>
-        <v>13</v>
-      </c>
-      <c r="L9" s="38"/>
-      <c r="M9" s="39" t="n">
-        <f aca="false">K9+K11</f>
+      <c r="C65" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="D65" s="60"/>
+      <c r="E65" s="60"/>
+      <c r="F65" s="60"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="60"/>
+      <c r="I65" s="60"/>
+      <c r="J65" s="60"/>
+      <c r="K65" s="60"/>
+      <c r="L65" s="53"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="52"/>
+      <c r="B66" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="D66" s="60"/>
+      <c r="E66" s="60"/>
+      <c r="F66" s="60"/>
+      <c r="G66" s="60"/>
+      <c r="H66" s="60"/>
+      <c r="I66" s="60"/>
+      <c r="J66" s="60"/>
+      <c r="K66" s="60"/>
+      <c r="L66" s="53"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="52"/>
+      <c r="B67" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="P9" s="18" t="n">
-        <f aca="false">M9</f>
-        <v>18</v>
-      </c>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="39" t="n">
-        <f aca="false">P9+P11</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="F10" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="K10" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="P10" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="22" t="n">
-        <f aca="false" t="array" ref="A11:A11">VLOOKUP(A10,$A$2:$H$10,8)</f>
-        <v>6</v>
-      </c>
-      <c r="B11" s="40" t="n">
-        <f aca="false">C12-C9</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="22"/>
-      <c r="F11" s="22" t="n">
-        <f aca="false" t="array" ref="F11:F11">VLOOKUP(F10,$A$2:$H$10,8)</f>
-        <v>7</v>
-      </c>
-      <c r="G11" s="40" t="n">
-        <f aca="false">H12-H9</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="22"/>
-      <c r="K11" s="22" t="n">
-        <f aca="false" t="array" ref="K11:K11">VLOOKUP(K10,$A$2:$H$10,8)</f>
-        <v>5</v>
-      </c>
-      <c r="L11" s="40" t="n">
-        <f aca="false">M12-M9</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="22"/>
-      <c r="P11" s="22" t="n">
-        <f aca="false" t="array" ref="P11:P11">VLOOKUP(P10,$A$2:$H$10,8)</f>
-        <v>9</v>
-      </c>
-      <c r="Q11" s="40" t="n">
-        <f aca="false">R12-R9</f>
-        <v>0</v>
-      </c>
-      <c r="R11" s="22"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="41" t="n">
-        <f aca="false">MIN(F12,F18)</f>
-        <v>6</v>
-      </c>
-      <c r="F12" s="23" t="n">
-        <f aca="false">H12-F11</f>
-        <v>6</v>
-      </c>
-      <c r="G12" s="38"/>
-      <c r="H12" s="41" t="n">
-        <f aca="false">K12</f>
-        <v>13</v>
-      </c>
-      <c r="K12" s="23" t="n">
-        <f aca="false">M12-K11</f>
-        <v>13</v>
-      </c>
-      <c r="L12" s="38"/>
-      <c r="M12" s="41" t="n">
-        <f aca="false">P12</f>
-        <v>18</v>
-      </c>
-      <c r="P12" s="23" t="n">
-        <f aca="false">R12-P11</f>
-        <v>18</v>
-      </c>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="41" t="n">
-        <f aca="false">R9</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F15" s="18" t="n">
-        <f aca="false">C9</f>
-        <v>6</v>
-      </c>
-      <c r="G15" s="38"/>
-      <c r="H15" s="39" t="n">
-        <f aca="false">F15+F17</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F16" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F17" s="22" t="n">
-        <f aca="false" t="array" ref="F17:F17">VLOOKUP(F16,$A$2:$H$10,8)</f>
-        <v>4</v>
-      </c>
-      <c r="G17" s="40" t="n">
-        <f aca="false">H18-H15</f>
-        <v>3</v>
-      </c>
-      <c r="H17" s="22"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F18" s="23" t="n">
-        <f aca="false">H18-F17</f>
-        <v>9</v>
-      </c>
-      <c r="G18" s="38"/>
-      <c r="H18" s="41" t="n">
-        <f aca="false">K12</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="42"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="43"/>
-      <c r="I50" s="43"/>
-      <c r="J50" s="43"/>
-      <c r="K50" s="43"/>
-      <c r="L50" s="43"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="42"/>
-      <c r="B51" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="C51" s="44"/>
-      <c r="D51" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="E51" s="44"/>
-      <c r="F51" s="44"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="44"/>
-      <c r="I51" s="44"/>
-      <c r="J51" s="44"/>
-      <c r="K51" s="44"/>
-      <c r="L51" s="43"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="42"/>
-      <c r="B52" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C52" s="45"/>
-      <c r="D52" s="45"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="G52" s="46"/>
-      <c r="H52" s="46"/>
-      <c r="I52" s="46"/>
-      <c r="J52" s="46"/>
-      <c r="K52" s="44"/>
-      <c r="L52" s="43"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="42"/>
-      <c r="B53" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="D53" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="E53" s="44"/>
-      <c r="F53" s="44"/>
-      <c r="G53" s="44"/>
-      <c r="H53" s="44"/>
-      <c r="I53" s="44"/>
-      <c r="J53" s="44"/>
-      <c r="K53" s="44"/>
-      <c r="L53" s="43"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="42"/>
-      <c r="B54" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="C54" s="44"/>
-      <c r="D54" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="E54" s="44"/>
-      <c r="F54" s="44"/>
-      <c r="G54" s="44"/>
-      <c r="H54" s="44"/>
-      <c r="I54" s="44"/>
-      <c r="J54" s="44"/>
-      <c r="K54" s="44"/>
-      <c r="L54" s="43"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="42"/>
-      <c r="B55" s="44"/>
-      <c r="C55" s="44"/>
-      <c r="D55" s="44"/>
-      <c r="E55" s="44"/>
-      <c r="F55" s="44"/>
-      <c r="G55" s="44"/>
-      <c r="H55" s="44"/>
-      <c r="I55" s="44"/>
-      <c r="J55" s="44"/>
-      <c r="K55" s="44"/>
-      <c r="L55" s="43"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="42"/>
-      <c r="B56" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="C56" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="D56" s="50"/>
-      <c r="E56" s="50"/>
-      <c r="F56" s="50"/>
-      <c r="G56" s="50"/>
-      <c r="H56" s="50"/>
-      <c r="I56" s="50"/>
-      <c r="J56" s="50"/>
-      <c r="K56" s="50"/>
-      <c r="L56" s="43"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="42"/>
-      <c r="B57" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="C57" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="D57" s="50"/>
-      <c r="E57" s="50"/>
-      <c r="F57" s="50"/>
-      <c r="G57" s="50"/>
-      <c r="H57" s="50"/>
-      <c r="I57" s="50"/>
-      <c r="J57" s="50"/>
-      <c r="K57" s="50"/>
-      <c r="L57" s="43"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="42"/>
-      <c r="B58" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="C58" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="D58" s="50"/>
-      <c r="E58" s="50"/>
-      <c r="F58" s="50"/>
-      <c r="G58" s="50"/>
-      <c r="H58" s="50"/>
-      <c r="I58" s="50"/>
-      <c r="J58" s="50"/>
-      <c r="K58" s="50"/>
-      <c r="L58" s="43"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="42"/>
-      <c r="B59" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="C59" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="D59" s="50"/>
-      <c r="E59" s="50"/>
-      <c r="F59" s="50"/>
-      <c r="G59" s="50"/>
-      <c r="H59" s="50"/>
-      <c r="I59" s="50"/>
-      <c r="J59" s="50"/>
-      <c r="K59" s="50"/>
-      <c r="L59" s="43"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="42"/>
-      <c r="B60" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C60" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="D60" s="50"/>
-      <c r="E60" s="50"/>
-      <c r="F60" s="50"/>
-      <c r="G60" s="50"/>
-      <c r="H60" s="50"/>
-      <c r="I60" s="50"/>
-      <c r="J60" s="50"/>
-      <c r="K60" s="50"/>
-      <c r="L60" s="43"/>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="42"/>
-      <c r="B61" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="C61" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="D61" s="50"/>
-      <c r="E61" s="50"/>
-      <c r="F61" s="50"/>
-      <c r="G61" s="50"/>
-      <c r="H61" s="50"/>
-      <c r="I61" s="50"/>
-      <c r="J61" s="50"/>
-      <c r="K61" s="50"/>
-      <c r="L61" s="43"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="42"/>
-      <c r="B62" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="C62" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="D62" s="43"/>
-      <c r="E62" s="43"/>
-      <c r="F62" s="43"/>
-      <c r="G62" s="43"/>
-      <c r="H62" s="43"/>
-      <c r="I62" s="43"/>
-      <c r="J62" s="43"/>
-      <c r="K62" s="43"/>
-      <c r="L62" s="43"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="42"/>
-      <c r="B63" s="43"/>
-      <c r="C63" s="43"/>
-      <c r="D63" s="43"/>
-      <c r="E63" s="43"/>
-      <c r="F63" s="43"/>
-      <c r="G63" s="43"/>
-      <c r="H63" s="43"/>
-      <c r="I63" s="43"/>
-      <c r="J63" s="43"/>
-      <c r="K63" s="43"/>
-      <c r="L63" s="43"/>
+      <c r="C67" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="D67" s="53"/>
+      <c r="E67" s="53"/>
+      <c r="F67" s="53"/>
+      <c r="G67" s="53"/>
+      <c r="H67" s="53"/>
+      <c r="I67" s="53"/>
+      <c r="J67" s="53"/>
+      <c r="K67" s="53"/>
+      <c r="L67" s="53"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="52"/>
+      <c r="B68" s="53"/>
+      <c r="C68" s="53"/>
+      <c r="D68" s="53"/>
+      <c r="E68" s="53"/>
+      <c r="F68" s="53"/>
+      <c r="G68" s="53"/>
+      <c r="H68" s="53"/>
+      <c r="I68" s="53"/>
+      <c r="J68" s="53"/>
+      <c r="K68" s="53"/>
+      <c r="L68" s="53"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="20">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="F52:J52"/>
-    <mergeCell ref="C56:K56"/>
-    <mergeCell ref="C57:K57"/>
-    <mergeCell ref="C58:K58"/>
-    <mergeCell ref="C59:K59"/>
-    <mergeCell ref="C60:K60"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="Z21:AB21"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="F57:J57"/>
     <mergeCell ref="C61:K61"/>
+    <mergeCell ref="C62:K62"/>
+    <mergeCell ref="C63:K63"/>
+    <mergeCell ref="C64:K64"/>
+    <mergeCell ref="C65:K65"/>
+    <mergeCell ref="C66:K66"/>
   </mergeCells>
-  <conditionalFormatting sqref="C52:C53 B61">
+  <conditionalFormatting sqref="C57:C58 B66">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11 G11 G17 L11 Q11">
+  <conditionalFormatting sqref="B16 G16 G22 L16 L22 Q22 L28 Q28 V19 AA22">
     <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>

--- a/Übungen/04_Netzplan_Wiederholung.xlsx
+++ b/Übungen/04_Netzplan_Wiederholung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle2" sheetId="1" state="visible" r:id="rId2"/>
@@ -225,7 +225,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,7 +241,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB3B"/>
-        <bgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFDD835"/>
       </patternFill>
     </fill>
     <fill>
@@ -254,6 +254,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
         <bgColor rgb="FFBDBDBD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDD835"/>
+        <bgColor rgb="FFFFEB3B"/>
       </patternFill>
     </fill>
     <fill>
@@ -411,7 +417,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -452,6 +458,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -484,30 +494,30 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -540,15 +550,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -580,7 +590,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -588,7 +598,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -596,11 +606,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -616,15 +626,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -632,7 +642,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -640,23 +650,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -790,7 +800,7 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFDD835"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFF44336"/>
       <rgbColor rgb="FF666699"/>
@@ -810,83 +820,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>67</xdr:col>
-      <xdr:colOff>85680</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>124920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>67</xdr:col>
-      <xdr:colOff>227880</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>151560</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="0" name="Form 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18209880" y="1966320"/>
-          <a:ext cx="142200" cy="189360"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst>
-            <a:gd name="textAreaLeft" fmla="*/ 0 w 142200"/>
-            <a:gd name="textAreaRight" fmla="*/ 142560 w 142200"/>
-            <a:gd name="textAreaTop" fmla="*/ 0 h 189360"/>
-            <a:gd name="textAreaBottom" fmla="*/ 189720 h 189360"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:rect l="textAreaLeft" t="textAreaTop" r="textAreaRight" b="textAreaBottom"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="10800" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="10800"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="10800" y="21600"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="10800"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="10800" y="0"/>
-              </a:lnTo>
-              <a:close/>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="729fcf"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="3465a4"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -902,7 +835,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvPr id="0" name=""/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -940,8 +873,8 @@
   </sheetPr>
   <dimension ref="A1:BS44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AE17" activeCellId="0" sqref="AE17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1177,80 +1110,84 @@
       </c>
       <c r="I2" s="4" t="n">
         <f aca="false">SUM(J2:BS2)</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="10"/>
-      <c r="AG2" s="10"/>
-      <c r="AH2" s="10"/>
-      <c r="AI2" s="10"/>
-      <c r="AJ2" s="10"/>
-      <c r="AK2" s="10"/>
-      <c r="AL2" s="10"/>
-      <c r="AM2" s="10"/>
-      <c r="AN2" s="10"/>
-      <c r="AO2" s="10"/>
-      <c r="AP2" s="10"/>
-      <c r="AQ2" s="10"/>
-      <c r="AR2" s="10"/>
-      <c r="AS2" s="10"/>
-      <c r="AT2" s="10"/>
-      <c r="AU2" s="10"/>
-      <c r="AV2" s="10"/>
-      <c r="AW2" s="10"/>
-      <c r="AX2" s="10"/>
-      <c r="AY2" s="10"/>
-      <c r="AZ2" s="10"/>
-      <c r="BA2" s="10"/>
-      <c r="BB2" s="10"/>
-      <c r="BC2" s="10"/>
-      <c r="BD2" s="10"/>
-      <c r="BE2" s="10"/>
-      <c r="BF2" s="10"/>
-      <c r="BG2" s="10"/>
-      <c r="BH2" s="10"/>
-      <c r="BI2" s="10"/>
-      <c r="BJ2" s="10"/>
-      <c r="BK2" s="10"/>
-      <c r="BL2" s="10"/>
-      <c r="BM2" s="10"/>
-      <c r="BN2" s="10"/>
-      <c r="BO2" s="10"/>
-      <c r="BP2" s="10"/>
-      <c r="BQ2" s="10"/>
-      <c r="BR2" s="10"/>
-      <c r="BS2" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="J2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="11"/>
+      <c r="AJ2" s="11"/>
+      <c r="AK2" s="11"/>
+      <c r="AL2" s="11"/>
+      <c r="AM2" s="11"/>
+      <c r="AN2" s="11"/>
+      <c r="AO2" s="11"/>
+      <c r="AP2" s="11"/>
+      <c r="AQ2" s="11"/>
+      <c r="AR2" s="11"/>
+      <c r="AS2" s="11"/>
+      <c r="AT2" s="11"/>
+      <c r="AU2" s="11"/>
+      <c r="AV2" s="11"/>
+      <c r="AW2" s="11"/>
+      <c r="AX2" s="11"/>
+      <c r="AY2" s="11"/>
+      <c r="AZ2" s="11"/>
+      <c r="BA2" s="11"/>
+      <c r="BB2" s="11"/>
+      <c r="BC2" s="11"/>
+      <c r="BD2" s="11"/>
+      <c r="BE2" s="11"/>
+      <c r="BF2" s="11"/>
+      <c r="BG2" s="11"/>
+      <c r="BH2" s="11"/>
+      <c r="BI2" s="11"/>
+      <c r="BJ2" s="11"/>
+      <c r="BK2" s="11"/>
+      <c r="BL2" s="11"/>
+      <c r="BM2" s="11"/>
+      <c r="BN2" s="11"/>
+      <c r="BO2" s="11"/>
+      <c r="BP2" s="11"/>
+      <c r="BQ2" s="11"/>
+      <c r="BR2" s="11"/>
+      <c r="BS2" s="11"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="13"/>
+      <c r="D3" s="14"/>
       <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1261,80 +1198,92 @@
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">SUM(J3:BS3)</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10"/>
-      <c r="AH3" s="10"/>
-      <c r="AI3" s="10"/>
-      <c r="AJ3" s="10"/>
-      <c r="AK3" s="10"/>
-      <c r="AL3" s="10"/>
-      <c r="AM3" s="10"/>
-      <c r="AN3" s="10"/>
-      <c r="AO3" s="10"/>
-      <c r="AP3" s="10"/>
-      <c r="AQ3" s="10"/>
-      <c r="AR3" s="10"/>
-      <c r="AS3" s="10"/>
-      <c r="AT3" s="10"/>
-      <c r="AU3" s="10"/>
-      <c r="AV3" s="10"/>
-      <c r="AW3" s="10"/>
-      <c r="AX3" s="10"/>
-      <c r="AY3" s="10"/>
-      <c r="AZ3" s="10"/>
-      <c r="BA3" s="10"/>
-      <c r="BB3" s="10"/>
-      <c r="BC3" s="10"/>
-      <c r="BD3" s="10"/>
-      <c r="BE3" s="10"/>
-      <c r="BF3" s="10"/>
-      <c r="BG3" s="10"/>
-      <c r="BH3" s="10"/>
-      <c r="BI3" s="10"/>
-      <c r="BJ3" s="10"/>
-      <c r="BK3" s="10"/>
-      <c r="BL3" s="10"/>
-      <c r="BM3" s="10"/>
-      <c r="BN3" s="10"/>
-      <c r="BO3" s="10"/>
-      <c r="BP3" s="10"/>
-      <c r="BQ3" s="10"/>
-      <c r="BR3" s="10"/>
-      <c r="BS3" s="10"/>
+        <v>6</v>
+      </c>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="11"/>
+      <c r="AK3" s="11"/>
+      <c r="AL3" s="11"/>
+      <c r="AM3" s="11"/>
+      <c r="AN3" s="11"/>
+      <c r="AO3" s="11"/>
+      <c r="AP3" s="11"/>
+      <c r="AQ3" s="11"/>
+      <c r="AR3" s="11"/>
+      <c r="AS3" s="11"/>
+      <c r="AT3" s="11"/>
+      <c r="AU3" s="11"/>
+      <c r="AV3" s="11"/>
+      <c r="AW3" s="11"/>
+      <c r="AX3" s="11"/>
+      <c r="AY3" s="11"/>
+      <c r="AZ3" s="11"/>
+      <c r="BA3" s="11"/>
+      <c r="BB3" s="11"/>
+      <c r="BC3" s="11"/>
+      <c r="BD3" s="11"/>
+      <c r="BE3" s="11"/>
+      <c r="BF3" s="11"/>
+      <c r="BG3" s="11"/>
+      <c r="BH3" s="11"/>
+      <c r="BI3" s="11"/>
+      <c r="BJ3" s="11"/>
+      <c r="BK3" s="11"/>
+      <c r="BL3" s="11"/>
+      <c r="BM3" s="11"/>
+      <c r="BN3" s="11"/>
+      <c r="BO3" s="11"/>
+      <c r="BP3" s="11"/>
+      <c r="BQ3" s="11"/>
+      <c r="BR3" s="11"/>
+      <c r="BS3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="13"/>
+      <c r="D4" s="14"/>
       <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
@@ -1345,80 +1294,88 @@
       </c>
       <c r="I4" s="4" t="n">
         <f aca="false">SUM(J4:BS4)</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="10"/>
-      <c r="AG4" s="10"/>
-      <c r="AH4" s="10"/>
-      <c r="AI4" s="10"/>
-      <c r="AJ4" s="10"/>
-      <c r="AK4" s="10"/>
-      <c r="AL4" s="10"/>
-      <c r="AM4" s="10"/>
-      <c r="AN4" s="10"/>
-      <c r="AO4" s="10"/>
-      <c r="AP4" s="10"/>
-      <c r="AQ4" s="10"/>
-      <c r="AR4" s="10"/>
-      <c r="AS4" s="10"/>
-      <c r="AT4" s="10"/>
-      <c r="AU4" s="10"/>
-      <c r="AV4" s="10"/>
-      <c r="AW4" s="10"/>
-      <c r="AX4" s="10"/>
-      <c r="AY4" s="10"/>
-      <c r="AZ4" s="10"/>
-      <c r="BA4" s="10"/>
-      <c r="BB4" s="10"/>
-      <c r="BC4" s="10"/>
-      <c r="BD4" s="10"/>
-      <c r="BE4" s="10"/>
-      <c r="BF4" s="10"/>
-      <c r="BG4" s="10"/>
-      <c r="BH4" s="10"/>
-      <c r="BI4" s="10"/>
-      <c r="BJ4" s="10"/>
-      <c r="BK4" s="10"/>
-      <c r="BL4" s="10"/>
-      <c r="BM4" s="10"/>
-      <c r="BN4" s="10"/>
-      <c r="BO4" s="10"/>
-      <c r="BP4" s="10"/>
-      <c r="BQ4" s="10"/>
-      <c r="BR4" s="10"/>
-      <c r="BS4" s="10"/>
+        <v>4</v>
+      </c>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="11"/>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="11"/>
+      <c r="AK4" s="11"/>
+      <c r="AL4" s="11"/>
+      <c r="AM4" s="11"/>
+      <c r="AN4" s="11"/>
+      <c r="AO4" s="11"/>
+      <c r="AP4" s="11"/>
+      <c r="AQ4" s="11"/>
+      <c r="AR4" s="11"/>
+      <c r="AS4" s="11"/>
+      <c r="AT4" s="11"/>
+      <c r="AU4" s="11"/>
+      <c r="AV4" s="11"/>
+      <c r="AW4" s="11"/>
+      <c r="AX4" s="11"/>
+      <c r="AY4" s="11"/>
+      <c r="AZ4" s="11"/>
+      <c r="BA4" s="11"/>
+      <c r="BB4" s="11"/>
+      <c r="BC4" s="11"/>
+      <c r="BD4" s="11"/>
+      <c r="BE4" s="11"/>
+      <c r="BF4" s="11"/>
+      <c r="BG4" s="11"/>
+      <c r="BH4" s="11"/>
+      <c r="BI4" s="11"/>
+      <c r="BJ4" s="11"/>
+      <c r="BK4" s="11"/>
+      <c r="BL4" s="11"/>
+      <c r="BM4" s="11"/>
+      <c r="BN4" s="11"/>
+      <c r="BO4" s="11"/>
+      <c r="BP4" s="11"/>
+      <c r="BQ4" s="11"/>
+      <c r="BR4" s="11"/>
+      <c r="BS4" s="11"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="13"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1429,80 +1386,94 @@
       </c>
       <c r="I5" s="4" t="n">
         <f aca="false">SUM(J5:BS5)</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="11"/>
-      <c r="AF5" s="10"/>
-      <c r="AG5" s="10"/>
-      <c r="AH5" s="10"/>
-      <c r="AI5" s="10"/>
-      <c r="AJ5" s="10"/>
-      <c r="AK5" s="10"/>
-      <c r="AL5" s="10"/>
-      <c r="AM5" s="10"/>
-      <c r="AN5" s="10"/>
-      <c r="AO5" s="10"/>
-      <c r="AP5" s="10"/>
-      <c r="AQ5" s="10"/>
-      <c r="AR5" s="10"/>
-      <c r="AS5" s="10"/>
-      <c r="AT5" s="10"/>
-      <c r="AU5" s="10"/>
-      <c r="AV5" s="10"/>
-      <c r="AW5" s="10"/>
-      <c r="AX5" s="10"/>
-      <c r="AY5" s="10"/>
-      <c r="AZ5" s="10"/>
-      <c r="BA5" s="10"/>
-      <c r="BB5" s="10"/>
-      <c r="BC5" s="10"/>
-      <c r="BD5" s="10"/>
-      <c r="BE5" s="10"/>
-      <c r="BF5" s="10"/>
-      <c r="BG5" s="10"/>
-      <c r="BH5" s="10"/>
-      <c r="BI5" s="10"/>
-      <c r="BJ5" s="10"/>
-      <c r="BK5" s="10"/>
-      <c r="BL5" s="10"/>
-      <c r="BM5" s="10"/>
-      <c r="BN5" s="10"/>
-      <c r="BO5" s="10"/>
-      <c r="BP5" s="10"/>
-      <c r="BQ5" s="10"/>
-      <c r="BR5" s="10"/>
-      <c r="BS5" s="10"/>
+        <v>7</v>
+      </c>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="11"/>
+      <c r="AK5" s="11"/>
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="11"/>
+      <c r="AN5" s="11"/>
+      <c r="AO5" s="11"/>
+      <c r="AP5" s="11"/>
+      <c r="AQ5" s="11"/>
+      <c r="AR5" s="11"/>
+      <c r="AS5" s="11"/>
+      <c r="AT5" s="11"/>
+      <c r="AU5" s="11"/>
+      <c r="AV5" s="11"/>
+      <c r="AW5" s="11"/>
+      <c r="AX5" s="11"/>
+      <c r="AY5" s="11"/>
+      <c r="AZ5" s="11"/>
+      <c r="BA5" s="11"/>
+      <c r="BB5" s="11"/>
+      <c r="BC5" s="11"/>
+      <c r="BD5" s="11"/>
+      <c r="BE5" s="11"/>
+      <c r="BF5" s="11"/>
+      <c r="BG5" s="11"/>
+      <c r="BH5" s="11"/>
+      <c r="BI5" s="11"/>
+      <c r="BJ5" s="11"/>
+      <c r="BK5" s="11"/>
+      <c r="BL5" s="11"/>
+      <c r="BM5" s="11"/>
+      <c r="BN5" s="11"/>
+      <c r="BO5" s="11"/>
+      <c r="BP5" s="11"/>
+      <c r="BQ5" s="11"/>
+      <c r="BR5" s="11"/>
+      <c r="BS5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="13"/>
+      <c r="D6" s="14"/>
       <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1513,80 +1484,92 @@
       </c>
       <c r="I6" s="4" t="n">
         <f aca="false">SUM(J6:BS6)</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="10"/>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="10"/>
-      <c r="AI6" s="10"/>
-      <c r="AJ6" s="10"/>
-      <c r="AK6" s="10"/>
-      <c r="AL6" s="10"/>
-      <c r="AM6" s="10"/>
-      <c r="AN6" s="10"/>
-      <c r="AO6" s="10"/>
-      <c r="AP6" s="10"/>
-      <c r="AQ6" s="10"/>
-      <c r="AR6" s="10"/>
-      <c r="AS6" s="10"/>
-      <c r="AT6" s="10"/>
-      <c r="AU6" s="10"/>
-      <c r="AV6" s="10"/>
-      <c r="AW6" s="10"/>
-      <c r="AX6" s="10"/>
-      <c r="AY6" s="10"/>
-      <c r="AZ6" s="10"/>
-      <c r="BA6" s="10"/>
-      <c r="BB6" s="10"/>
-      <c r="BC6" s="10"/>
-      <c r="BD6" s="10"/>
-      <c r="BE6" s="10"/>
-      <c r="BF6" s="10"/>
-      <c r="BG6" s="10"/>
-      <c r="BH6" s="10"/>
-      <c r="BI6" s="10"/>
-      <c r="BJ6" s="10"/>
-      <c r="BK6" s="10"/>
-      <c r="BL6" s="10"/>
-      <c r="BM6" s="10"/>
-      <c r="BN6" s="10"/>
-      <c r="BO6" s="10"/>
-      <c r="BP6" s="10"/>
-      <c r="BQ6" s="10"/>
-      <c r="BR6" s="10"/>
-      <c r="BS6" s="10"/>
+        <v>6</v>
+      </c>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="11"/>
+      <c r="AK6" s="11"/>
+      <c r="AL6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="11"/>
+      <c r="AO6" s="11"/>
+      <c r="AP6" s="11"/>
+      <c r="AQ6" s="11"/>
+      <c r="AR6" s="11"/>
+      <c r="AS6" s="11"/>
+      <c r="AT6" s="11"/>
+      <c r="AU6" s="11"/>
+      <c r="AV6" s="11"/>
+      <c r="AW6" s="11"/>
+      <c r="AX6" s="11"/>
+      <c r="AY6" s="11"/>
+      <c r="AZ6" s="11"/>
+      <c r="BA6" s="11"/>
+      <c r="BB6" s="11"/>
+      <c r="BC6" s="11"/>
+      <c r="BD6" s="11"/>
+      <c r="BE6" s="11"/>
+      <c r="BF6" s="11"/>
+      <c r="BG6" s="11"/>
+      <c r="BH6" s="11"/>
+      <c r="BI6" s="11"/>
+      <c r="BJ6" s="11"/>
+      <c r="BK6" s="11"/>
+      <c r="BL6" s="11"/>
+      <c r="BM6" s="11"/>
+      <c r="BN6" s="11"/>
+      <c r="BO6" s="11"/>
+      <c r="BP6" s="11"/>
+      <c r="BQ6" s="11"/>
+      <c r="BR6" s="11"/>
+      <c r="BS6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="13"/>
+      <c r="D7" s="14"/>
       <c r="E7" s="3" t="s">
         <v>11</v>
       </c>
@@ -1597,80 +1580,98 @@
       </c>
       <c r="I7" s="4" t="n">
         <f aca="false">SUM(J7:BS7)</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="10"/>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="10"/>
-      <c r="AG7" s="10"/>
-      <c r="AH7" s="10"/>
-      <c r="AI7" s="10"/>
-      <c r="AJ7" s="10"/>
-      <c r="AK7" s="10"/>
-      <c r="AL7" s="10"/>
-      <c r="AM7" s="10"/>
-      <c r="AN7" s="10"/>
-      <c r="AO7" s="10"/>
-      <c r="AP7" s="10"/>
-      <c r="AQ7" s="10"/>
-      <c r="AR7" s="10"/>
-      <c r="AS7" s="10"/>
-      <c r="AT7" s="10"/>
-      <c r="AU7" s="10"/>
-      <c r="AV7" s="10"/>
-      <c r="AW7" s="10"/>
-      <c r="AX7" s="10"/>
-      <c r="AY7" s="10"/>
-      <c r="AZ7" s="10"/>
-      <c r="BA7" s="10"/>
-      <c r="BB7" s="10"/>
-      <c r="BC7" s="10"/>
-      <c r="BD7" s="10"/>
-      <c r="BE7" s="10"/>
-      <c r="BF7" s="10"/>
-      <c r="BG7" s="10"/>
-      <c r="BH7" s="10"/>
-      <c r="BI7" s="10"/>
-      <c r="BJ7" s="10"/>
-      <c r="BK7" s="10"/>
-      <c r="BL7" s="10"/>
-      <c r="BM7" s="10"/>
-      <c r="BN7" s="10"/>
-      <c r="BO7" s="10"/>
-      <c r="BP7" s="10"/>
-      <c r="BQ7" s="10"/>
-      <c r="BR7" s="10"/>
-      <c r="BS7" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="11"/>
+      <c r="AL7" s="11"/>
+      <c r="AM7" s="11"/>
+      <c r="AN7" s="11"/>
+      <c r="AO7" s="11"/>
+      <c r="AP7" s="11"/>
+      <c r="AQ7" s="11"/>
+      <c r="AR7" s="11"/>
+      <c r="AS7" s="11"/>
+      <c r="AT7" s="11"/>
+      <c r="AU7" s="11"/>
+      <c r="AV7" s="11"/>
+      <c r="AW7" s="11"/>
+      <c r="AX7" s="11"/>
+      <c r="AY7" s="11"/>
+      <c r="AZ7" s="11"/>
+      <c r="BA7" s="11"/>
+      <c r="BB7" s="11"/>
+      <c r="BC7" s="11"/>
+      <c r="BD7" s="11"/>
+      <c r="BE7" s="11"/>
+      <c r="BF7" s="11"/>
+      <c r="BG7" s="11"/>
+      <c r="BH7" s="11"/>
+      <c r="BI7" s="11"/>
+      <c r="BJ7" s="11"/>
+      <c r="BK7" s="11"/>
+      <c r="BL7" s="11"/>
+      <c r="BM7" s="11"/>
+      <c r="BN7" s="11"/>
+      <c r="BO7" s="11"/>
+      <c r="BP7" s="11"/>
+      <c r="BQ7" s="11"/>
+      <c r="BR7" s="11"/>
+      <c r="BS7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="13"/>
+      <c r="D8" s="14"/>
       <c r="E8" s="3" t="s">
         <v>11</v>
       </c>
@@ -1681,82 +1682,94 @@
       </c>
       <c r="I8" s="4" t="n">
         <f aca="false">SUM(J8:BS8)</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="10"/>
-      <c r="AE8" s="11"/>
-      <c r="AF8" s="10"/>
-      <c r="AG8" s="14"/>
-      <c r="AH8" s="14"/>
-      <c r="AI8" s="14"/>
-      <c r="AJ8" s="10"/>
-      <c r="AK8" s="10"/>
-      <c r="AL8" s="10"/>
-      <c r="AM8" s="10"/>
-      <c r="AN8" s="10"/>
-      <c r="AO8" s="10"/>
-      <c r="AP8" s="10"/>
-      <c r="AQ8" s="10"/>
-      <c r="AR8" s="10"/>
-      <c r="AS8" s="10"/>
-      <c r="AT8" s="10"/>
-      <c r="AU8" s="10"/>
-      <c r="AV8" s="10"/>
-      <c r="AW8" s="10"/>
-      <c r="AX8" s="10"/>
-      <c r="AY8" s="10"/>
-      <c r="AZ8" s="10"/>
-      <c r="BA8" s="10"/>
-      <c r="BB8" s="10"/>
-      <c r="BC8" s="10"/>
-      <c r="BD8" s="10"/>
-      <c r="BE8" s="10"/>
-      <c r="BF8" s="10"/>
-      <c r="BG8" s="10"/>
-      <c r="BH8" s="10"/>
-      <c r="BI8" s="10"/>
-      <c r="BJ8" s="10"/>
-      <c r="BK8" s="10"/>
-      <c r="BL8" s="10"/>
-      <c r="BM8" s="10"/>
-      <c r="BN8" s="10"/>
-      <c r="BO8" s="10"/>
-      <c r="BP8" s="10"/>
-      <c r="BQ8" s="10"/>
-      <c r="BR8" s="10"/>
-      <c r="BS8" s="10"/>
+        <v>6</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="15"/>
+      <c r="AH8" s="15"/>
+      <c r="AI8" s="15"/>
+      <c r="AJ8" s="11"/>
+      <c r="AK8" s="11"/>
+      <c r="AL8" s="11"/>
+      <c r="AM8" s="11"/>
+      <c r="AN8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ8" s="11"/>
+      <c r="AR8" s="11"/>
+      <c r="AS8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV8" s="11"/>
+      <c r="AW8" s="11"/>
+      <c r="AX8" s="11"/>
+      <c r="AY8" s="11"/>
+      <c r="AZ8" s="11"/>
+      <c r="BA8" s="11"/>
+      <c r="BB8" s="11"/>
+      <c r="BC8" s="11"/>
+      <c r="BD8" s="11"/>
+      <c r="BE8" s="11"/>
+      <c r="BF8" s="11"/>
+      <c r="BG8" s="11"/>
+      <c r="BH8" s="11"/>
+      <c r="BI8" s="11"/>
+      <c r="BJ8" s="11"/>
+      <c r="BK8" s="11"/>
+      <c r="BL8" s="11"/>
+      <c r="BM8" s="11"/>
+      <c r="BN8" s="11"/>
+      <c r="BO8" s="11"/>
+      <c r="BP8" s="11"/>
+      <c r="BQ8" s="11"/>
+      <c r="BR8" s="11"/>
+      <c r="BS8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="13"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="3" t="s">
         <v>12</v>
       </c>
@@ -1765,232 +1778,250 @@
       <c r="H9" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="I9" s="15" t="n">
+      <c r="I9" s="16" t="n">
         <f aca="false">SUM(J9:BS9)</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="10"/>
-      <c r="AD9" s="10"/>
-      <c r="AE9" s="11"/>
-      <c r="AF9" s="10"/>
-      <c r="AG9" s="14"/>
-      <c r="AH9" s="14"/>
-      <c r="AI9" s="14"/>
-      <c r="AJ9" s="10"/>
-      <c r="AK9" s="10"/>
-      <c r="AL9" s="14"/>
-      <c r="AM9" s="14"/>
-      <c r="AN9" s="14"/>
-      <c r="AO9" s="10"/>
-      <c r="AP9" s="10"/>
-      <c r="AQ9" s="10"/>
-      <c r="AR9" s="10"/>
-      <c r="AS9" s="14"/>
-      <c r="AT9" s="14"/>
-      <c r="AU9" s="14"/>
-      <c r="AV9" s="14"/>
-      <c r="AW9" s="10"/>
-      <c r="AX9" s="10"/>
-      <c r="AY9" s="10"/>
-      <c r="AZ9" s="10"/>
-      <c r="BA9" s="10"/>
-      <c r="BB9" s="10"/>
-      <c r="BC9" s="10"/>
-      <c r="BD9" s="10"/>
-      <c r="BE9" s="10"/>
-      <c r="BF9" s="10"/>
-      <c r="BG9" s="10"/>
-      <c r="BH9" s="10"/>
-      <c r="BI9" s="10"/>
-      <c r="BJ9" s="10"/>
-      <c r="BK9" s="10"/>
-      <c r="BL9" s="10"/>
-      <c r="BM9" s="10"/>
-      <c r="BN9" s="10"/>
-      <c r="BO9" s="10"/>
-      <c r="BP9" s="10"/>
-      <c r="BQ9" s="10"/>
-      <c r="BR9" s="10"/>
-      <c r="BS9" s="10"/>
+        <v>4</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="15"/>
+      <c r="AH9" s="15"/>
+      <c r="AI9" s="15"/>
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="11"/>
+      <c r="AL9" s="15"/>
+      <c r="AM9" s="15"/>
+      <c r="AN9" s="15"/>
+      <c r="AO9" s="11"/>
+      <c r="AP9" s="11"/>
+      <c r="AQ9" s="11"/>
+      <c r="AR9" s="11"/>
+      <c r="AS9" s="15"/>
+      <c r="AT9" s="15"/>
+      <c r="AU9" s="15"/>
+      <c r="AV9" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW9" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX9" s="11"/>
+      <c r="AY9" s="11"/>
+      <c r="AZ9" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA9" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB9" s="11"/>
+      <c r="BC9" s="11"/>
+      <c r="BD9" s="11"/>
+      <c r="BE9" s="11"/>
+      <c r="BF9" s="11"/>
+      <c r="BG9" s="11"/>
+      <c r="BH9" s="11"/>
+      <c r="BI9" s="11"/>
+      <c r="BJ9" s="11"/>
+      <c r="BK9" s="11"/>
+      <c r="BL9" s="11"/>
+      <c r="BM9" s="11"/>
+      <c r="BN9" s="11"/>
+      <c r="BO9" s="11"/>
+      <c r="BP9" s="11"/>
+      <c r="BQ9" s="11"/>
+      <c r="BR9" s="11"/>
+      <c r="BS9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="13"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="I10" s="15" t="n">
+      <c r="I10" s="16" t="n">
         <f aca="false">SUM(J10:BS10)</f>
+        <v>5</v>
+      </c>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="12"/>
+      <c r="AF10" s="17"/>
+      <c r="AG10" s="17"/>
+      <c r="AH10" s="17"/>
+      <c r="AI10" s="17"/>
+      <c r="AJ10" s="17"/>
+      <c r="AK10" s="17"/>
+      <c r="AL10" s="17"/>
+      <c r="AM10" s="17"/>
+      <c r="AN10" s="17"/>
+      <c r="AO10" s="17"/>
+      <c r="AP10" s="17"/>
+      <c r="AQ10" s="17"/>
+      <c r="AR10" s="17"/>
+      <c r="AS10" s="17"/>
+      <c r="AT10" s="17"/>
+      <c r="AU10" s="18"/>
+      <c r="AV10" s="18"/>
+      <c r="AW10" s="18"/>
+      <c r="AX10" s="17"/>
+      <c r="AY10" s="17"/>
+      <c r="AZ10" s="17"/>
+      <c r="BA10" s="17"/>
+      <c r="BB10" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC10" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD10" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE10" s="17"/>
+      <c r="BF10" s="17"/>
+      <c r="BG10" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH10" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI10" s="17"/>
+      <c r="BJ10" s="17"/>
+      <c r="BK10" s="11"/>
+      <c r="BL10" s="17"/>
+      <c r="BM10" s="17"/>
+      <c r="BN10" s="17"/>
+      <c r="BO10" s="17"/>
+      <c r="BP10" s="17"/>
+      <c r="BQ10" s="17"/>
+      <c r="BR10" s="11"/>
+      <c r="BS10" s="17"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="16"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="10"/>
-      <c r="AE10" s="11"/>
-      <c r="AF10" s="16"/>
-      <c r="AG10" s="16"/>
-      <c r="AH10" s="16"/>
-      <c r="AI10" s="16"/>
-      <c r="AJ10" s="16"/>
-      <c r="AK10" s="16"/>
-      <c r="AL10" s="16"/>
-      <c r="AM10" s="16"/>
-      <c r="AN10" s="16"/>
-      <c r="AO10" s="16"/>
-      <c r="AP10" s="16"/>
-      <c r="AQ10" s="16"/>
-      <c r="AR10" s="16"/>
-      <c r="AS10" s="16"/>
-      <c r="AT10" s="16"/>
-      <c r="AU10" s="17"/>
-      <c r="AV10" s="17"/>
-      <c r="AW10" s="17"/>
-      <c r="AX10" s="16"/>
-      <c r="AY10" s="16"/>
-      <c r="AZ10" s="16"/>
-      <c r="BA10" s="16"/>
-      <c r="BB10" s="16"/>
-      <c r="BC10" s="16"/>
-      <c r="BD10" s="16"/>
-      <c r="BE10" s="16"/>
-      <c r="BF10" s="16"/>
-      <c r="BG10" s="16"/>
-      <c r="BH10" s="16"/>
-      <c r="BI10" s="16"/>
-      <c r="BJ10" s="16"/>
-      <c r="BK10" s="10"/>
-      <c r="BL10" s="16"/>
-      <c r="BM10" s="16"/>
-      <c r="BN10" s="16"/>
-      <c r="BO10" s="16"/>
-      <c r="BP10" s="16"/>
-      <c r="BQ10" s="16"/>
-      <c r="BR10" s="10"/>
-      <c r="BS10" s="16"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="15"/>
-      <c r="AC11" s="15"/>
-      <c r="AD11" s="15"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="19" t="n">
+      <c r="B12" s="16"/>
+      <c r="C12" s="20" t="n">
         <f aca="false">A12+A14</f>
         <v>2</v>
       </c>
       <c r="D12" s="0"/>
       <c r="E12" s="0"/>
-      <c r="F12" s="20" t="n">
+      <c r="F12" s="21" t="n">
         <f aca="false">C12</f>
         <v>2</v>
       </c>
       <c r="G12" s="4"/>
-      <c r="H12" s="19" t="n">
+      <c r="H12" s="20" t="n">
         <f aca="false">F12+F14</f>
         <v>8</v>
       </c>
       <c r="I12" s="0"/>
       <c r="J12" s="0"/>
-      <c r="K12" s="20" t="n">
+      <c r="K12" s="21" t="n">
         <f aca="false">H12</f>
         <v>8</v>
       </c>
       <c r="L12" s="4"/>
-      <c r="M12" s="19" t="n">
+      <c r="M12" s="20" t="n">
         <f aca="false">K12+K14</f>
         <v>15</v>
       </c>
       <c r="N12" s="0"/>
       <c r="O12" s="0"/>
-      <c r="P12" s="20" t="n">
+      <c r="P12" s="21" t="n">
         <f aca="false">M12</f>
         <v>15</v>
       </c>
       <c r="Q12" s="4"/>
-      <c r="R12" s="19" t="n">
+      <c r="R12" s="20" t="n">
         <f aca="false">P12+P14</f>
         <v>21</v>
       </c>
       <c r="S12" s="0"/>
       <c r="T12" s="0"/>
-      <c r="U12" s="20" t="n">
+      <c r="U12" s="21" t="n">
         <f aca="false">R12</f>
         <v>21</v>
       </c>
       <c r="V12" s="4"/>
-      <c r="W12" s="19" t="n">
+      <c r="W12" s="20" t="n">
         <f aca="false">U12+U14</f>
         <v>27</v>
       </c>
@@ -2003,39 +2034,39 @@
       <c r="AD12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
       <c r="D13" s="0"/>
       <c r="E13" s="0"/>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
       <c r="I13" s="0"/>
       <c r="J13" s="0"/>
-      <c r="K13" s="21" t="s">
+      <c r="K13" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
       <c r="N13" s="0"/>
       <c r="O13" s="0"/>
-      <c r="P13" s="21" t="s">
+      <c r="P13" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
       <c r="S13" s="0"/>
       <c r="T13" s="0"/>
-      <c r="U13" s="21" t="s">
+      <c r="U13" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
       <c r="X13" s="0"/>
       <c r="Y13" s="0"/>
       <c r="Z13" s="0"/>
@@ -2045,46 +2076,46 @@
       <c r="AD13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="22" t="n">
+      <c r="A14" s="23" t="n">
         <f aca="false">VLOOKUP(A13,$A$2:$H$10,8)</f>
         <v>2</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="22" t="n">
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="23" t="n">
         <f aca="false">VLOOKUP(F13,$A$2:$H$10,8)</f>
         <v>6</v>
       </c>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="22" t="n">
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="23" t="n">
         <f aca="false">VLOOKUP(K13,$A$2:$H$10,8)</f>
         <v>7</v>
       </c>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="22" t="n">
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="23" t="n">
         <f aca="false">VLOOKUP(P13,$A$2:$H$10,8)</f>
         <v>6</v>
       </c>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="22" t="n">
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="23" t="n">
         <f aca="false">VLOOKUP(U13,$A$2:$H$10,8)</f>
         <v>6</v>
       </c>
-      <c r="V14" s="23"/>
-      <c r="W14" s="23"/>
-      <c r="X14" s="24"/>
-      <c r="Y14" s="26"/>
+      <c r="V14" s="24"/>
+      <c r="W14" s="24"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="27"/>
       <c r="Z14" s="0"/>
       <c r="AA14" s="0"/>
       <c r="AB14" s="0"/>
@@ -2092,88 +2123,88 @@
       <c r="AD14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="27" t="n">
+      <c r="A15" s="28" t="n">
         <f aca="false">C15-A14</f>
         <v>0</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="27" t="n">
+      <c r="B15" s="16"/>
+      <c r="C15" s="28" t="n">
         <f aca="false">MIN(F15,F21)</f>
         <v>2</v>
       </c>
       <c r="D15" s="0"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="27" t="n">
+      <c r="E15" s="27"/>
+      <c r="F15" s="28" t="n">
         <f aca="false">H15-F14</f>
         <v>2</v>
       </c>
       <c r="G15" s="4"/>
-      <c r="H15" s="27" t="n">
+      <c r="H15" s="28" t="n">
         <f aca="false">K15</f>
         <v>8</v>
       </c>
       <c r="I15" s="0"/>
       <c r="J15" s="0"/>
-      <c r="K15" s="27" t="n">
+      <c r="K15" s="28" t="n">
         <f aca="false">M15-K14</f>
         <v>8</v>
       </c>
       <c r="L15" s="4"/>
-      <c r="M15" s="27" t="n">
+      <c r="M15" s="28" t="n">
         <f aca="false">P15</f>
         <v>15</v>
       </c>
       <c r="N15" s="0"/>
       <c r="O15" s="0"/>
-      <c r="P15" s="27" t="n">
+      <c r="P15" s="28" t="n">
         <f aca="false">R15-P14</f>
         <v>15</v>
       </c>
       <c r="Q15" s="4"/>
-      <c r="R15" s="27" t="n">
+      <c r="R15" s="28" t="n">
         <f aca="false">U15</f>
         <v>21</v>
       </c>
       <c r="S15" s="0"/>
       <c r="T15" s="0"/>
-      <c r="U15" s="27" t="n">
+      <c r="U15" s="28" t="n">
         <f aca="false">W15-U14</f>
         <v>21</v>
       </c>
       <c r="V15" s="4"/>
-      <c r="W15" s="27" t="n">
+      <c r="W15" s="28" t="n">
         <f aca="false">Z18</f>
         <v>27</v>
       </c>
       <c r="X15" s="0"/>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="20" t="n">
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="21" t="n">
         <f aca="false">MAX(W12,M18)</f>
         <v>27</v>
       </c>
       <c r="AA15" s="4"/>
-      <c r="AB15" s="19" t="n">
+      <c r="AB15" s="20" t="n">
         <f aca="false">Z15+Z17</f>
         <v>31</v>
       </c>
       <c r="AC15" s="0"/>
       <c r="AD15" s="0"/>
-      <c r="AE15" s="20" t="n">
+      <c r="AE15" s="21" t="n">
         <f aca="false">AB15</f>
         <v>31</v>
       </c>
       <c r="AF15" s="4"/>
-      <c r="AG15" s="19" t="n">
+      <c r="AG15" s="20" t="n">
         <f aca="false">AE15+AE17</f>
         <v>36</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="0"/>
-      <c r="E16" s="26"/>
+      <c r="E16" s="27"/>
       <c r="F16" s="0"/>
       <c r="G16" s="0"/>
       <c r="H16" s="0"/>
@@ -2193,26 +2224,26 @@
       <c r="V16" s="0"/>
       <c r="W16" s="0"/>
       <c r="X16" s="0"/>
-      <c r="Y16" s="24"/>
-      <c r="Z16" s="21" t="s">
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AA16" s="21"/>
-      <c r="AB16" s="21"/>
+      <c r="AA16" s="22"/>
+      <c r="AB16" s="22"/>
       <c r="AC16" s="0"/>
       <c r="AD16" s="0"/>
-      <c r="AE16" s="21" t="s">
+      <c r="AE16" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AF16" s="21"/>
-      <c r="AG16" s="21"/>
+      <c r="AF16" s="22"/>
+      <c r="AG16" s="22"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
       <c r="D17" s="0"/>
-      <c r="E17" s="26"/>
+      <c r="E17" s="27"/>
       <c r="F17" s="0"/>
       <c r="G17" s="0"/>
       <c r="H17" s="0"/>
@@ -2233,49 +2264,49 @@
       <c r="W17" s="0"/>
       <c r="X17" s="0"/>
       <c r="Y17" s="0"/>
-      <c r="Z17" s="22" t="n">
+      <c r="Z17" s="23" t="n">
         <v>4</v>
       </c>
-      <c r="AA17" s="23" t="n">
+      <c r="AA17" s="24" t="n">
         <f aca="false">AB18-AB15</f>
         <v>0</v>
       </c>
-      <c r="AB17" s="23"/>
-      <c r="AC17" s="24"/>
-      <c r="AD17" s="24"/>
-      <c r="AE17" s="22" t="n">
+      <c r="AB17" s="24"/>
+      <c r="AC17" s="25"/>
+      <c r="AD17" s="25"/>
+      <c r="AE17" s="23" t="n">
         <f aca="false">VLOOKUP(AE16,$A$2:$H$10,8)</f>
         <v>5</v>
       </c>
-      <c r="AF17" s="23" t="n">
+      <c r="AF17" s="24" t="n">
         <f aca="false">AG18-AG15</f>
         <v>0</v>
       </c>
-      <c r="AG17" s="23"/>
+      <c r="AG17" s="24"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="0"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="20" t="n">
+      <c r="E18" s="27"/>
+      <c r="F18" s="21" t="n">
         <f aca="false">C12</f>
         <v>2</v>
       </c>
       <c r="G18" s="4"/>
-      <c r="H18" s="19" t="n">
+      <c r="H18" s="20" t="n">
         <f aca="false">F18+F20</f>
         <v>6</v>
       </c>
       <c r="I18" s="0"/>
       <c r="J18" s="0"/>
-      <c r="K18" s="20" t="n">
+      <c r="K18" s="21" t="n">
         <f aca="false">H18</f>
         <v>6</v>
       </c>
       <c r="L18" s="4"/>
-      <c r="M18" s="19" t="n">
+      <c r="M18" s="20" t="n">
         <f aca="false">K18+K20</f>
         <v>15</v>
       </c>
@@ -2290,43 +2321,43 @@
       <c r="V18" s="0"/>
       <c r="W18" s="0"/>
       <c r="X18" s="0"/>
-      <c r="Y18" s="25"/>
-      <c r="Z18" s="27" t="n">
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="28" t="n">
         <f aca="false">AB18-Z17</f>
         <v>27</v>
       </c>
       <c r="AA18" s="4"/>
-      <c r="AB18" s="27" t="n">
+      <c r="AB18" s="28" t="n">
         <f aca="false">AE18</f>
         <v>31</v>
       </c>
       <c r="AC18" s="0"/>
       <c r="AD18" s="0"/>
-      <c r="AE18" s="27" t="n">
+      <c r="AE18" s="28" t="n">
         <f aca="false">AG18-AE17</f>
         <v>31</v>
       </c>
       <c r="AF18" s="4"/>
-      <c r="AG18" s="27" t="n">
+      <c r="AG18" s="28" t="n">
         <f aca="false">AG15</f>
         <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D19" s="0"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="21" t="s">
+      <c r="E19" s="27"/>
+      <c r="F19" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
       <c r="I19" s="0"/>
       <c r="J19" s="0"/>
-      <c r="K19" s="21" t="s">
+      <c r="K19" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
       <c r="N19" s="0"/>
       <c r="O19" s="0"/>
       <c r="P19" s="0"/>
@@ -2338,7 +2369,7 @@
       <c r="V19" s="0"/>
       <c r="W19" s="0"/>
       <c r="X19" s="0"/>
-      <c r="Y19" s="26"/>
+      <c r="Y19" s="27"/>
       <c r="Z19" s="0"/>
       <c r="AA19" s="0"/>
       <c r="AB19" s="0"/>
@@ -2350,32 +2381,32 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D20" s="0"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="22" t="n">
+      <c r="E20" s="25"/>
+      <c r="F20" s="23" t="n">
         <f aca="false">VLOOKUP(F19,$A$2:$H$10,8)</f>
         <v>4</v>
       </c>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="22" t="n">
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="23" t="n">
         <f aca="false">VLOOKUP(K19,$A$2:$H$10,8)</f>
         <v>9</v>
       </c>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="24"/>
-      <c r="V20" s="24"/>
-      <c r="W20" s="24"/>
-      <c r="X20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="25"/>
       <c r="Y20" s="0"/>
       <c r="Z20" s="0"/>
       <c r="AA20" s="0"/>
@@ -2386,23 +2417,23 @@
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="0"/>
       <c r="E21" s="0"/>
-      <c r="F21" s="27" t="n">
+      <c r="F21" s="28" t="n">
         <f aca="false">H21-F20</f>
         <v>14</v>
       </c>
       <c r="G21" s="4"/>
-      <c r="H21" s="27" t="n">
+      <c r="H21" s="28" t="n">
         <f aca="false">K21</f>
         <v>18</v>
       </c>
       <c r="I21" s="0"/>
       <c r="J21" s="0"/>
-      <c r="K21" s="27" t="n">
+      <c r="K21" s="28" t="n">
         <f aca="false">M21-K20</f>
         <v>18</v>
       </c>
       <c r="L21" s="4"/>
-      <c r="M21" s="27" t="n">
+      <c r="M21" s="28" t="n">
         <f aca="false">Z18</f>
         <v>27</v>
       </c>
@@ -2425,203 +2456,203 @@
       <c r="AD21" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="15"/>
-      <c r="S30" s="15"/>
-      <c r="T30" s="15"/>
-      <c r="U30" s="15"/>
-      <c r="V30" s="15"/>
-      <c r="W30" s="15"/>
-      <c r="X30" s="15"/>
-      <c r="Y30" s="15"/>
-      <c r="Z30" s="15"/>
-      <c r="AA30" s="15"/>
-      <c r="AB30" s="15"/>
-      <c r="AC30" s="15"/>
-      <c r="AD30" s="15"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="16"/>
+      <c r="W30" s="16"/>
+      <c r="X30" s="16"/>
+      <c r="Y30" s="16"/>
+      <c r="Z30" s="16"/>
+      <c r="AA30" s="16"/>
+      <c r="AB30" s="16"/>
+      <c r="AC30" s="16"/>
+      <c r="AD30" s="16"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="19" t="s">
+      <c r="B32" s="16"/>
+      <c r="C32" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="28" t="s">
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="28" t="s">
+      <c r="D34" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="29" t="s">
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="28" t="s">
+      <c r="J34" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="29" t="s">
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="R34" s="28" t="s">
+      <c r="R34" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="S34" s="28"/>
-      <c r="T34" s="28"/>
-      <c r="U34" s="28"/>
-      <c r="V34" s="28"/>
-      <c r="W34" s="28"/>
-      <c r="X34" s="28"/>
-      <c r="Y34" s="28"/>
-      <c r="Z34" s="28"/>
-      <c r="AA34" s="28"/>
-      <c r="AB34" s="28"/>
+      <c r="S34" s="29"/>
+      <c r="T34" s="29"/>
+      <c r="U34" s="29"/>
+      <c r="V34" s="29"/>
+      <c r="W34" s="29"/>
+      <c r="X34" s="29"/>
+      <c r="Y34" s="29"/>
+      <c r="Z34" s="29"/>
+      <c r="AA34" s="29"/>
+      <c r="AB34" s="29"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="27" t="s">
+      <c r="B35" s="16"/>
+      <c r="C35" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="28" t="s">
+      <c r="D35" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="30" t="s">
+      <c r="C36" s="31" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="30"/>
-      <c r="C37" s="30"/>
+      <c r="A37" s="31"/>
+      <c r="C37" s="31"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="30"/>
-      <c r="C38" s="30"/>
+      <c r="A38" s="31"/>
+      <c r="C38" s="31"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="30"/>
-      <c r="C39" s="30"/>
+      <c r="A39" s="31"/>
+      <c r="C39" s="31"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="30"/>
-      <c r="C40" s="30"/>
+      <c r="A40" s="31"/>
+      <c r="C40" s="31"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="30"/>
-      <c r="C41" s="30"/>
+      <c r="A41" s="31"/>
+      <c r="C41" s="31"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="30"/>
-      <c r="C42" s="30"/>
+      <c r="A42" s="31"/>
+      <c r="C42" s="31"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="30"/>
-      <c r="C43" s="30"/>
+      <c r="A43" s="31"/>
+      <c r="C43" s="31"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="30"/>
-      <c r="C44" s="30"/>
+      <c r="A44" s="31"/>
+      <c r="C44" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -2656,12 +2687,12 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ8:BS8 J8:AF9 AJ9:AK9 AX10:BS10 AO9:AR9 J10:AT10 J1:BS7 AW9:BS9">
+  <conditionalFormatting sqref="AJ8:BS8 J8:AF9 AJ9:AK9 AX10:BS10 AO9:AR9 J10:AT10 AV9:BS9 J1:BS7">
     <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>IF(OR(WEEKDAY(J$1,1)=7,WEEKDAY(J$1,1)=1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ8:BS8 J8:AF9 AJ9:AK9 AX10:BS10 AO9:AR9 J10:AT10 J2:BS7 AW9:BS9">
+  <conditionalFormatting sqref="AJ8:BS8 J8:AF9 AJ9:AK9 AX10:BS10 AO9:AR9 J10:AT10 AV9:BS9 J2:BS7">
     <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>1</formula>
     </cfRule>
@@ -2676,7 +2707,6 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CSeite &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2687,738 +2717,738 @@
   </sheetPr>
   <dimension ref="A1:AB68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AA18" activeCellId="0" sqref="AA18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="31" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="32" width="3.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="34" t="s">
+      <c r="B1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="32" t="s">
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="33" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39" t="s">
+      <c r="D2" s="39"/>
+      <c r="E2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="35" t="n">
+      <c r="G2" s="40"/>
+      <c r="H2" s="36" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="39" t="s">
+      <c r="C3" s="40"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="35" t="n">
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="36" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="39" t="s">
+      <c r="C4" s="40"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="39"/>
-      <c r="H4" s="35" t="n">
+      <c r="G4" s="40"/>
+      <c r="H4" s="36" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="39" t="s">
+      <c r="D5" s="42"/>
+      <c r="E5" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="35" t="n">
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="36" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="42" t="s">
+      <c r="C6" s="40"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="35" t="n">
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="36" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42" t="s">
+      <c r="C7" s="40"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="35" t="n">
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="36" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="42" t="s">
+      <c r="C8" s="40"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="35" t="n">
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="36" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="42" t="s">
+      <c r="C9" s="40"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="35" t="n">
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="36" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42" t="s">
+      <c r="C10" s="40"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="35" t="n">
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="36" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="35" t="n">
+      <c r="D11" s="42"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="36" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="20" t="n">
+      <c r="A14" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="44"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="44"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="45"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="45"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="45"/>
       <c r="P14" s="0"/>
       <c r="Q14" s="0"/>
       <c r="R14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="21" t="s">
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="21" t="s">
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="45"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="46"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="23" t="n">
+      <c r="A16" s="24" t="n">
         <f aca="false" t="array" ref="A16:A16">VLOOKUP(A15,$A$2:$H$15,8)</f>
         <v>3</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="23"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="23" t="n">
+      <c r="B16" s="47"/>
+      <c r="C16" s="24"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="24" t="n">
         <f aca="false" t="array" ref="F16:F16">VLOOKUP(F15,$A$2:$H$15,8)</f>
         <v>4</v>
       </c>
-      <c r="G16" s="46"/>
-      <c r="H16" s="23"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="24"/>
       <c r="I16" s="0"/>
       <c r="J16" s="0"/>
-      <c r="K16" s="23" t="n">
+      <c r="K16" s="24" t="n">
         <f aca="false" t="array" ref="K16:K16">VLOOKUP(K15,$A$2:$H$15,8)</f>
         <v>4</v>
       </c>
-      <c r="L16" s="46"/>
-      <c r="M16" s="23"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="24"/>
       <c r="P16" s="0"/>
       <c r="Q16" s="0"/>
       <c r="R16" s="0"/>
-      <c r="T16" s="48"/>
+      <c r="T16" s="49"/>
       <c r="U16" s="0"/>
       <c r="V16" s="0"/>
       <c r="W16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="27"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="49"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="49"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="50"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="50"/>
       <c r="I17" s="0"/>
       <c r="J17" s="0"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="49"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="50"/>
       <c r="P17" s="0"/>
       <c r="Q17" s="0"/>
       <c r="R17" s="0"/>
-      <c r="T17" s="50"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="43"/>
-      <c r="W17" s="44"/>
+      <c r="T17" s="51"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="44"/>
+      <c r="W17" s="45"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E18" s="47"/>
+      <c r="E18" s="48"/>
       <c r="I18" s="0"/>
       <c r="J18" s="0"/>
-      <c r="U18" s="21" t="s">
+      <c r="U18" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="V18" s="21"/>
-      <c r="W18" s="21"/>
-      <c r="X18" s="45"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="22"/>
+      <c r="X18" s="46"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E19" s="47"/>
+      <c r="E19" s="48"/>
       <c r="I19" s="0"/>
       <c r="J19" s="0"/>
-      <c r="T19" s="45"/>
-      <c r="U19" s="23" t="n">
+      <c r="T19" s="46"/>
+      <c r="U19" s="24" t="n">
         <f aca="false" t="array" ref="U19:U19">VLOOKUP(U18,$A$2:$H$15,8)</f>
         <v>4</v>
       </c>
-      <c r="V19" s="46"/>
-      <c r="W19" s="23"/>
-      <c r="Y19" s="48"/>
+      <c r="V19" s="47"/>
+      <c r="W19" s="24"/>
+      <c r="Y19" s="49"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E20" s="47"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="44"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="45"/>
       <c r="I20" s="0"/>
       <c r="J20" s="0"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="44"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="43"/>
-      <c r="R20" s="44"/>
-      <c r="T20" s="48"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="43"/>
-      <c r="W20" s="49"/>
-      <c r="Y20" s="50"/>
-      <c r="Z20" s="20"/>
-      <c r="AA20" s="43"/>
-      <c r="AB20" s="44"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="45"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="45"/>
+      <c r="T20" s="49"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="50"/>
+      <c r="Y20" s="51"/>
+      <c r="Z20" s="21"/>
+      <c r="AA20" s="44"/>
+      <c r="AB20" s="45"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E21" s="51"/>
-      <c r="F21" s="21" t="s">
+      <c r="E21" s="52"/>
+      <c r="F21" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="21" t="s">
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="21" t="s">
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="48"/>
-      <c r="Z21" s="21" t="s">
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="46"/>
+      <c r="T21" s="49"/>
+      <c r="Z21" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="AA21" s="21"/>
-      <c r="AB21" s="21"/>
+      <c r="AA21" s="22"/>
+      <c r="AB21" s="22"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F22" s="23" t="n">
+      <c r="F22" s="24" t="n">
         <f aca="false" t="array" ref="F22:F22">VLOOKUP(F21,$A$2:$H$15,8)</f>
         <v>8</v>
       </c>
-      <c r="G22" s="46"/>
-      <c r="H22" s="23"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="24"/>
       <c r="I22" s="0"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="23" t="n">
+      <c r="J22" s="48"/>
+      <c r="K22" s="24" t="n">
         <f aca="false" t="array" ref="K22:K22">VLOOKUP(K21,$A$2:$H$15,8)</f>
         <v>4</v>
       </c>
-      <c r="L22" s="46"/>
-      <c r="M22" s="23"/>
-      <c r="P22" s="23" t="n">
+      <c r="L22" s="47"/>
+      <c r="M22" s="24"/>
+      <c r="P22" s="24" t="n">
         <f aca="false" t="array" ref="P22:P22">VLOOKUP(P21,$A$2:$H$15,8)</f>
         <v>7</v>
       </c>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="23"/>
-      <c r="Y22" s="45"/>
-      <c r="Z22" s="23" t="n">
+      <c r="Q22" s="47"/>
+      <c r="R22" s="24"/>
+      <c r="Y22" s="46"/>
+      <c r="Z22" s="24" t="n">
         <f aca="false" t="array" ref="Z22:Z22">VLOOKUP(Z21,$A$2:$H$15,8)</f>
         <v>6</v>
       </c>
-      <c r="AA22" s="46"/>
-      <c r="AB22" s="23"/>
+      <c r="AA22" s="47"/>
+      <c r="AB22" s="24"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F23" s="27"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="49"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="49"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="43"/>
-      <c r="R23" s="49"/>
-      <c r="Y23" s="48"/>
-      <c r="Z23" s="27"/>
-      <c r="AA23" s="43"/>
-      <c r="AB23" s="49"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="50"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="50"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="50"/>
+      <c r="Y23" s="49"/>
+      <c r="Z23" s="28"/>
+      <c r="AA23" s="44"/>
+      <c r="AB23" s="50"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J24" s="47"/>
-      <c r="Y24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="Y24" s="49"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J25" s="47"/>
-      <c r="Y25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="Y25" s="49"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J26" s="47"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="44"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="44"/>
-      <c r="Y26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="45"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="45"/>
+      <c r="Y26" s="49"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J27" s="51"/>
-      <c r="K27" s="21" t="s">
+      <c r="J27" s="52"/>
+      <c r="K27" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="21" t="s">
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="45"/>
-      <c r="T27" s="45"/>
-      <c r="U27" s="45"/>
-      <c r="V27" s="45"/>
-      <c r="W27" s="45"/>
-      <c r="X27" s="45"/>
-      <c r="Y27" s="48"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="46"/>
+      <c r="T27" s="46"/>
+      <c r="U27" s="46"/>
+      <c r="V27" s="46"/>
+      <c r="W27" s="46"/>
+      <c r="X27" s="46"/>
+      <c r="Y27" s="49"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K28" s="23" t="n">
+      <c r="K28" s="24" t="n">
         <f aca="false" t="array" ref="K28:K28">VLOOKUP(K27,$A$2:$H$15,8)</f>
         <v>8</v>
       </c>
-      <c r="L28" s="46"/>
-      <c r="M28" s="23"/>
-      <c r="P28" s="23" t="n">
+      <c r="L28" s="47"/>
+      <c r="M28" s="24"/>
+      <c r="P28" s="24" t="n">
         <f aca="false" t="array" ref="P28:P28">VLOOKUP(P27,$A$2:$H$15,8)</f>
         <v>6</v>
       </c>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="23"/>
+      <c r="Q28" s="47"/>
+      <c r="R28" s="24"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K29" s="27"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="49"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="43"/>
-      <c r="R29" s="49"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="50"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="50"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="52"/>
-      <c r="B55" s="53"/>
-      <c r="C55" s="53"/>
-      <c r="D55" s="53"/>
-      <c r="E55" s="53"/>
-      <c r="F55" s="53"/>
-      <c r="G55" s="53"/>
-      <c r="H55" s="53"/>
-      <c r="I55" s="53"/>
-      <c r="J55" s="53"/>
-      <c r="K55" s="53"/>
-      <c r="L55" s="53"/>
+      <c r="A55" s="53"/>
+      <c r="B55" s="54"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="54"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="54"/>
+      <c r="G55" s="54"/>
+      <c r="H55" s="54"/>
+      <c r="I55" s="54"/>
+      <c r="J55" s="54"/>
+      <c r="K55" s="54"/>
+      <c r="L55" s="54"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="52"/>
-      <c r="B56" s="54" t="s">
+      <c r="A56" s="53"/>
+      <c r="B56" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="54"/>
-      <c r="D56" s="54" t="s">
+      <c r="C56" s="55"/>
+      <c r="D56" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="E56" s="54"/>
-      <c r="F56" s="54"/>
-      <c r="G56" s="54"/>
-      <c r="H56" s="54"/>
-      <c r="I56" s="54"/>
-      <c r="J56" s="54"/>
-      <c r="K56" s="54"/>
-      <c r="L56" s="53"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="55"/>
+      <c r="I56" s="55"/>
+      <c r="J56" s="55"/>
+      <c r="K56" s="55"/>
+      <c r="L56" s="54"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="52"/>
-      <c r="B57" s="55" t="s">
+      <c r="A57" s="53"/>
+      <c r="B57" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C57" s="55"/>
-      <c r="D57" s="55"/>
-      <c r="E57" s="54"/>
-      <c r="F57" s="56" t="s">
+      <c r="C57" s="56"/>
+      <c r="D57" s="56"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="G57" s="56"/>
-      <c r="H57" s="56"/>
-      <c r="I57" s="56"/>
-      <c r="J57" s="56"/>
-      <c r="K57" s="54"/>
-      <c r="L57" s="53"/>
+      <c r="G57" s="57"/>
+      <c r="H57" s="57"/>
+      <c r="I57" s="57"/>
+      <c r="J57" s="57"/>
+      <c r="K57" s="55"/>
+      <c r="L57" s="54"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="52"/>
-      <c r="B58" s="57" t="s">
+      <c r="A58" s="53"/>
+      <c r="B58" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C58" s="58" t="s">
+      <c r="C58" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="D58" s="57" t="s">
+      <c r="D58" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="54"/>
-      <c r="F58" s="54"/>
-      <c r="G58" s="54"/>
-      <c r="H58" s="54"/>
-      <c r="I58" s="54"/>
-      <c r="J58" s="54"/>
-      <c r="K58" s="54"/>
-      <c r="L58" s="53"/>
+      <c r="E58" s="55"/>
+      <c r="F58" s="55"/>
+      <c r="G58" s="55"/>
+      <c r="H58" s="55"/>
+      <c r="I58" s="55"/>
+      <c r="J58" s="55"/>
+      <c r="K58" s="55"/>
+      <c r="L58" s="54"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="52"/>
-      <c r="B59" s="54" t="s">
+      <c r="A59" s="53"/>
+      <c r="B59" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="54"/>
-      <c r="D59" s="54" t="s">
+      <c r="C59" s="55"/>
+      <c r="D59" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="E59" s="54"/>
-      <c r="F59" s="54"/>
-      <c r="G59" s="54"/>
-      <c r="H59" s="54"/>
-      <c r="I59" s="54"/>
-      <c r="J59" s="54"/>
-      <c r="K59" s="54"/>
-      <c r="L59" s="53"/>
+      <c r="E59" s="55"/>
+      <c r="F59" s="55"/>
+      <c r="G59" s="55"/>
+      <c r="H59" s="55"/>
+      <c r="I59" s="55"/>
+      <c r="J59" s="55"/>
+      <c r="K59" s="55"/>
+      <c r="L59" s="54"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="52"/>
-      <c r="B60" s="54"/>
-      <c r="C60" s="54"/>
-      <c r="D60" s="54"/>
-      <c r="E60" s="54"/>
-      <c r="F60" s="54"/>
-      <c r="G60" s="54"/>
-      <c r="H60" s="54"/>
-      <c r="I60" s="54"/>
-      <c r="J60" s="54"/>
-      <c r="K60" s="54"/>
-      <c r="L60" s="53"/>
+      <c r="A60" s="53"/>
+      <c r="B60" s="55"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="55"/>
+      <c r="E60" s="55"/>
+      <c r="F60" s="55"/>
+      <c r="G60" s="55"/>
+      <c r="H60" s="55"/>
+      <c r="I60" s="55"/>
+      <c r="J60" s="55"/>
+      <c r="K60" s="55"/>
+      <c r="L60" s="54"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="52"/>
-      <c r="B61" s="59" t="s">
+      <c r="A61" s="53"/>
+      <c r="B61" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C61" s="60" t="s">
+      <c r="C61" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="60"/>
-      <c r="E61" s="60"/>
-      <c r="F61" s="60"/>
-      <c r="G61" s="60"/>
-      <c r="H61" s="60"/>
-      <c r="I61" s="60"/>
-      <c r="J61" s="60"/>
-      <c r="K61" s="60"/>
-      <c r="L61" s="53"/>
+      <c r="D61" s="61"/>
+      <c r="E61" s="61"/>
+      <c r="F61" s="61"/>
+      <c r="G61" s="61"/>
+      <c r="H61" s="61"/>
+      <c r="I61" s="61"/>
+      <c r="J61" s="61"/>
+      <c r="K61" s="61"/>
+      <c r="L61" s="54"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="52"/>
-      <c r="B62" s="59" t="s">
+      <c r="A62" s="53"/>
+      <c r="B62" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="C62" s="60" t="s">
+      <c r="C62" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="60"/>
-      <c r="E62" s="60"/>
-      <c r="F62" s="60"/>
-      <c r="G62" s="60"/>
-      <c r="H62" s="60"/>
-      <c r="I62" s="60"/>
-      <c r="J62" s="60"/>
-      <c r="K62" s="60"/>
-      <c r="L62" s="53"/>
+      <c r="D62" s="61"/>
+      <c r="E62" s="61"/>
+      <c r="F62" s="61"/>
+      <c r="G62" s="61"/>
+      <c r="H62" s="61"/>
+      <c r="I62" s="61"/>
+      <c r="J62" s="61"/>
+      <c r="K62" s="61"/>
+      <c r="L62" s="54"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="52"/>
-      <c r="B63" s="59" t="s">
+      <c r="A63" s="53"/>
+      <c r="B63" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C63" s="60" t="s">
+      <c r="C63" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="D63" s="60"/>
-      <c r="E63" s="60"/>
-      <c r="F63" s="60"/>
-      <c r="G63" s="60"/>
-      <c r="H63" s="60"/>
-      <c r="I63" s="60"/>
-      <c r="J63" s="60"/>
-      <c r="K63" s="60"/>
-      <c r="L63" s="53"/>
+      <c r="D63" s="61"/>
+      <c r="E63" s="61"/>
+      <c r="F63" s="61"/>
+      <c r="G63" s="61"/>
+      <c r="H63" s="61"/>
+      <c r="I63" s="61"/>
+      <c r="J63" s="61"/>
+      <c r="K63" s="61"/>
+      <c r="L63" s="54"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="52"/>
-      <c r="B64" s="59" t="s">
+      <c r="A64" s="53"/>
+      <c r="B64" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C64" s="60" t="s">
+      <c r="C64" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="D64" s="60"/>
-      <c r="E64" s="60"/>
-      <c r="F64" s="60"/>
-      <c r="G64" s="60"/>
-      <c r="H64" s="60"/>
-      <c r="I64" s="60"/>
-      <c r="J64" s="60"/>
-      <c r="K64" s="60"/>
-      <c r="L64" s="53"/>
+      <c r="D64" s="61"/>
+      <c r="E64" s="61"/>
+      <c r="F64" s="61"/>
+      <c r="G64" s="61"/>
+      <c r="H64" s="61"/>
+      <c r="I64" s="61"/>
+      <c r="J64" s="61"/>
+      <c r="K64" s="61"/>
+      <c r="L64" s="54"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="52"/>
-      <c r="B65" s="57" t="s">
+      <c r="A65" s="53"/>
+      <c r="B65" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C65" s="60" t="s">
+      <c r="C65" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="D65" s="60"/>
-      <c r="E65" s="60"/>
-      <c r="F65" s="60"/>
-      <c r="G65" s="60"/>
-      <c r="H65" s="60"/>
-      <c r="I65" s="60"/>
-      <c r="J65" s="60"/>
-      <c r="K65" s="60"/>
-      <c r="L65" s="53"/>
+      <c r="D65" s="61"/>
+      <c r="E65" s="61"/>
+      <c r="F65" s="61"/>
+      <c r="G65" s="61"/>
+      <c r="H65" s="61"/>
+      <c r="I65" s="61"/>
+      <c r="J65" s="61"/>
+      <c r="K65" s="61"/>
+      <c r="L65" s="54"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="52"/>
-      <c r="B66" s="58" t="s">
+      <c r="A66" s="53"/>
+      <c r="B66" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C66" s="60" t="s">
+      <c r="C66" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="D66" s="60"/>
-      <c r="E66" s="60"/>
-      <c r="F66" s="60"/>
-      <c r="G66" s="60"/>
-      <c r="H66" s="60"/>
-      <c r="I66" s="60"/>
-      <c r="J66" s="60"/>
-      <c r="K66" s="60"/>
-      <c r="L66" s="53"/>
+      <c r="D66" s="61"/>
+      <c r="E66" s="61"/>
+      <c r="F66" s="61"/>
+      <c r="G66" s="61"/>
+      <c r="H66" s="61"/>
+      <c r="I66" s="61"/>
+      <c r="J66" s="61"/>
+      <c r="K66" s="61"/>
+      <c r="L66" s="54"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="52"/>
-      <c r="B67" s="61" t="s">
+      <c r="A67" s="53"/>
+      <c r="B67" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="C67" s="53" t="s">
+      <c r="C67" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="D67" s="53"/>
-      <c r="E67" s="53"/>
-      <c r="F67" s="53"/>
-      <c r="G67" s="53"/>
-      <c r="H67" s="53"/>
-      <c r="I67" s="53"/>
-      <c r="J67" s="53"/>
-      <c r="K67" s="53"/>
-      <c r="L67" s="53"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="54"/>
+      <c r="F67" s="54"/>
+      <c r="G67" s="54"/>
+      <c r="H67" s="54"/>
+      <c r="I67" s="54"/>
+      <c r="J67" s="54"/>
+      <c r="K67" s="54"/>
+      <c r="L67" s="54"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="52"/>
-      <c r="B68" s="53"/>
-      <c r="C68" s="53"/>
-      <c r="D68" s="53"/>
-      <c r="E68" s="53"/>
-      <c r="F68" s="53"/>
-      <c r="G68" s="53"/>
-      <c r="H68" s="53"/>
-      <c r="I68" s="53"/>
-      <c r="J68" s="53"/>
-      <c r="K68" s="53"/>
-      <c r="L68" s="53"/>
+      <c r="A68" s="53"/>
+      <c r="B68" s="54"/>
+      <c r="C68" s="54"/>
+      <c r="D68" s="54"/>
+      <c r="E68" s="54"/>
+      <c r="F68" s="54"/>
+      <c r="G68" s="54"/>
+      <c r="H68" s="54"/>
+      <c r="I68" s="54"/>
+      <c r="J68" s="54"/>
+      <c r="K68" s="54"/>
+      <c r="L68" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="20">

--- a/Übungen/04_Netzplan_Wiederholung.xlsx
+++ b/Übungen/04_Netzplan_Wiederholung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle2" sheetId="1" state="visible" r:id="rId2"/>
@@ -514,7 +514,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -873,8 +873,8 @@
   </sheetPr>
   <dimension ref="A1:BS44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2080,39 +2080,66 @@
         <f aca="false">VLOOKUP(A13,$A$2:$H$10,8)</f>
         <v>2</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
+      <c r="B14" s="24" t="n">
+        <f aca="false">C15-C12</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="24" t="n">
+        <f aca="false">MIN(F12,F18)-C12</f>
+        <v>0</v>
+      </c>
       <c r="D14" s="25"/>
       <c r="E14" s="26"/>
       <c r="F14" s="23" t="n">
         <f aca="false">VLOOKUP(F13,$A$2:$H$10,8)</f>
         <v>6</v>
       </c>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
+      <c r="G14" s="24" t="n">
+        <f aca="false">H15-H12</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="24" t="n">
+        <f aca="false">K12-H12</f>
+        <v>0</v>
+      </c>
       <c r="I14" s="25"/>
       <c r="J14" s="25"/>
       <c r="K14" s="23" t="n">
         <f aca="false">VLOOKUP(K13,$A$2:$H$10,8)</f>
         <v>7</v>
       </c>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
+      <c r="L14" s="24" t="n">
+        <f aca="false">M15-M12</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="24" t="n">
+        <f aca="false">P12-M12</f>
+        <v>0</v>
+      </c>
       <c r="N14" s="25"/>
       <c r="O14" s="25"/>
       <c r="P14" s="23" t="n">
         <f aca="false">VLOOKUP(P13,$A$2:$H$10,8)</f>
         <v>6</v>
       </c>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
+      <c r="Q14" s="24" t="n">
+        <f aca="false">R15-R12</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="24" t="n">
+        <f aca="false">U12-R12</f>
+        <v>0</v>
+      </c>
       <c r="S14" s="25"/>
       <c r="T14" s="25"/>
       <c r="U14" s="23" t="n">
         <f aca="false">VLOOKUP(U13,$A$2:$H$10,8)</f>
         <v>6</v>
       </c>
-      <c r="V14" s="24"/>
+      <c r="V14" s="24" t="n">
+        <f aca="false">W15-W12</f>
+        <v>0</v>
+      </c>
       <c r="W14" s="24"/>
       <c r="X14" s="25"/>
       <c r="Y14" s="27"/>
@@ -2271,7 +2298,10 @@
         <f aca="false">AB18-AB15</f>
         <v>0</v>
       </c>
-      <c r="AB17" s="24"/>
+      <c r="AB17" s="24" t="n">
+        <f aca="false">AE15-AB15</f>
+        <v>0</v>
+      </c>
       <c r="AC17" s="25"/>
       <c r="AD17" s="25"/>
       <c r="AE17" s="23" t="n">
@@ -2386,16 +2416,28 @@
         <f aca="false">VLOOKUP(F19,$A$2:$H$10,8)</f>
         <v>4</v>
       </c>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
+      <c r="G20" s="24" t="n">
+        <f aca="false">H21-H18</f>
+        <v>12</v>
+      </c>
+      <c r="H20" s="24" t="n">
+        <f aca="false">K18-H18</f>
+        <v>0</v>
+      </c>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
       <c r="K20" s="23" t="n">
         <f aca="false">VLOOKUP(K19,$A$2:$H$10,8)</f>
         <v>9</v>
       </c>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
+      <c r="L20" s="24" t="n">
+        <f aca="false">M21-M18</f>
+        <v>12</v>
+      </c>
+      <c r="M20" s="24" t="n">
+        <f aca="false">Z15-M18</f>
+        <v>12</v>
+      </c>
       <c r="N20" s="25"/>
       <c r="O20" s="25"/>
       <c r="P20" s="25"/>
@@ -2682,7 +2724,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14 G14 G20 L14 L20 Q14 AA16 AF16 V14">
+  <conditionalFormatting sqref="AA16 AF16">
     <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
@@ -2717,7 +2759,7 @@
   </sheetPr>
   <dimension ref="A1:AB68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AA18" activeCellId="0" sqref="AA18"/>
     </sheetView>
   </sheetViews>

--- a/Übungen/04_Netzplan_Wiederholung.xlsx
+++ b/Übungen/04_Netzplan_Wiederholung.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle2" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Tabelle3_2" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="39">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -135,6 +136,9 @@
   </si>
   <si>
     <t xml:space="preserve">Freier Puffer (FAZ-Nachfolger – FEZ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K</t>
   </si>
 </sst>
 </file>
@@ -502,8 +506,8 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -518,15 +522,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -681,23 +685,7 @@
     <cellStyle name="Kritischer Pfad" xfId="20"/>
     <cellStyle name="Task" xfId="21"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-        <sz val="10"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <name val="Arial"/>
@@ -735,6 +723,36 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFF44336"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="1"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="1"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+        <sz val="10"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -866,6 +884,54 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>117000</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>68760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266760</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>68760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1196640" y="9334800"/>
+          <a:ext cx="1769040" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12600">
+          <a:solidFill>
+            <a:srgbClr val="bf0041"/>
+          </a:solidFill>
+          <a:round/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -873,8 +939,8 @@
   </sheetPr>
   <dimension ref="A1:BS44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AH17" activeCellId="0" sqref="AH17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1981,9 +2047,9 @@
         <f aca="false">A12+A14</f>
         <v>2</v>
       </c>
-      <c r="D12" s="0"/>
-      <c r="E12" s="0"/>
-      <c r="F12" s="21" t="n">
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="20" t="n">
         <f aca="false">C12</f>
         <v>2</v>
       </c>
@@ -1992,9 +2058,9 @@
         <f aca="false">F12+F14</f>
         <v>8</v>
       </c>
-      <c r="I12" s="0"/>
-      <c r="J12" s="0"/>
-      <c r="K12" s="21" t="n">
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="20" t="n">
         <f aca="false">H12</f>
         <v>8</v>
       </c>
@@ -2003,9 +2069,9 @@
         <f aca="false">K12+K14</f>
         <v>15</v>
       </c>
-      <c r="N12" s="0"/>
-      <c r="O12" s="0"/>
-      <c r="P12" s="21" t="n">
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="20" t="n">
         <f aca="false">M12</f>
         <v>15</v>
       </c>
@@ -2014,9 +2080,9 @@
         <f aca="false">P12+P14</f>
         <v>21</v>
       </c>
-      <c r="S12" s="0"/>
-      <c r="T12" s="0"/>
-      <c r="U12" s="21" t="n">
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="20" t="n">
         <f aca="false">R12</f>
         <v>21</v>
       </c>
@@ -2025,13 +2091,13 @@
         <f aca="false">U12+U14</f>
         <v>27</v>
       </c>
-      <c r="X12" s="0"/>
-      <c r="Y12" s="0"/>
-      <c r="Z12" s="0"/>
-      <c r="AA12" s="0"/>
-      <c r="AB12" s="0"/>
-      <c r="AC12" s="0"/>
-      <c r="AD12" s="0"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21"/>
+      <c r="AC12" s="21"/>
+      <c r="AD12" s="21"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="22" t="s">
@@ -2039,41 +2105,41 @@
       </c>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
-      <c r="D13" s="0"/>
-      <c r="E13" s="0"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
       <c r="F13" s="22" t="s">
         <v>6</v>
       </c>
       <c r="G13" s="22"/>
       <c r="H13" s="22"/>
-      <c r="I13" s="0"/>
-      <c r="J13" s="0"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
       <c r="K13" s="22" t="s">
         <v>3</v>
       </c>
       <c r="L13" s="22"/>
       <c r="M13" s="22"/>
-      <c r="N13" s="0"/>
-      <c r="O13" s="0"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
       <c r="P13" s="22" t="s">
         <v>9</v>
       </c>
       <c r="Q13" s="22"/>
       <c r="R13" s="22"/>
-      <c r="S13" s="0"/>
-      <c r="T13" s="0"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
       <c r="U13" s="22" t="s">
         <v>10</v>
       </c>
       <c r="V13" s="22"/>
       <c r="W13" s="22"/>
-      <c r="X13" s="0"/>
-      <c r="Y13" s="0"/>
-      <c r="Z13" s="0"/>
-      <c r="AA13" s="0"/>
-      <c r="AB13" s="0"/>
-      <c r="AC13" s="0"/>
-      <c r="AD13" s="0"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="21"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="23" t="n">
@@ -2140,14 +2206,17 @@
         <f aca="false">W15-W12</f>
         <v>0</v>
       </c>
-      <c r="W14" s="24"/>
+      <c r="W14" s="24" t="n">
+        <f aca="false">Z15-W12</f>
+        <v>0</v>
+      </c>
       <c r="X14" s="25"/>
       <c r="Y14" s="27"/>
-      <c r="Z14" s="0"/>
-      <c r="AA14" s="0"/>
-      <c r="AB14" s="0"/>
-      <c r="AC14" s="0"/>
-      <c r="AD14" s="0"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="21"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="28" t="n">
@@ -2159,7 +2228,7 @@
         <f aca="false">MIN(F15,F21)</f>
         <v>2</v>
       </c>
-      <c r="D15" s="0"/>
+      <c r="D15" s="21"/>
       <c r="E15" s="27"/>
       <c r="F15" s="28" t="n">
         <f aca="false">H15-F14</f>
@@ -2170,8 +2239,8 @@
         <f aca="false">K15</f>
         <v>8</v>
       </c>
-      <c r="I15" s="0"/>
-      <c r="J15" s="0"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
       <c r="K15" s="28" t="n">
         <f aca="false">M15-K14</f>
         <v>8</v>
@@ -2181,8 +2250,8 @@
         <f aca="false">P15</f>
         <v>15</v>
       </c>
-      <c r="N15" s="0"/>
-      <c r="O15" s="0"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
       <c r="P15" s="28" t="n">
         <f aca="false">R15-P14</f>
         <v>15</v>
@@ -2192,8 +2261,8 @@
         <f aca="false">U15</f>
         <v>21</v>
       </c>
-      <c r="S15" s="0"/>
-      <c r="T15" s="0"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
       <c r="U15" s="28" t="n">
         <f aca="false">W15-U14</f>
         <v>21</v>
@@ -2203,9 +2272,9 @@
         <f aca="false">Z18</f>
         <v>27</v>
       </c>
-      <c r="X15" s="0"/>
+      <c r="X15" s="21"/>
       <c r="Y15" s="27"/>
-      <c r="Z15" s="21" t="n">
+      <c r="Z15" s="20" t="n">
         <f aca="false">MAX(W12,M18)</f>
         <v>27</v>
       </c>
@@ -2214,9 +2283,9 @@
         <f aca="false">Z15+Z17</f>
         <v>31</v>
       </c>
-      <c r="AC15" s="0"/>
-      <c r="AD15" s="0"/>
-      <c r="AE15" s="21" t="n">
+      <c r="AC15" s="21"/>
+      <c r="AD15" s="21"/>
+      <c r="AE15" s="20" t="n">
         <f aca="false">AB15</f>
         <v>31</v>
       </c>
@@ -2230,35 +2299,35 @@
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
-      <c r="D16" s="0"/>
+      <c r="D16" s="21"/>
       <c r="E16" s="27"/>
-      <c r="F16" s="0"/>
-      <c r="G16" s="0"/>
-      <c r="H16" s="0"/>
-      <c r="I16" s="0"/>
-      <c r="J16" s="0"/>
-      <c r="K16" s="0"/>
-      <c r="L16" s="0"/>
-      <c r="M16" s="0"/>
-      <c r="N16" s="0"/>
-      <c r="O16" s="0"/>
-      <c r="P16" s="0"/>
-      <c r="Q16" s="0"/>
-      <c r="R16" s="0"/>
-      <c r="S16" s="0"/>
-      <c r="T16" s="0"/>
-      <c r="U16" s="0"/>
-      <c r="V16" s="0"/>
-      <c r="W16" s="0"/>
-      <c r="X16" s="0"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
       <c r="Y16" s="25"/>
       <c r="Z16" s="22" t="s">
         <v>11</v>
       </c>
       <c r="AA16" s="22"/>
       <c r="AB16" s="22"/>
-      <c r="AC16" s="0"/>
-      <c r="AD16" s="0"/>
+      <c r="AC16" s="21"/>
+      <c r="AD16" s="21"/>
       <c r="AE16" s="22" t="s">
         <v>12</v>
       </c>
@@ -2269,28 +2338,28 @@
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
-      <c r="D17" s="0"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="27"/>
-      <c r="F17" s="0"/>
-      <c r="G17" s="0"/>
-      <c r="H17" s="0"/>
-      <c r="I17" s="0"/>
-      <c r="J17" s="0"/>
-      <c r="K17" s="0"/>
-      <c r="L17" s="0"/>
-      <c r="M17" s="0"/>
-      <c r="N17" s="0"/>
-      <c r="O17" s="0"/>
-      <c r="P17" s="0"/>
-      <c r="Q17" s="0"/>
-      <c r="R17" s="0"/>
-      <c r="S17" s="0"/>
-      <c r="T17" s="0"/>
-      <c r="U17" s="0"/>
-      <c r="V17" s="0"/>
-      <c r="W17" s="0"/>
-      <c r="X17" s="0"/>
-      <c r="Y17" s="0"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="21"/>
       <c r="Z17" s="23" t="n">
         <v>4</v>
       </c>
@@ -2312,15 +2381,17 @@
         <f aca="false">AG18-AG15</f>
         <v>0</v>
       </c>
-      <c r="AG17" s="24"/>
+      <c r="AG17" s="24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="16"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
-      <c r="D18" s="0"/>
+      <c r="D18" s="21"/>
       <c r="E18" s="27"/>
-      <c r="F18" s="21" t="n">
+      <c r="F18" s="20" t="n">
         <f aca="false">C12</f>
         <v>2</v>
       </c>
@@ -2329,9 +2400,9 @@
         <f aca="false">F18+F20</f>
         <v>6</v>
       </c>
-      <c r="I18" s="0"/>
-      <c r="J18" s="0"/>
-      <c r="K18" s="21" t="n">
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="20" t="n">
         <f aca="false">H18</f>
         <v>6</v>
       </c>
@@ -2340,17 +2411,17 @@
         <f aca="false">K18+K20</f>
         <v>15</v>
       </c>
-      <c r="N18" s="0"/>
-      <c r="O18" s="0"/>
-      <c r="P18" s="0"/>
-      <c r="Q18" s="0"/>
-      <c r="R18" s="0"/>
-      <c r="S18" s="0"/>
-      <c r="T18" s="0"/>
-      <c r="U18" s="0"/>
-      <c r="V18" s="0"/>
-      <c r="W18" s="0"/>
-      <c r="X18" s="0"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="21"/>
       <c r="Y18" s="26"/>
       <c r="Z18" s="28" t="n">
         <f aca="false">AB18-Z17</f>
@@ -2361,8 +2432,8 @@
         <f aca="false">AE18</f>
         <v>31</v>
       </c>
-      <c r="AC18" s="0"/>
-      <c r="AD18" s="0"/>
+      <c r="AC18" s="21"/>
+      <c r="AD18" s="21"/>
       <c r="AE18" s="28" t="n">
         <f aca="false">AG18-AE17</f>
         <v>31</v>
@@ -2374,43 +2445,43 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="0"/>
+      <c r="D19" s="21"/>
       <c r="E19" s="27"/>
       <c r="F19" s="22" t="s">
         <v>7</v>
       </c>
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
-      <c r="I19" s="0"/>
-      <c r="J19" s="0"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
       <c r="K19" s="22" t="s">
         <v>8</v>
       </c>
       <c r="L19" s="22"/>
       <c r="M19" s="22"/>
-      <c r="N19" s="0"/>
-      <c r="O19" s="0"/>
-      <c r="P19" s="0"/>
-      <c r="Q19" s="0"/>
-      <c r="R19" s="0"/>
-      <c r="S19" s="0"/>
-      <c r="T19" s="0"/>
-      <c r="U19" s="0"/>
-      <c r="V19" s="0"/>
-      <c r="W19" s="0"/>
-      <c r="X19" s="0"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="21"/>
       <c r="Y19" s="27"/>
-      <c r="Z19" s="0"/>
-      <c r="AA19" s="0"/>
-      <c r="AB19" s="0"/>
-      <c r="AC19" s="0"/>
-      <c r="AD19" s="0"/>
-      <c r="AE19" s="0"/>
-      <c r="AF19" s="0"/>
-      <c r="AG19" s="0"/>
+      <c r="Z19" s="21"/>
+      <c r="AA19" s="21"/>
+      <c r="AB19" s="21"/>
+      <c r="AC19" s="21"/>
+      <c r="AD19" s="21"/>
+      <c r="AE19" s="21"/>
+      <c r="AF19" s="21"/>
+      <c r="AG19" s="21"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="0"/>
+      <c r="D20" s="21"/>
       <c r="E20" s="25"/>
       <c r="F20" s="23" t="n">
         <f aca="false">VLOOKUP(F19,$A$2:$H$10,8)</f>
@@ -2449,16 +2520,16 @@
       <c r="V20" s="25"/>
       <c r="W20" s="25"/>
       <c r="X20" s="25"/>
-      <c r="Y20" s="0"/>
-      <c r="Z20" s="0"/>
-      <c r="AA20" s="0"/>
-      <c r="AB20" s="0"/>
-      <c r="AC20" s="0"/>
-      <c r="AD20" s="0"/>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="21"/>
+      <c r="AA20" s="21"/>
+      <c r="AB20" s="21"/>
+      <c r="AC20" s="21"/>
+      <c r="AD20" s="21"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D21" s="0"/>
-      <c r="E21" s="0"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
       <c r="F21" s="28" t="n">
         <f aca="false">H21-F20</f>
         <v>14</v>
@@ -2468,8 +2539,8 @@
         <f aca="false">K21</f>
         <v>18</v>
       </c>
-      <c r="I21" s="0"/>
-      <c r="J21" s="0"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
       <c r="K21" s="28" t="n">
         <f aca="false">M21-K20</f>
         <v>18</v>
@@ -2479,23 +2550,23 @@
         <f aca="false">Z18</f>
         <v>27</v>
       </c>
-      <c r="N21" s="0"/>
-      <c r="O21" s="0"/>
-      <c r="P21" s="0"/>
-      <c r="Q21" s="0"/>
-      <c r="R21" s="0"/>
-      <c r="S21" s="0"/>
-      <c r="T21" s="0"/>
-      <c r="U21" s="0"/>
-      <c r="V21" s="0"/>
-      <c r="W21" s="0"/>
-      <c r="X21" s="0"/>
-      <c r="Y21" s="0"/>
-      <c r="Z21" s="0"/>
-      <c r="AA21" s="0"/>
-      <c r="AB21" s="0"/>
-      <c r="AC21" s="0"/>
-      <c r="AD21" s="0"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="21"/>
+      <c r="Z21" s="21"/>
+      <c r="AA21" s="21"/>
+      <c r="AB21" s="21"/>
+      <c r="AC21" s="21"/>
+      <c r="AD21" s="21"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="16"/>
@@ -2719,27 +2790,22 @@
     <mergeCell ref="A36:A44"/>
     <mergeCell ref="C36:C44"/>
   </mergeCells>
-  <conditionalFormatting sqref="B34">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA16 AF16">
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AJ8:BS8 J8:AF9 AJ9:AK9 AX10:BS10 AO9:AR9 J10:AT10 AV9:BS9 J1:BS7">
-    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>IF(OR(WEEKDAY(J$1,1)=7,WEEKDAY(J$1,1)=1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ8:BS8 J8:AF9 AJ9:AK9 AX10:BS10 AO9:AR9 J10:AT10 AV9:BS9 J2:BS7">
-    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14 G14 G20 L14 L20 Q14 V14 AA17 AF17">
+    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2759,7 +2825,7 @@
   </sheetPr>
   <dimension ref="A1:AB68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AA18" activeCellId="0" sqref="AA18"/>
     </sheetView>
   </sheetViews>
@@ -2975,20 +3041,20 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="21" t="n">
+      <c r="A14" s="20" t="n">
         <v>0</v>
       </c>
       <c r="B14" s="44"/>
       <c r="C14" s="45"/>
-      <c r="F14" s="21"/>
+      <c r="F14" s="20"/>
       <c r="G14" s="44"/>
       <c r="H14" s="45"/>
-      <c r="K14" s="21"/>
+      <c r="K14" s="20"/>
       <c r="L14" s="44"/>
       <c r="M14" s="45"/>
-      <c r="P14" s="0"/>
-      <c r="Q14" s="0"/>
-      <c r="R14" s="0"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="22" t="s">
@@ -3031,21 +3097,21 @@
       </c>
       <c r="G16" s="47"/>
       <c r="H16" s="24"/>
-      <c r="I16" s="0"/>
-      <c r="J16" s="0"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
       <c r="K16" s="24" t="n">
         <f aca="false" t="array" ref="K16:K16">VLOOKUP(K15,$A$2:$H$15,8)</f>
         <v>4</v>
       </c>
       <c r="L16" s="47"/>
       <c r="M16" s="24"/>
-      <c r="P16" s="0"/>
-      <c r="Q16" s="0"/>
-      <c r="R16" s="0"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
       <c r="T16" s="49"/>
-      <c r="U16" s="0"/>
-      <c r="V16" s="0"/>
-      <c r="W16" s="0"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="28"/>
@@ -3055,23 +3121,23 @@
       <c r="F17" s="28"/>
       <c r="G17" s="44"/>
       <c r="H17" s="50"/>
-      <c r="I17" s="0"/>
-      <c r="J17" s="0"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
       <c r="K17" s="28"/>
       <c r="L17" s="44"/>
       <c r="M17" s="50"/>
-      <c r="P17" s="0"/>
-      <c r="Q17" s="0"/>
-      <c r="R17" s="0"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
       <c r="T17" s="51"/>
-      <c r="U17" s="21"/>
+      <c r="U17" s="20"/>
       <c r="V17" s="44"/>
       <c r="W17" s="45"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E18" s="48"/>
-      <c r="I18" s="0"/>
-      <c r="J18" s="0"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
       <c r="U18" s="22" t="s">
         <v>12</v>
       </c>
@@ -3081,8 +3147,8 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E19" s="48"/>
-      <c r="I19" s="0"/>
-      <c r="J19" s="0"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
       <c r="T19" s="46"/>
       <c r="U19" s="24" t="n">
         <f aca="false" t="array" ref="U19:U19">VLOOKUP(U18,$A$2:$H$15,8)</f>
@@ -3094,15 +3160,15 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E20" s="48"/>
-      <c r="F20" s="21"/>
+      <c r="F20" s="20"/>
       <c r="G20" s="44"/>
       <c r="H20" s="45"/>
-      <c r="I20" s="0"/>
-      <c r="J20" s="0"/>
-      <c r="K20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="20"/>
       <c r="L20" s="44"/>
       <c r="M20" s="45"/>
-      <c r="P20" s="21"/>
+      <c r="P20" s="20"/>
       <c r="Q20" s="44"/>
       <c r="R20" s="45"/>
       <c r="T20" s="49"/>
@@ -3110,7 +3176,7 @@
       <c r="V20" s="44"/>
       <c r="W20" s="50"/>
       <c r="Y20" s="51"/>
-      <c r="Z20" s="21"/>
+      <c r="Z20" s="20"/>
       <c r="AA20" s="44"/>
       <c r="AB20" s="45"/>
     </row>
@@ -3150,7 +3216,7 @@
       </c>
       <c r="G22" s="47"/>
       <c r="H22" s="24"/>
-      <c r="I22" s="0"/>
+      <c r="I22" s="21"/>
       <c r="J22" s="48"/>
       <c r="K22" s="24" t="n">
         <f aca="false" t="array" ref="K22:K22">VLOOKUP(K21,$A$2:$H$15,8)</f>
@@ -3198,10 +3264,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J26" s="48"/>
-      <c r="K26" s="21"/>
+      <c r="K26" s="20"/>
       <c r="L26" s="44"/>
       <c r="M26" s="45"/>
-      <c r="P26" s="21"/>
+      <c r="P26" s="20"/>
       <c r="Q26" s="44"/>
       <c r="R26" s="45"/>
       <c r="Y26" s="49"/>
@@ -3521,7 +3587,813 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16 G16 G22 L16 L22 Q22 L28 Q28 V19 AA22">
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CSeite &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AB70"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="32" width="3.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="40"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="40"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="42"/>
+      <c r="E6" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="40"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="42"/>
+      <c r="E8" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="40"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="40"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="42"/>
+      <c r="E11" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="42"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" s="44"/>
+      <c r="C16" s="45"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="45"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="45"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="46"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="24" t="n">
+        <f aca="false" t="array" ref="A18:A18">VLOOKUP(A17,$A$2:$H$17,8)</f>
+        <v>4</v>
+      </c>
+      <c r="B18" s="47"/>
+      <c r="C18" s="24"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="24" t="n">
+        <f aca="false" t="array" ref="F18:F18">VLOOKUP(F17,$A$2:$H$17,8)</f>
+        <v>4</v>
+      </c>
+      <c r="G18" s="47"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="24" t="n">
+        <f aca="false" t="array" ref="K18:K18">VLOOKUP(K17,$A$2:$H$17,8)</f>
+        <v>5</v>
+      </c>
+      <c r="L18" s="47"/>
+      <c r="M18" s="24"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="T18" s="49"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="21"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="28"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="50"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="50"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="T19" s="51"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="45"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E20" s="48"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="U20" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="V20" s="22"/>
+      <c r="W20" s="22"/>
+      <c r="X20" s="46"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E21" s="48"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="T21" s="46"/>
+      <c r="U21" s="24" t="n">
+        <f aca="false" t="array" ref="U21:U21">VLOOKUP(U20,$A$2:$H$17,8)</f>
+        <v>9</v>
+      </c>
+      <c r="V21" s="47"/>
+      <c r="W21" s="24"/>
+      <c r="Y21" s="49"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E22" s="48"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="45"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="45"/>
+      <c r="T22" s="49"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="44"/>
+      <c r="W22" s="50"/>
+      <c r="Y22" s="51"/>
+      <c r="Z22" s="20"/>
+      <c r="AA22" s="44"/>
+      <c r="AB22" s="45"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E23" s="52"/>
+      <c r="F23" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="46"/>
+      <c r="T23" s="49"/>
+      <c r="Z23" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA23" s="22"/>
+      <c r="AB23" s="22"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F24" s="24" t="n">
+        <f aca="false" t="array" ref="F24:F24">VLOOKUP(F23,$A$2:$H$17,8)</f>
+        <v>7</v>
+      </c>
+      <c r="G24" s="47"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="24" t="n">
+        <f aca="false" t="array" ref="K24:K24">VLOOKUP(K23,$A$2:$H$17,8)</f>
+        <v>4</v>
+      </c>
+      <c r="L24" s="47"/>
+      <c r="M24" s="24"/>
+      <c r="P24" s="24" t="n">
+        <f aca="false" t="array" ref="P24:P24">VLOOKUP(P23,$A$2:$H$17,8)</f>
+        <v>4</v>
+      </c>
+      <c r="Q24" s="47"/>
+      <c r="R24" s="24"/>
+      <c r="Y24" s="46"/>
+      <c r="Z24" s="24" t="n">
+        <f aca="false" t="array" ref="Z24:Z24">VLOOKUP(Z23,$A$2:$H$17,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AA24" s="47"/>
+      <c r="AB24" s="24"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F25" s="28"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="50"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="50"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="50"/>
+      <c r="Y25" s="49"/>
+      <c r="Z25" s="28"/>
+      <c r="AA25" s="44"/>
+      <c r="AB25" s="50"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J26" s="48"/>
+      <c r="Y26" s="49"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J27" s="48"/>
+      <c r="Y27" s="49"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J28" s="48"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="45"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="44"/>
+      <c r="R28" s="45"/>
+      <c r="Y28" s="49"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J29" s="52"/>
+      <c r="K29" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="46"/>
+      <c r="P29" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="46"/>
+      <c r="T29" s="46"/>
+      <c r="U29" s="46"/>
+      <c r="V29" s="46"/>
+      <c r="W29" s="46"/>
+      <c r="X29" s="46"/>
+      <c r="Y29" s="49"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K30" s="24" t="n">
+        <f aca="false" t="array" ref="K30:K30">VLOOKUP(K29,$A$2:$H$17,8)</f>
+        <v>6</v>
+      </c>
+      <c r="L30" s="47"/>
+      <c r="M30" s="24"/>
+      <c r="P30" s="24" t="n">
+        <f aca="false" t="array" ref="P30:P30">VLOOKUP(P29,$A$2:$H$17,8)</f>
+        <v>5</v>
+      </c>
+      <c r="Q30" s="47"/>
+      <c r="R30" s="24"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K31" s="28"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="50"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="44"/>
+      <c r="R31" s="50"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="53"/>
+      <c r="B57" s="54"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="54"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="54"/>
+      <c r="G57" s="54"/>
+      <c r="H57" s="54"/>
+      <c r="I57" s="54"/>
+      <c r="J57" s="54"/>
+      <c r="K57" s="54"/>
+      <c r="L57" s="54"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="53"/>
+      <c r="B58" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="55"/>
+      <c r="D58" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="55"/>
+      <c r="F58" s="55"/>
+      <c r="G58" s="55"/>
+      <c r="H58" s="55"/>
+      <c r="I58" s="55"/>
+      <c r="J58" s="55"/>
+      <c r="K58" s="55"/>
+      <c r="L58" s="54"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="53"/>
+      <c r="B59" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="56"/>
+      <c r="D59" s="56"/>
+      <c r="E59" s="55"/>
+      <c r="F59" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="G59" s="57"/>
+      <c r="H59" s="57"/>
+      <c r="I59" s="57"/>
+      <c r="J59" s="57"/>
+      <c r="K59" s="55"/>
+      <c r="L59" s="54"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="53"/>
+      <c r="B60" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" s="55"/>
+      <c r="F60" s="55"/>
+      <c r="G60" s="55"/>
+      <c r="H60" s="55"/>
+      <c r="I60" s="55"/>
+      <c r="J60" s="55"/>
+      <c r="K60" s="55"/>
+      <c r="L60" s="54"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="53"/>
+      <c r="B61" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" s="55"/>
+      <c r="D61" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" s="55"/>
+      <c r="F61" s="55"/>
+      <c r="G61" s="55"/>
+      <c r="H61" s="55"/>
+      <c r="I61" s="55"/>
+      <c r="J61" s="55"/>
+      <c r="K61" s="55"/>
+      <c r="L61" s="54"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="53"/>
+      <c r="B62" s="55"/>
+      <c r="C62" s="55"/>
+      <c r="D62" s="55"/>
+      <c r="E62" s="55"/>
+      <c r="F62" s="55"/>
+      <c r="G62" s="55"/>
+      <c r="H62" s="55"/>
+      <c r="I62" s="55"/>
+      <c r="J62" s="55"/>
+      <c r="K62" s="55"/>
+      <c r="L62" s="54"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="53"/>
+      <c r="B63" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="D63" s="61"/>
+      <c r="E63" s="61"/>
+      <c r="F63" s="61"/>
+      <c r="G63" s="61"/>
+      <c r="H63" s="61"/>
+      <c r="I63" s="61"/>
+      <c r="J63" s="61"/>
+      <c r="K63" s="61"/>
+      <c r="L63" s="54"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="53"/>
+      <c r="B64" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="D64" s="61"/>
+      <c r="E64" s="61"/>
+      <c r="F64" s="61"/>
+      <c r="G64" s="61"/>
+      <c r="H64" s="61"/>
+      <c r="I64" s="61"/>
+      <c r="J64" s="61"/>
+      <c r="K64" s="61"/>
+      <c r="L64" s="54"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="53"/>
+      <c r="B65" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="D65" s="61"/>
+      <c r="E65" s="61"/>
+      <c r="F65" s="61"/>
+      <c r="G65" s="61"/>
+      <c r="H65" s="61"/>
+      <c r="I65" s="61"/>
+      <c r="J65" s="61"/>
+      <c r="K65" s="61"/>
+      <c r="L65" s="54"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="53"/>
+      <c r="B66" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="D66" s="61"/>
+      <c r="E66" s="61"/>
+      <c r="F66" s="61"/>
+      <c r="G66" s="61"/>
+      <c r="H66" s="61"/>
+      <c r="I66" s="61"/>
+      <c r="J66" s="61"/>
+      <c r="K66" s="61"/>
+      <c r="L66" s="54"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="53"/>
+      <c r="B67" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D67" s="61"/>
+      <c r="E67" s="61"/>
+      <c r="F67" s="61"/>
+      <c r="G67" s="61"/>
+      <c r="H67" s="61"/>
+      <c r="I67" s="61"/>
+      <c r="J67" s="61"/>
+      <c r="K67" s="61"/>
+      <c r="L67" s="54"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="53"/>
+      <c r="B68" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="D68" s="61"/>
+      <c r="E68" s="61"/>
+      <c r="F68" s="61"/>
+      <c r="G68" s="61"/>
+      <c r="H68" s="61"/>
+      <c r="I68" s="61"/>
+      <c r="J68" s="61"/>
+      <c r="K68" s="61"/>
+      <c r="L68" s="54"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="53"/>
+      <c r="B69" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="D69" s="54"/>
+      <c r="E69" s="54"/>
+      <c r="F69" s="54"/>
+      <c r="G69" s="54"/>
+      <c r="H69" s="54"/>
+      <c r="I69" s="54"/>
+      <c r="J69" s="54"/>
+      <c r="K69" s="54"/>
+      <c r="L69" s="54"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="53"/>
+      <c r="B70" s="54"/>
+      <c r="C70" s="54"/>
+      <c r="D70" s="54"/>
+      <c r="E70" s="54"/>
+      <c r="F70" s="54"/>
+      <c r="G70" s="54"/>
+      <c r="H70" s="54"/>
+      <c r="I70" s="54"/>
+      <c r="J70" s="54"/>
+      <c r="K70" s="54"/>
+      <c r="L70" s="54"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="U20:W20"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="Z23:AB23"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="C63:K63"/>
+    <mergeCell ref="C64:K64"/>
+    <mergeCell ref="C65:K65"/>
+    <mergeCell ref="C66:K66"/>
+    <mergeCell ref="C67:K67"/>
+    <mergeCell ref="C68:K68"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C59:C60 B68">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18 G18 G24 L18 L24 Q24 L30 Q30 V21 AA24">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Übungen/04_Netzplan_Wiederholung.xlsx
+++ b/Übungen/04_Netzplan_Wiederholung.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="39">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -940,7 +940,7 @@
   <dimension ref="A1:BS44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AH17" activeCellId="0" sqref="AH17"/>
+      <selection pane="topLeft" activeCell="AH17" activeCellId="1" sqref="D15:AC32 AH17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2826,7 +2826,7 @@
   <dimension ref="A1:AB68"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA18" activeCellId="0" sqref="AA18"/>
+      <selection pane="topLeft" activeCell="AA18" activeCellId="0" sqref="D15:AC32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3607,10 +3607,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB70"/>
+  <dimension ref="A1:AC70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15:AC32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3846,21 +3846,66 @@
         <v>7</v>
       </c>
     </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0"/>
+      <c r="G15" s="0"/>
+      <c r="H15" s="0"/>
+      <c r="I15" s="0"/>
+      <c r="J15" s="0"/>
+      <c r="K15" s="0"/>
+      <c r="L15" s="0"/>
+      <c r="M15" s="0"/>
+      <c r="N15" s="0"/>
+      <c r="O15" s="0"/>
+      <c r="P15" s="0"/>
+      <c r="Q15" s="0"/>
+      <c r="R15" s="0"/>
+      <c r="S15" s="0"/>
+      <c r="T15" s="0"/>
+      <c r="U15" s="0"/>
+      <c r="V15" s="0"/>
+      <c r="W15" s="0"/>
+      <c r="X15" s="0"/>
+      <c r="Y15" s="0"/>
+      <c r="Z15" s="0"/>
+      <c r="AA15" s="0"/>
+      <c r="AB15" s="0"/>
+      <c r="AC15" s="0"/>
+    </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="n">
         <v>0</v>
       </c>
       <c r="B16" s="44"/>
       <c r="C16" s="45"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="45"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="45"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="0"/>
+      <c r="G16" s="0"/>
+      <c r="H16" s="0"/>
+      <c r="I16" s="0"/>
+      <c r="J16" s="0"/>
+      <c r="K16" s="0"/>
+      <c r="L16" s="0"/>
+      <c r="M16" s="0"/>
+      <c r="N16" s="0"/>
+      <c r="O16" s="0"/>
+      <c r="P16" s="0"/>
+      <c r="Q16" s="0"/>
+      <c r="R16" s="0"/>
+      <c r="S16" s="0"/>
+      <c r="T16" s="0"/>
+      <c r="U16" s="0"/>
+      <c r="V16" s="0"/>
+      <c r="W16" s="0"/>
+      <c r="X16" s="0"/>
+      <c r="Y16" s="0"/>
+      <c r="Z16" s="0"/>
+      <c r="AA16" s="0"/>
+      <c r="AB16" s="0"/>
+      <c r="AC16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="22" t="s">
@@ -3868,26 +3913,32 @@
       </c>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="46"/>
-      <c r="S17" s="46"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="0"/>
+      <c r="G17" s="0"/>
+      <c r="H17" s="0"/>
+      <c r="I17" s="0"/>
+      <c r="J17" s="0"/>
+      <c r="K17" s="0"/>
+      <c r="L17" s="0"/>
+      <c r="M17" s="0"/>
+      <c r="N17" s="0"/>
+      <c r="O17" s="0"/>
+      <c r="P17" s="0"/>
+      <c r="Q17" s="0"/>
+      <c r="R17" s="0"/>
+      <c r="S17" s="0"/>
+      <c r="T17" s="0"/>
+      <c r="U17" s="0"/>
+      <c r="V17" s="0"/>
+      <c r="W17" s="0"/>
+      <c r="X17" s="0"/>
+      <c r="Y17" s="0"/>
+      <c r="Z17" s="0"/>
+      <c r="AA17" s="0"/>
+      <c r="AB17" s="0"/>
+      <c r="AC17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="24" t="n">
@@ -3896,231 +3947,427 @@
       </c>
       <c r="B18" s="47"/>
       <c r="C18" s="24"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="24" t="n">
-        <f aca="false" t="array" ref="F18:F18">VLOOKUP(F17,$A$2:$H$17,8)</f>
-        <v>4</v>
-      </c>
-      <c r="G18" s="47"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="24" t="n">
-        <f aca="false" t="array" ref="K18:K18">VLOOKUP(K17,$A$2:$H$17,8)</f>
-        <v>5</v>
-      </c>
-      <c r="L18" s="47"/>
-      <c r="M18" s="24"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="T18" s="49"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
-      <c r="W18" s="21"/>
+      <c r="D18" s="0"/>
+      <c r="E18" s="0"/>
+      <c r="F18" s="0"/>
+      <c r="G18" s="0"/>
+      <c r="H18" s="0"/>
+      <c r="I18" s="0"/>
+      <c r="J18" s="0"/>
+      <c r="K18" s="0"/>
+      <c r="L18" s="0"/>
+      <c r="M18" s="0"/>
+      <c r="N18" s="0"/>
+      <c r="O18" s="0"/>
+      <c r="P18" s="0"/>
+      <c r="Q18" s="0"/>
+      <c r="R18" s="0"/>
+      <c r="S18" s="0"/>
+      <c r="T18" s="0"/>
+      <c r="U18" s="0"/>
+      <c r="V18" s="0"/>
+      <c r="W18" s="0"/>
+      <c r="X18" s="0"/>
+      <c r="Y18" s="0"/>
+      <c r="Z18" s="0"/>
+      <c r="AA18" s="0"/>
+      <c r="AB18" s="0"/>
+      <c r="AC18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="28"/>
       <c r="B19" s="44"/>
       <c r="C19" s="50"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="50"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="T19" s="51"/>
-      <c r="U19" s="20"/>
-      <c r="V19" s="44"/>
-      <c r="W19" s="45"/>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="0"/>
+      <c r="G19" s="0"/>
+      <c r="H19" s="0"/>
+      <c r="I19" s="0"/>
+      <c r="J19" s="0"/>
+      <c r="K19" s="0"/>
+      <c r="L19" s="0"/>
+      <c r="M19" s="0"/>
+      <c r="N19" s="0"/>
+      <c r="O19" s="0"/>
+      <c r="P19" s="0"/>
+      <c r="Q19" s="0"/>
+      <c r="R19" s="0"/>
+      <c r="S19" s="0"/>
+      <c r="T19" s="0"/>
+      <c r="U19" s="0"/>
+      <c r="V19" s="0"/>
+      <c r="W19" s="0"/>
+      <c r="X19" s="0"/>
+      <c r="Y19" s="0"/>
+      <c r="Z19" s="0"/>
+      <c r="AA19" s="0"/>
+      <c r="AB19" s="0"/>
+      <c r="AC19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E20" s="48"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="U20" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="V20" s="22"/>
-      <c r="W20" s="22"/>
-      <c r="X20" s="46"/>
+      <c r="D20" s="0"/>
+      <c r="E20" s="0"/>
+      <c r="F20" s="0"/>
+      <c r="G20" s="0"/>
+      <c r="H20" s="0"/>
+      <c r="I20" s="0"/>
+      <c r="J20" s="0"/>
+      <c r="K20" s="0"/>
+      <c r="L20" s="0"/>
+      <c r="M20" s="0"/>
+      <c r="N20" s="0"/>
+      <c r="O20" s="0"/>
+      <c r="P20" s="0"/>
+      <c r="Q20" s="0"/>
+      <c r="R20" s="0"/>
+      <c r="S20" s="0"/>
+      <c r="T20" s="0"/>
+      <c r="U20" s="0"/>
+      <c r="V20" s="0"/>
+      <c r="W20" s="0"/>
+      <c r="X20" s="0"/>
+      <c r="Y20" s="0"/>
+      <c r="Z20" s="0"/>
+      <c r="AA20" s="0"/>
+      <c r="AB20" s="0"/>
+      <c r="AC20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E21" s="48"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="T21" s="46"/>
-      <c r="U21" s="24" t="n">
-        <f aca="false" t="array" ref="U21:U21">VLOOKUP(U20,$A$2:$H$17,8)</f>
-        <v>9</v>
-      </c>
-      <c r="V21" s="47"/>
-      <c r="W21" s="24"/>
-      <c r="Y21" s="49"/>
+      <c r="D21" s="0"/>
+      <c r="E21" s="0"/>
+      <c r="F21" s="0"/>
+      <c r="G21" s="0"/>
+      <c r="H21" s="0"/>
+      <c r="I21" s="0"/>
+      <c r="J21" s="0"/>
+      <c r="K21" s="0"/>
+      <c r="L21" s="0"/>
+      <c r="M21" s="0"/>
+      <c r="N21" s="0"/>
+      <c r="O21" s="0"/>
+      <c r="P21" s="0"/>
+      <c r="Q21" s="0"/>
+      <c r="R21" s="0"/>
+      <c r="S21" s="0"/>
+      <c r="T21" s="0"/>
+      <c r="U21" s="0"/>
+      <c r="V21" s="0"/>
+      <c r="W21" s="0"/>
+      <c r="X21" s="0"/>
+      <c r="Y21" s="0"/>
+      <c r="Z21" s="0"/>
+      <c r="AA21" s="0"/>
+      <c r="AB21" s="0"/>
+      <c r="AC21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E22" s="48"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="45"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="44"/>
-      <c r="R22" s="45"/>
-      <c r="T22" s="49"/>
-      <c r="U22" s="28"/>
-      <c r="V22" s="44"/>
-      <c r="W22" s="50"/>
-      <c r="Y22" s="51"/>
-      <c r="Z22" s="20"/>
-      <c r="AA22" s="44"/>
-      <c r="AB22" s="45"/>
+      <c r="D22" s="0"/>
+      <c r="E22" s="0"/>
+      <c r="F22" s="0"/>
+      <c r="G22" s="0"/>
+      <c r="H22" s="0"/>
+      <c r="I22" s="0"/>
+      <c r="J22" s="0"/>
+      <c r="K22" s="0"/>
+      <c r="L22" s="0"/>
+      <c r="M22" s="0"/>
+      <c r="N22" s="0"/>
+      <c r="O22" s="0"/>
+      <c r="P22" s="0"/>
+      <c r="Q22" s="0"/>
+      <c r="R22" s="0"/>
+      <c r="S22" s="0"/>
+      <c r="T22" s="0"/>
+      <c r="U22" s="0"/>
+      <c r="V22" s="0"/>
+      <c r="W22" s="0"/>
+      <c r="X22" s="0"/>
+      <c r="Y22" s="0"/>
+      <c r="Z22" s="0"/>
+      <c r="AA22" s="0"/>
+      <c r="AB22" s="0"/>
+      <c r="AC22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E23" s="52"/>
-      <c r="F23" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="46"/>
-      <c r="T23" s="49"/>
-      <c r="Z23" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA23" s="22"/>
-      <c r="AB23" s="22"/>
+      <c r="D23" s="0"/>
+      <c r="E23" s="0"/>
+      <c r="F23" s="0"/>
+      <c r="G23" s="0"/>
+      <c r="H23" s="0"/>
+      <c r="I23" s="0"/>
+      <c r="J23" s="0"/>
+      <c r="K23" s="0"/>
+      <c r="L23" s="0"/>
+      <c r="M23" s="0"/>
+      <c r="N23" s="0"/>
+      <c r="O23" s="0"/>
+      <c r="P23" s="0"/>
+      <c r="Q23" s="0"/>
+      <c r="R23" s="0"/>
+      <c r="S23" s="0"/>
+      <c r="T23" s="0"/>
+      <c r="U23" s="0"/>
+      <c r="V23" s="0"/>
+      <c r="W23" s="0"/>
+      <c r="X23" s="0"/>
+      <c r="Y23" s="0"/>
+      <c r="Z23" s="0"/>
+      <c r="AA23" s="0"/>
+      <c r="AB23" s="0"/>
+      <c r="AC23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F24" s="24" t="n">
-        <f aca="false" t="array" ref="F24:F24">VLOOKUP(F23,$A$2:$H$17,8)</f>
-        <v>7</v>
-      </c>
-      <c r="G24" s="47"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="24" t="n">
-        <f aca="false" t="array" ref="K24:K24">VLOOKUP(K23,$A$2:$H$17,8)</f>
-        <v>4</v>
-      </c>
-      <c r="L24" s="47"/>
-      <c r="M24" s="24"/>
-      <c r="P24" s="24" t="n">
-        <f aca="false" t="array" ref="P24:P24">VLOOKUP(P23,$A$2:$H$17,8)</f>
-        <v>4</v>
-      </c>
-      <c r="Q24" s="47"/>
-      <c r="R24" s="24"/>
-      <c r="Y24" s="46"/>
-      <c r="Z24" s="24" t="n">
-        <f aca="false" t="array" ref="Z24:Z24">VLOOKUP(Z23,$A$2:$H$17,8)</f>
-        <v>4</v>
-      </c>
-      <c r="AA24" s="47"/>
-      <c r="AB24" s="24"/>
+      <c r="D24" s="0"/>
+      <c r="E24" s="0"/>
+      <c r="F24" s="0"/>
+      <c r="G24" s="0"/>
+      <c r="H24" s="0"/>
+      <c r="I24" s="0"/>
+      <c r="J24" s="0"/>
+      <c r="K24" s="0"/>
+      <c r="L24" s="0"/>
+      <c r="M24" s="0"/>
+      <c r="N24" s="0"/>
+      <c r="O24" s="0"/>
+      <c r="P24" s="0"/>
+      <c r="Q24" s="0"/>
+      <c r="R24" s="0"/>
+      <c r="S24" s="0"/>
+      <c r="T24" s="0"/>
+      <c r="U24" s="0"/>
+      <c r="V24" s="0"/>
+      <c r="W24" s="0"/>
+      <c r="X24" s="0"/>
+      <c r="Y24" s="0"/>
+      <c r="Z24" s="0"/>
+      <c r="AA24" s="0"/>
+      <c r="AB24" s="0"/>
+      <c r="AC24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F25" s="28"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="50"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="50"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="44"/>
-      <c r="R25" s="50"/>
-      <c r="Y25" s="49"/>
-      <c r="Z25" s="28"/>
-      <c r="AA25" s="44"/>
-      <c r="AB25" s="50"/>
+      <c r="D25" s="0"/>
+      <c r="E25" s="0"/>
+      <c r="F25" s="0"/>
+      <c r="G25" s="0"/>
+      <c r="H25" s="0"/>
+      <c r="I25" s="0"/>
+      <c r="J25" s="0"/>
+      <c r="K25" s="0"/>
+      <c r="L25" s="0"/>
+      <c r="M25" s="0"/>
+      <c r="N25" s="0"/>
+      <c r="O25" s="0"/>
+      <c r="P25" s="0"/>
+      <c r="Q25" s="0"/>
+      <c r="R25" s="0"/>
+      <c r="S25" s="0"/>
+      <c r="T25" s="0"/>
+      <c r="U25" s="0"/>
+      <c r="V25" s="0"/>
+      <c r="W25" s="0"/>
+      <c r="X25" s="0"/>
+      <c r="Y25" s="0"/>
+      <c r="Z25" s="0"/>
+      <c r="AA25" s="0"/>
+      <c r="AB25" s="0"/>
+      <c r="AC25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J26" s="48"/>
-      <c r="Y26" s="49"/>
+      <c r="D26" s="0"/>
+      <c r="E26" s="0"/>
+      <c r="F26" s="0"/>
+      <c r="G26" s="0"/>
+      <c r="H26" s="0"/>
+      <c r="I26" s="0"/>
+      <c r="J26" s="0"/>
+      <c r="K26" s="0"/>
+      <c r="L26" s="0"/>
+      <c r="M26" s="0"/>
+      <c r="N26" s="0"/>
+      <c r="O26" s="0"/>
+      <c r="P26" s="0"/>
+      <c r="Q26" s="0"/>
+      <c r="R26" s="0"/>
+      <c r="S26" s="0"/>
+      <c r="T26" s="0"/>
+      <c r="U26" s="0"/>
+      <c r="V26" s="0"/>
+      <c r="W26" s="0"/>
+      <c r="X26" s="0"/>
+      <c r="Y26" s="0"/>
+      <c r="Z26" s="0"/>
+      <c r="AA26" s="0"/>
+      <c r="AB26" s="0"/>
+      <c r="AC26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J27" s="48"/>
-      <c r="Y27" s="49"/>
+      <c r="D27" s="0"/>
+      <c r="E27" s="0"/>
+      <c r="F27" s="0"/>
+      <c r="G27" s="0"/>
+      <c r="H27" s="0"/>
+      <c r="I27" s="0"/>
+      <c r="J27" s="0"/>
+      <c r="K27" s="0"/>
+      <c r="L27" s="0"/>
+      <c r="M27" s="0"/>
+      <c r="N27" s="0"/>
+      <c r="O27" s="0"/>
+      <c r="P27" s="0"/>
+      <c r="Q27" s="0"/>
+      <c r="R27" s="0"/>
+      <c r="S27" s="0"/>
+      <c r="T27" s="0"/>
+      <c r="U27" s="0"/>
+      <c r="V27" s="0"/>
+      <c r="W27" s="0"/>
+      <c r="X27" s="0"/>
+      <c r="Y27" s="0"/>
+      <c r="Z27" s="0"/>
+      <c r="AA27" s="0"/>
+      <c r="AB27" s="0"/>
+      <c r="AC27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J28" s="48"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="45"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="44"/>
-      <c r="R28" s="45"/>
-      <c r="Y28" s="49"/>
+      <c r="D28" s="0"/>
+      <c r="E28" s="0"/>
+      <c r="F28" s="0"/>
+      <c r="G28" s="0"/>
+      <c r="H28" s="0"/>
+      <c r="I28" s="0"/>
+      <c r="J28" s="0"/>
+      <c r="K28" s="0"/>
+      <c r="L28" s="0"/>
+      <c r="M28" s="0"/>
+      <c r="N28" s="0"/>
+      <c r="O28" s="0"/>
+      <c r="P28" s="0"/>
+      <c r="Q28" s="0"/>
+      <c r="R28" s="0"/>
+      <c r="S28" s="0"/>
+      <c r="T28" s="0"/>
+      <c r="U28" s="0"/>
+      <c r="V28" s="0"/>
+      <c r="W28" s="0"/>
+      <c r="X28" s="0"/>
+      <c r="Y28" s="0"/>
+      <c r="Z28" s="0"/>
+      <c r="AA28" s="0"/>
+      <c r="AB28" s="0"/>
+      <c r="AC28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J29" s="52"/>
-      <c r="K29" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="46"/>
-      <c r="O29" s="46"/>
-      <c r="P29" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="22"/>
-      <c r="S29" s="46"/>
-      <c r="T29" s="46"/>
-      <c r="U29" s="46"/>
-      <c r="V29" s="46"/>
-      <c r="W29" s="46"/>
-      <c r="X29" s="46"/>
-      <c r="Y29" s="49"/>
+      <c r="D29" s="0"/>
+      <c r="E29" s="0"/>
+      <c r="F29" s="0"/>
+      <c r="G29" s="0"/>
+      <c r="H29" s="0"/>
+      <c r="I29" s="0"/>
+      <c r="J29" s="0"/>
+      <c r="K29" s="0"/>
+      <c r="L29" s="0"/>
+      <c r="M29" s="0"/>
+      <c r="N29" s="0"/>
+      <c r="O29" s="0"/>
+      <c r="P29" s="0"/>
+      <c r="Q29" s="0"/>
+      <c r="R29" s="0"/>
+      <c r="S29" s="0"/>
+      <c r="T29" s="0"/>
+      <c r="U29" s="0"/>
+      <c r="V29" s="0"/>
+      <c r="W29" s="0"/>
+      <c r="X29" s="0"/>
+      <c r="Y29" s="0"/>
+      <c r="Z29" s="0"/>
+      <c r="AA29" s="0"/>
+      <c r="AB29" s="0"/>
+      <c r="AC29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K30" s="24" t="n">
-        <f aca="false" t="array" ref="K30:K30">VLOOKUP(K29,$A$2:$H$17,8)</f>
-        <v>6</v>
-      </c>
-      <c r="L30" s="47"/>
-      <c r="M30" s="24"/>
-      <c r="P30" s="24" t="n">
-        <f aca="false" t="array" ref="P30:P30">VLOOKUP(P29,$A$2:$H$17,8)</f>
-        <v>5</v>
-      </c>
-      <c r="Q30" s="47"/>
-      <c r="R30" s="24"/>
+      <c r="D30" s="0"/>
+      <c r="E30" s="0"/>
+      <c r="F30" s="0"/>
+      <c r="G30" s="0"/>
+      <c r="H30" s="0"/>
+      <c r="I30" s="0"/>
+      <c r="J30" s="0"/>
+      <c r="K30" s="0"/>
+      <c r="L30" s="0"/>
+      <c r="M30" s="0"/>
+      <c r="N30" s="0"/>
+      <c r="O30" s="0"/>
+      <c r="P30" s="0"/>
+      <c r="Q30" s="0"/>
+      <c r="R30" s="0"/>
+      <c r="S30" s="0"/>
+      <c r="T30" s="0"/>
+      <c r="U30" s="0"/>
+      <c r="V30" s="0"/>
+      <c r="W30" s="0"/>
+      <c r="X30" s="0"/>
+      <c r="Y30" s="0"/>
+      <c r="Z30" s="0"/>
+      <c r="AA30" s="0"/>
+      <c r="AB30" s="0"/>
+      <c r="AC30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K31" s="28"/>
-      <c r="L31" s="44"/>
-      <c r="M31" s="50"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="44"/>
-      <c r="R31" s="50"/>
+      <c r="D31" s="0"/>
+      <c r="E31" s="0"/>
+      <c r="F31" s="0"/>
+      <c r="G31" s="0"/>
+      <c r="H31" s="0"/>
+      <c r="I31" s="0"/>
+      <c r="J31" s="0"/>
+      <c r="K31" s="0"/>
+      <c r="L31" s="0"/>
+      <c r="M31" s="0"/>
+      <c r="N31" s="0"/>
+      <c r="O31" s="0"/>
+      <c r="P31" s="0"/>
+      <c r="Q31" s="0"/>
+      <c r="R31" s="0"/>
+      <c r="S31" s="0"/>
+      <c r="T31" s="0"/>
+      <c r="U31" s="0"/>
+      <c r="V31" s="0"/>
+      <c r="W31" s="0"/>
+      <c r="X31" s="0"/>
+      <c r="Y31" s="0"/>
+      <c r="Z31" s="0"/>
+      <c r="AA31" s="0"/>
+      <c r="AB31" s="0"/>
+      <c r="AC31" s="0"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D32" s="0"/>
+      <c r="E32" s="0"/>
+      <c r="F32" s="0"/>
+      <c r="G32" s="0"/>
+      <c r="H32" s="0"/>
+      <c r="I32" s="0"/>
+      <c r="J32" s="0"/>
+      <c r="K32" s="0"/>
+      <c r="L32" s="0"/>
+      <c r="M32" s="0"/>
+      <c r="N32" s="0"/>
+      <c r="O32" s="0"/>
+      <c r="P32" s="0"/>
+      <c r="Q32" s="0"/>
+      <c r="R32" s="0"/>
+      <c r="S32" s="0"/>
+      <c r="T32" s="0"/>
+      <c r="U32" s="0"/>
+      <c r="V32" s="0"/>
+      <c r="W32" s="0"/>
+      <c r="X32" s="0"/>
+      <c r="Y32" s="0"/>
+      <c r="Z32" s="0"/>
+      <c r="AA32" s="0"/>
+      <c r="AB32" s="0"/>
+      <c r="AC32" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="53"/>
@@ -4365,19 +4612,10 @@
       <c r="L70" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="11">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A17:C17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="U20:W20"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="Z23:AB23"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="P29:R29"/>
     <mergeCell ref="B59:D59"/>
     <mergeCell ref="F59:J59"/>
     <mergeCell ref="C63:K63"/>
@@ -4392,7 +4630,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18 G18 G24 L18 L24 Q24 L30 Q30 V21 AA24">
+  <conditionalFormatting sqref="B18">
     <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>0</formula>
     </cfRule>

--- a/Übungen/04_Netzplan_Wiederholung.xlsx
+++ b/Übungen/04_Netzplan_Wiederholung.xlsx
@@ -940,7 +940,7 @@
   <dimension ref="A1:BS44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AH17" activeCellId="1" sqref="D15:AC32 AH17"/>
+      <selection pane="topLeft" activeCell="AH17" activeCellId="0" sqref="AH17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2826,7 +2826,7 @@
   <dimension ref="A1:AB68"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA18" activeCellId="0" sqref="D15:AC32"/>
+      <selection pane="topLeft" activeCell="AA18" activeCellId="0" sqref="AA18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3609,8 +3609,8 @@
   </sheetPr>
   <dimension ref="A1:AC70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15:AC32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Übungen/04_Netzplan_Wiederholung.xlsx
+++ b/Übungen/04_Netzplan_Wiederholung.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="39">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -3610,7 +3610,7 @@
   <dimension ref="A1:AC70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="topLeft" activeCell="X22" activeCellId="0" sqref="X22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3759,9 +3759,7 @@
       <c r="B8" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="40" t="s">
-        <v>38</v>
-      </c>
+      <c r="C8" s="40"/>
       <c r="D8" s="42"/>
       <c r="E8" s="43" t="s">
         <v>29</v>

--- a/Übungen/04_Netzplan_Wiederholung.xlsx
+++ b/Übungen/04_Netzplan_Wiederholung.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="39">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -239,7 +239,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF44336"/>
-        <bgColor rgb="FFC9211E"/>
+        <bgColor rgb="FFE91E63"/>
       </patternFill>
     </fill>
     <fill>
@@ -297,7 +297,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -389,6 +389,46 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFE91E63"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FFE91E63"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FFE91E63"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFE91E63"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FFE91E63"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFE91E63"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -421,7 +461,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="70">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -672,6 +712,34 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -792,7 +860,7 @@
       <rgbColor rgb="FFBDBDBD"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFE91E63"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFE8E8E8"/>
       <rgbColor rgb="FF660066"/>
@@ -940,7 +1008,7 @@
   <dimension ref="A1:BS44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AH17" activeCellId="0" sqref="AH17"/>
+      <selection pane="topLeft" activeCell="AH17" activeCellId="1" sqref="K1:AB10 AH17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2826,7 +2894,7 @@
   <dimension ref="A1:AB68"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA18" activeCellId="0" sqref="AA18"/>
+      <selection pane="topLeft" activeCell="AA18" activeCellId="1" sqref="K1:AB10 AA18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3607,10 +3675,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC70"/>
+  <dimension ref="A1:AQ70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X22" activeCellId="0" sqref="X22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1:AB10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3635,6 +3703,23 @@
       <c r="H1" s="33" t="s">
         <v>3</v>
       </c>
+      <c r="K1" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1" s="44"/>
+      <c r="M1" s="45" t="n">
+        <f aca="false">K1+K3</f>
+        <v>4</v>
+      </c>
+      <c r="P1" s="20" t="n">
+        <f aca="false">M1</f>
+        <v>4</v>
+      </c>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="45" t="n">
+        <f aca="false">P1+P3</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="36" t="s">
@@ -3659,6 +3744,16 @@
       <c r="H2" s="36" t="n">
         <v>4</v>
       </c>
+      <c r="K2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="P2" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="36" t="s">
@@ -3677,6 +3772,34 @@
       <c r="H3" s="36" t="n">
         <v>4</v>
       </c>
+      <c r="K3" s="24" t="n">
+        <f aca="false" t="array" ref="K3:K3">VLOOKUP(K2,$A$2:$H$17,8)</f>
+        <v>4</v>
+      </c>
+      <c r="L3" s="47" t="n">
+        <f aca="false">M4-M1</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="24" t="n">
+        <f aca="false">MIN(P1,P7,P13)-M1</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="24" t="n">
+        <f aca="false" t="array" ref="P3:P3">VLOOKUP(P2,$A$2:$H$17,8)</f>
+        <v>4</v>
+      </c>
+      <c r="Q3" s="47" t="n">
+        <f aca="false">R4-R1</f>
+        <v>3</v>
+      </c>
+      <c r="R3" s="24" t="n">
+        <f aca="false">U4-R1</f>
+        <v>3</v>
+      </c>
+      <c r="S3" s="63"/>
+      <c r="T3" s="49"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="36" t="s">
@@ -3695,6 +3818,54 @@
       <c r="H4" s="36" t="n">
         <v>7</v>
       </c>
+      <c r="K4" s="28" t="n">
+        <f aca="false">M4-K3</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="44"/>
+      <c r="M4" s="50" t="n">
+        <f aca="false">MIN(P4,P10,P16)</f>
+        <v>4</v>
+      </c>
+      <c r="N4" s="64"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="28" t="n">
+        <f aca="false">R4-P3</f>
+        <v>7</v>
+      </c>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="50" t="n">
+        <f aca="false">U7</f>
+        <v>11</v>
+      </c>
+      <c r="T4" s="49"/>
+      <c r="U4" s="20" t="n">
+        <f aca="false">MAX(R1,R7)</f>
+        <v>11</v>
+      </c>
+      <c r="V4" s="44"/>
+      <c r="W4" s="45" t="n">
+        <f aca="false">U4+U6</f>
+        <v>15</v>
+      </c>
+      <c r="Z4" s="20" t="n">
+        <f aca="false">W4</f>
+        <v>15</v>
+      </c>
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="45" t="n">
+        <f aca="false">Z4+Z6</f>
+        <v>19</v>
+      </c>
+      <c r="AE4" s="20" t="n">
+        <f aca="false">AB4</f>
+        <v>19</v>
+      </c>
+      <c r="AF4" s="44"/>
+      <c r="AG4" s="45" t="n">
+        <f aca="false">AE4+AE6</f>
+        <v>28</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="36" t="s">
@@ -3713,6 +3884,23 @@
       <c r="H5" s="36" t="n">
         <v>5</v>
       </c>
+      <c r="O5" s="65"/>
+      <c r="T5" s="63"/>
+      <c r="U5" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="Z5" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="22"/>
+      <c r="AE5" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF5" s="22"/>
+      <c r="AG5" s="22"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="36" t="s">
@@ -3733,6 +3921,50 @@
       <c r="H6" s="36" t="n">
         <v>4</v>
       </c>
+      <c r="O6" s="65"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="24" t="n">
+        <f aca="false" t="array" ref="U6:U6">VLOOKUP(U5,$A$2:$H$17,8)</f>
+        <v>4</v>
+      </c>
+      <c r="V6" s="47" t="n">
+        <f aca="false">W7-W4</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="24" t="n">
+        <f aca="false">Z4-W4</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="64"/>
+      <c r="Y6" s="64"/>
+      <c r="Z6" s="24" t="n">
+        <f aca="false" t="array" ref="Z6:Z6">VLOOKUP(Z5,$A$2:$H$17,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AA6" s="47" t="n">
+        <f aca="false">AB7-AB4</f>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="24" t="n">
+        <f aca="false">AE4-AB4</f>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="64"/>
+      <c r="AD6" s="64"/>
+      <c r="AE6" s="24" t="n">
+        <f aca="false" t="array" ref="AE6:AE6">VLOOKUP(AE5,$A$2:$H$17,8)</f>
+        <v>9</v>
+      </c>
+      <c r="AF6" s="47" t="n">
+        <f aca="false">AG7-AG4</f>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="24" t="n">
+        <f aca="false">AJ9-AG4</f>
+        <v>0</v>
+      </c>
+      <c r="AH6" s="64"/>
+      <c r="AI6" s="65"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="36" t="s">
@@ -3751,6 +3983,45 @@
       <c r="H7" s="36" t="n">
         <v>6</v>
       </c>
+      <c r="O7" s="65"/>
+      <c r="P7" s="20" t="n">
+        <f aca="false">M1</f>
+        <v>4</v>
+      </c>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="45" t="n">
+        <f aca="false">P7+P9</f>
+        <v>11</v>
+      </c>
+      <c r="T7" s="67"/>
+      <c r="U7" s="28" t="n">
+        <f aca="false">W7-U6</f>
+        <v>11</v>
+      </c>
+      <c r="V7" s="44"/>
+      <c r="W7" s="50" t="n">
+        <f aca="false">Z7</f>
+        <v>15</v>
+      </c>
+      <c r="Z7" s="28" t="n">
+        <f aca="false">AB7-Z6</f>
+        <v>15</v>
+      </c>
+      <c r="AA7" s="44"/>
+      <c r="AB7" s="50" t="n">
+        <f aca="false">AE7</f>
+        <v>19</v>
+      </c>
+      <c r="AE7" s="28" t="n">
+        <f aca="false">AG7-AE6</f>
+        <v>19</v>
+      </c>
+      <c r="AF7" s="44"/>
+      <c r="AG7" s="50" t="n">
+        <f aca="false">AJ12</f>
+        <v>28</v>
+      </c>
+      <c r="AI7" s="65"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="36" t="s">
@@ -3769,6 +4040,14 @@
       <c r="H8" s="36" t="n">
         <v>5</v>
       </c>
+      <c r="O8" s="68"/>
+      <c r="P8" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="T8" s="65"/>
+      <c r="AI8" s="65"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="36" t="s">
@@ -3787,6 +4066,39 @@
       <c r="H9" s="36" t="n">
         <v>4</v>
       </c>
+      <c r="O9" s="49"/>
+      <c r="P9" s="24" t="n">
+        <f aca="false" t="array" ref="P9:P9">VLOOKUP(P8,$A$2:$H$17,8)</f>
+        <v>7</v>
+      </c>
+      <c r="Q9" s="47" t="n">
+        <f aca="false">R10-R7</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="24" t="n">
+        <f aca="false">U4-R7</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="64"/>
+      <c r="AI9" s="65"/>
+      <c r="AJ9" s="20" t="n">
+        <f aca="false">MAX(AG4,AB13)</f>
+        <v>28</v>
+      </c>
+      <c r="AK9" s="44"/>
+      <c r="AL9" s="45" t="n">
+        <f aca="false">AJ9+AJ11</f>
+        <v>32</v>
+      </c>
+      <c r="AO9" s="20" t="n">
+        <f aca="false">AL9</f>
+        <v>32</v>
+      </c>
+      <c r="AP9" s="44"/>
+      <c r="AQ9" s="45" t="n">
+        <f aca="false">AO9+AO11</f>
+        <v>39</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="36" t="s">
@@ -3805,6 +4117,27 @@
       <c r="H10" s="36" t="n">
         <v>9</v>
       </c>
+      <c r="O10" s="49"/>
+      <c r="P10" s="28" t="n">
+        <f aca="false">R10-P9</f>
+        <v>4</v>
+      </c>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="50" t="n">
+        <f aca="false">U7</f>
+        <v>11</v>
+      </c>
+      <c r="AI10" s="64"/>
+      <c r="AJ10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK10" s="22"/>
+      <c r="AL10" s="22"/>
+      <c r="AO10" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP10" s="22"/>
+      <c r="AQ10" s="22"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="36" t="s">
@@ -3825,17 +4158,41 @@
       <c r="H11" s="36" t="n">
         <v>4</v>
       </c>
+      <c r="O11" s="49"/>
+      <c r="AJ11" s="24" t="n">
+        <f aca="false" t="array" ref="AJ11:AJ11">VLOOKUP(AJ10,$A$2:$H$17,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AK11" s="47" t="n">
+        <f aca="false">AL12-AL9</f>
+        <v>0</v>
+      </c>
+      <c r="AL11" s="24" t="n">
+        <f aca="false">AO9-AL9</f>
+        <v>0</v>
+      </c>
+      <c r="AM11" s="64"/>
+      <c r="AN11" s="64"/>
+      <c r="AO11" s="24" t="n">
+        <f aca="false" t="array" ref="AO11:AO11">VLOOKUP(AO10,$A$2:$H$17,8)</f>
+        <v>7</v>
+      </c>
+      <c r="AP11" s="47" t="n">
+        <f aca="false">AQ12-AQ9</f>
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="36" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="40" t="s">
         <v>29</v>
       </c>
+      <c r="C12" s="40"/>
       <c r="D12" s="42"/>
       <c r="E12" s="38"/>
       <c r="F12" s="38"/>
@@ -3843,6 +4200,76 @@
       <c r="H12" s="36" t="n">
         <v>7</v>
       </c>
+      <c r="O12" s="49"/>
+      <c r="AI12" s="69"/>
+      <c r="AJ12" s="28" t="n">
+        <f aca="false">AL12-AJ11</f>
+        <v>28</v>
+      </c>
+      <c r="AK12" s="44"/>
+      <c r="AL12" s="50" t="n">
+        <f aca="false">AO12</f>
+        <v>32</v>
+      </c>
+      <c r="AO12" s="28" t="n">
+        <f aca="false">AQ12-AO11</f>
+        <v>32</v>
+      </c>
+      <c r="AP12" s="44"/>
+      <c r="AQ12" s="50" t="n">
+        <f aca="false">AQ9</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O13" s="49"/>
+      <c r="P13" s="20" t="n">
+        <f aca="false">M1</f>
+        <v>4</v>
+      </c>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="45" t="n">
+        <f aca="false">P13+P15</f>
+        <v>9</v>
+      </c>
+      <c r="U13" s="20" t="n">
+        <f aca="false">R13</f>
+        <v>9</v>
+      </c>
+      <c r="V13" s="44"/>
+      <c r="W13" s="45" t="n">
+        <f aca="false">U13+U15</f>
+        <v>15</v>
+      </c>
+      <c r="Z13" s="20" t="n">
+        <f aca="false">W13</f>
+        <v>15</v>
+      </c>
+      <c r="AA13" s="44"/>
+      <c r="AB13" s="45" t="n">
+        <f aca="false">Z13+Z15</f>
+        <v>20</v>
+      </c>
+      <c r="AI13" s="49"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O14" s="49"/>
+      <c r="P14" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="U14" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="Z14" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="22"/>
+      <c r="AI14" s="49"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D15" s="0"/>
@@ -3856,28 +4283,58 @@
       <c r="L15" s="0"/>
       <c r="M15" s="0"/>
       <c r="N15" s="0"/>
-      <c r="O15" s="0"/>
-      <c r="P15" s="0"/>
-      <c r="Q15" s="0"/>
-      <c r="R15" s="0"/>
-      <c r="S15" s="0"/>
-      <c r="T15" s="0"/>
-      <c r="U15" s="0"/>
-      <c r="V15" s="0"/>
-      <c r="W15" s="0"/>
-      <c r="X15" s="0"/>
-      <c r="Y15" s="0"/>
-      <c r="Z15" s="0"/>
-      <c r="AA15" s="0"/>
-      <c r="AB15" s="0"/>
-      <c r="AC15" s="0"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="24" t="n">
+        <f aca="false" t="array" ref="P15:P15">VLOOKUP(P14,$A$2:$H$17,8)</f>
+        <v>5</v>
+      </c>
+      <c r="Q15" s="47" t="n">
+        <f aca="false">R16-R13</f>
+        <v>8</v>
+      </c>
+      <c r="R15" s="24" t="n">
+        <f aca="false">U13-R13</f>
+        <v>0</v>
+      </c>
+      <c r="S15" s="63"/>
+      <c r="T15" s="63"/>
+      <c r="U15" s="24" t="n">
+        <f aca="false" t="array" ref="U15:U15">VLOOKUP(U14,$A$2:$H$17,8)</f>
+        <v>6</v>
+      </c>
+      <c r="V15" s="47" t="n">
+        <f aca="false">W16-W13</f>
+        <v>8</v>
+      </c>
+      <c r="W15" s="24" t="n">
+        <f aca="false">Z13-W13</f>
+        <v>0</v>
+      </c>
+      <c r="X15" s="63"/>
+      <c r="Y15" s="63"/>
+      <c r="Z15" s="24" t="n">
+        <f aca="false" t="array" ref="Z15:Z15">VLOOKUP(Z14,$A$2:$H$17,8)</f>
+        <v>5</v>
+      </c>
+      <c r="AA15" s="47" t="n">
+        <f aca="false">AB16-AB13</f>
+        <v>8</v>
+      </c>
+      <c r="AB15" s="24" t="n">
+        <f aca="false">AJ9-AB13</f>
+        <v>8</v>
+      </c>
+      <c r="AC15" s="63"/>
+      <c r="AD15" s="63"/>
+      <c r="AE15" s="63"/>
+      <c r="AF15" s="63"/>
+      <c r="AG15" s="63"/>
+      <c r="AH15" s="63"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="45"/>
+      <c r="A16" s="0"/>
+      <c r="B16" s="0"/>
+      <c r="C16" s="0"/>
       <c r="D16" s="0"/>
       <c r="E16" s="0"/>
       <c r="F16" s="0"/>
@@ -3890,27 +4347,43 @@
       <c r="M16" s="0"/>
       <c r="N16" s="0"/>
       <c r="O16" s="0"/>
-      <c r="P16" s="0"/>
-      <c r="Q16" s="0"/>
-      <c r="R16" s="0"/>
+      <c r="P16" s="28" t="n">
+        <f aca="false">R16-P15</f>
+        <v>12</v>
+      </c>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="50" t="n">
+        <f aca="false">U16</f>
+        <v>17</v>
+      </c>
       <c r="S16" s="0"/>
       <c r="T16" s="0"/>
-      <c r="U16" s="0"/>
-      <c r="V16" s="0"/>
-      <c r="W16" s="0"/>
+      <c r="U16" s="28" t="n">
+        <f aca="false">W16-U15</f>
+        <v>17</v>
+      </c>
+      <c r="V16" s="44"/>
+      <c r="W16" s="50" t="n">
+        <f aca="false">Z16</f>
+        <v>23</v>
+      </c>
       <c r="X16" s="0"/>
       <c r="Y16" s="0"/>
-      <c r="Z16" s="0"/>
-      <c r="AA16" s="0"/>
-      <c r="AB16" s="0"/>
+      <c r="Z16" s="28" t="n">
+        <f aca="false">AB16-Z15</f>
+        <v>23</v>
+      </c>
+      <c r="AA16" s="44"/>
+      <c r="AB16" s="50" t="n">
+        <f aca="false">AJ12</f>
+        <v>28</v>
+      </c>
       <c r="AC16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
+      <c r="A17" s="0"/>
+      <c r="B17" s="0"/>
+      <c r="C17" s="0"/>
       <c r="D17" s="0"/>
       <c r="E17" s="0"/>
       <c r="F17" s="0"/>
@@ -3939,12 +4412,9 @@
       <c r="AC17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="24" t="n">
-        <f aca="false" t="array" ref="A18:A18">VLOOKUP(A17,$A$2:$H$17,8)</f>
-        <v>4</v>
-      </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="24"/>
+      <c r="A18" s="0"/>
+      <c r="B18" s="0"/>
+      <c r="C18" s="0"/>
       <c r="D18" s="0"/>
       <c r="E18" s="0"/>
       <c r="F18" s="0"/>
@@ -3973,9 +4443,9 @@
       <c r="AC18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="28"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="50"/>
+      <c r="A19" s="0"/>
+      <c r="B19" s="0"/>
+      <c r="C19" s="0"/>
       <c r="D19" s="0"/>
       <c r="E19" s="0"/>
       <c r="F19" s="0"/>
@@ -4610,10 +5080,20 @@
       <c r="L70" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="21">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="Z5:AB5"/>
+    <mergeCell ref="AE5:AG5"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="AJ10:AL10"/>
+    <mergeCell ref="AO10:AQ10"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="Z14:AB14"/>
     <mergeCell ref="B59:D59"/>
     <mergeCell ref="F59:J59"/>
     <mergeCell ref="C63:K63"/>
@@ -4628,7 +5108,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
+  <conditionalFormatting sqref="AP11 AK11 AF6 AA6 AA15 V15 V6 Q9 Q15 Q3 L3">
     <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>0</formula>
     </cfRule>
